--- a/forms/thomas_form.xlsx
+++ b/forms/thomas_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin.wang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3bd2985b379b5a/Documents/Autofill/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCFF098-9675-4405-A4E8-1F91E195F532}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCFF098-9675-4405-A4E8-1F91E195F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Adds" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5259,6 +5262,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -6192,88 +6196,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="8" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="41" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6286,6 +6212,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6321,6 +6250,81 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="41" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="8" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6336,7 +6340,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6348,7 +6367,19 @@
     <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6363,28 +6394,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6395,6 +6414,44 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6426,76 +6483,23 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -6998,83 +7002,83 @@
   <dimension ref="A1:BU948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="AE16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF23" sqref="AF23"/>
+      <selection pane="bottomRight" activeCell="AG5" sqref="AG5:AG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" style="178" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.6328125" style="101" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" style="101" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.453125" style="21" customWidth="1"/>
-    <col min="14" max="14" width="13.36328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="34.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.453125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="1.453125" style="21" customWidth="1"/>
-    <col min="18" max="18" width="30.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="178" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" style="21" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.453125" style="21" customWidth="1"/>
-    <col min="22" max="22" width="10.08984375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.42578125" style="21" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.453125" style="106" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.453125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="10.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.08984375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.453125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="27.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="68.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.08984375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="12.6328125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="13.6328125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="12.90625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="106" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.140625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="68.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13.5703125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" style="2" customWidth="1"/>
+    <col min="38" max="38" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="1.453125" style="21" customWidth="1"/>
-    <col min="45" max="45" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.08984375" style="2" customWidth="1"/>
-    <col min="47" max="47" width="12.36328125" style="2" customWidth="1"/>
-    <col min="48" max="48" width="15.36328125" style="2" customWidth="1"/>
+    <col min="44" max="44" width="1.42578125" style="21" customWidth="1"/>
+    <col min="45" max="45" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.140625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="12.42578125" style="2" customWidth="1"/>
+    <col min="48" max="48" width="15.42578125" style="2" customWidth="1"/>
     <col min="49" max="49" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="1.453125" style="21" customWidth="1"/>
-    <col min="53" max="54" width="12.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="59" width="12.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="14.90625" style="6" customWidth="1"/>
-    <col min="63" max="63" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="1.453125" style="21" customWidth="1"/>
-    <col min="65" max="65" width="67.54296875" style="6" customWidth="1"/>
-    <col min="66" max="66" width="42.36328125" style="6" customWidth="1"/>
-    <col min="67" max="67" width="74.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.6328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="57.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="40.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="1.453125" style="21" customWidth="1"/>
-    <col min="73" max="16384" width="11.453125" style="6"/>
+    <col min="50" max="51" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="1.42578125" style="21" customWidth="1"/>
+    <col min="53" max="54" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="14.85546875" style="6" customWidth="1"/>
+    <col min="63" max="63" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="1.42578125" style="21" customWidth="1"/>
+    <col min="65" max="65" width="67.5703125" style="6" customWidth="1"/>
+    <col min="66" max="66" width="42.42578125" style="6" customWidth="1"/>
+    <col min="67" max="67" width="74.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="57.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="1.42578125" style="21" customWidth="1"/>
+    <col min="73" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="26" customFormat="1" ht="13">
+    <row r="1" spans="1:73" s="26" customFormat="1">
       <c r="A1" s="38" t="s">
         <v>193</v>
       </c>
@@ -7096,10 +7100,10 @@
       <c r="P1" s="23"/>
       <c r="Q1" s="121"/>
       <c r="R1" s="127"/>
-      <c r="S1" s="242" t="s">
+      <c r="S1" s="241" t="s">
         <v>967</v>
       </c>
-      <c r="T1" s="242"/>
+      <c r="T1" s="241"/>
       <c r="U1" s="124"/>
       <c r="V1" s="23"/>
       <c r="W1" s="23"/>
@@ -7163,8 +7167,8 @@
       <c r="P2" s="23"/>
       <c r="Q2" s="122"/>
       <c r="R2" s="128"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="242"/>
+      <c r="S2" s="241"/>
+      <c r="T2" s="241"/>
       <c r="U2" s="124"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -7228,8 +7232,8 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="122"/>
       <c r="R3" s="128"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="242"/>
+      <c r="S3" s="241"/>
+      <c r="T3" s="241"/>
       <c r="U3" s="124"/>
       <c r="V3" s="23"/>
       <c r="W3" s="23"/>
@@ -7296,11 +7300,11 @@
       <c r="K4" s="110"/>
       <c r="L4" s="111"/>
       <c r="M4" s="123"/>
-      <c r="N4" s="231" t="s">
+      <c r="N4" s="261" t="s">
         <v>812</v>
       </c>
-      <c r="O4" s="231"/>
-      <c r="P4" s="231"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="261"/>
       <c r="Q4" s="123"/>
       <c r="R4" s="112" t="s">
         <v>631</v>
@@ -7422,149 +7426,149 @@
       <c r="BT4" s="125"/>
     </row>
     <row r="5" spans="1:73" s="37" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="232" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="250" t="s">
+      <c r="C5" s="223" t="s">
         <v>1023</v>
       </c>
-      <c r="D5" s="250" t="s">
+      <c r="D5" s="223" t="s">
         <v>1061</v>
       </c>
-      <c r="E5" s="260" t="s">
+      <c r="E5" s="235" t="s">
         <v>722</v>
       </c>
-      <c r="F5" s="255" t="s">
+      <c r="F5" s="230" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="255" t="s">
+      <c r="G5" s="230" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="252" t="s">
+      <c r="H5" s="226" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="254" t="s">
+      <c r="I5" s="228" t="s">
         <v>1062</v>
       </c>
-      <c r="J5" s="254" t="s">
+      <c r="J5" s="228" t="s">
         <v>1047</v>
       </c>
-      <c r="K5" s="254" t="s">
+      <c r="K5" s="228" t="s">
         <v>1048</v>
       </c>
-      <c r="L5" s="262" t="s">
+      <c r="L5" s="237" t="s">
         <v>1049</v>
       </c>
       <c r="M5" s="33"/>
-      <c r="N5" s="228" t="s">
+      <c r="N5" s="258" t="s">
         <v>799</v>
       </c>
-      <c r="O5" s="229"/>
-      <c r="P5" s="230"/>
+      <c r="O5" s="259"/>
+      <c r="P5" s="260"/>
       <c r="Q5" s="33"/>
-      <c r="R5" s="264" t="s">
+      <c r="R5" s="239" t="s">
         <v>723</v>
       </c>
-      <c r="S5" s="237" t="s">
+      <c r="S5" s="247" t="s">
         <v>287</v>
       </c>
-      <c r="T5" s="237" t="s">
+      <c r="T5" s="247" t="s">
         <v>170</v>
       </c>
       <c r="U5" s="33"/>
-      <c r="V5" s="235" t="s">
+      <c r="V5" s="224" t="s">
         <v>312</v>
       </c>
-      <c r="W5" s="235" t="s">
+      <c r="W5" s="224" t="s">
         <v>1063</v>
       </c>
-      <c r="X5" s="235" t="s">
+      <c r="X5" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="235" t="s">
+      <c r="Y5" s="224" t="s">
         <v>1024</v>
       </c>
-      <c r="Z5" s="239" t="s">
+      <c r="Z5" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="AA5" s="239"/>
-      <c r="AB5" s="239"/>
-      <c r="AC5" s="240"/>
-      <c r="AD5" s="239" t="s">
+      <c r="AA5" s="249"/>
+      <c r="AB5" s="249"/>
+      <c r="AC5" s="250"/>
+      <c r="AD5" s="249" t="s">
         <v>284</v>
       </c>
-      <c r="AE5" s="240"/>
-      <c r="AF5" s="235" t="s">
+      <c r="AE5" s="250"/>
+      <c r="AF5" s="224" t="s">
         <v>1064</v>
       </c>
-      <c r="AG5" s="235" t="s">
+      <c r="AG5" s="224" t="s">
         <v>1065</v>
       </c>
-      <c r="AH5" s="235" t="s">
+      <c r="AH5" s="224" t="s">
         <v>1020</v>
       </c>
-      <c r="AI5" s="235" t="s">
+      <c r="AI5" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="AJ5" s="235" t="s">
+      <c r="AJ5" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="AK5" s="235" t="s">
+      <c r="AK5" s="224" t="s">
         <v>171</v>
       </c>
-      <c r="AL5" s="241" t="s">
+      <c r="AL5" s="265" t="s">
         <v>285</v>
       </c>
-      <c r="AM5" s="241"/>
-      <c r="AN5" s="241"/>
-      <c r="AO5" s="241"/>
-      <c r="AP5" s="235" t="s">
+      <c r="AM5" s="265"/>
+      <c r="AN5" s="265"/>
+      <c r="AO5" s="265"/>
+      <c r="AP5" s="224" t="s">
         <v>1066</v>
       </c>
-      <c r="AQ5" s="235" t="s">
+      <c r="AQ5" s="224" t="s">
         <v>1067</v>
       </c>
       <c r="AR5" s="33"/>
-      <c r="AS5" s="226" t="s">
+      <c r="AS5" s="251" t="s">
         <v>121</v>
       </c>
-      <c r="AT5" s="226" t="s">
+      <c r="AT5" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="AU5" s="226" t="s">
+      <c r="AU5" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="AV5" s="226" t="s">
+      <c r="AV5" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="AW5" s="226" t="s">
+      <c r="AW5" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="AX5" s="226" t="s">
+      <c r="AX5" s="251" t="s">
         <v>203</v>
       </c>
-      <c r="AY5" s="226" t="s">
+      <c r="AY5" s="251" t="s">
         <v>49</v>
       </c>
       <c r="AZ5" s="33"/>
-      <c r="BA5" s="248" t="s">
+      <c r="BA5" s="257" t="s">
         <v>720</v>
       </c>
-      <c r="BB5" s="249"/>
-      <c r="BC5" s="249"/>
-      <c r="BD5" s="249"/>
-      <c r="BE5" s="249"/>
-      <c r="BF5" s="249"/>
-      <c r="BG5" s="249"/>
-      <c r="BH5" s="249"/>
-      <c r="BI5" s="249"/>
-      <c r="BJ5" s="249"/>
-      <c r="BK5" s="249"/>
+      <c r="BB5" s="229"/>
+      <c r="BC5" s="229"/>
+      <c r="BD5" s="229"/>
+      <c r="BE5" s="229"/>
+      <c r="BF5" s="229"/>
+      <c r="BG5" s="229"/>
+      <c r="BH5" s="229"/>
+      <c r="BI5" s="229"/>
+      <c r="BJ5" s="229"/>
+      <c r="BK5" s="229"/>
       <c r="BL5" s="33"/>
-      <c r="BM5" s="246" t="s">
+      <c r="BM5" s="245" t="s">
         <v>1089</v>
       </c>
       <c r="BN5" s="34" t="s">
@@ -7588,19 +7592,19 @@
       <c r="BT5" s="33"/>
       <c r="BU5" s="36"/>
     </row>
-    <row r="6" spans="1:73" s="13" customFormat="1" ht="37.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="258"/>
-      <c r="C6" s="259"/>
-      <c r="D6" s="259"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="253"/>
-      <c r="I6" s="249"/>
-      <c r="J6" s="249"/>
-      <c r="K6" s="249"/>
-      <c r="L6" s="263"/>
+    <row r="6" spans="1:73" s="13" customFormat="1" ht="37.700000000000003" customHeight="1">
+      <c r="A6" s="223"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="238"/>
       <c r="M6" s="21"/>
       <c r="N6" s="171" t="s">
         <v>814</v>
@@ -7612,14 +7616,14 @@
         <v>801</v>
       </c>
       <c r="Q6" s="21"/>
-      <c r="R6" s="265"/>
-      <c r="S6" s="238"/>
-      <c r="T6" s="238"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="248"/>
+      <c r="T6" s="248"/>
       <c r="U6" s="21"/>
-      <c r="V6" s="251"/>
-      <c r="W6" s="251"/>
-      <c r="X6" s="251"/>
-      <c r="Y6" s="236"/>
+      <c r="V6" s="225"/>
+      <c r="W6" s="225"/>
+      <c r="X6" s="225"/>
+      <c r="Y6" s="253"/>
       <c r="Z6" s="10" t="s">
         <v>150</v>
       </c>
@@ -7638,12 +7642,12 @@
       <c r="AE6" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="AF6" s="236"/>
-      <c r="AG6" s="236"/>
-      <c r="AH6" s="236"/>
-      <c r="AI6" s="235"/>
-      <c r="AJ6" s="236"/>
-      <c r="AK6" s="236"/>
+      <c r="AF6" s="253"/>
+      <c r="AG6" s="253"/>
+      <c r="AH6" s="253"/>
+      <c r="AI6" s="224"/>
+      <c r="AJ6" s="253"/>
+      <c r="AK6" s="253"/>
       <c r="AL6" s="14" t="s">
         <v>44</v>
       </c>
@@ -7656,16 +7660,16 @@
       <c r="AO6" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AP6" s="236"/>
-      <c r="AQ6" s="236"/>
+      <c r="AP6" s="253"/>
+      <c r="AQ6" s="253"/>
       <c r="AR6" s="21"/>
-      <c r="AS6" s="227"/>
-      <c r="AT6" s="226"/>
-      <c r="AU6" s="226"/>
-      <c r="AV6" s="227"/>
-      <c r="AW6" s="227"/>
-      <c r="AX6" s="227"/>
-      <c r="AY6" s="227"/>
+      <c r="AS6" s="252"/>
+      <c r="AT6" s="251"/>
+      <c r="AU6" s="251"/>
+      <c r="AV6" s="252"/>
+      <c r="AW6" s="252"/>
+      <c r="AX6" s="252"/>
+      <c r="AY6" s="252"/>
       <c r="AZ6" s="21"/>
       <c r="BA6" s="15" t="s">
         <v>281</v>
@@ -7701,7 +7705,7 @@
         <v>38</v>
       </c>
       <c r="BL6" s="21"/>
-      <c r="BM6" s="247"/>
+      <c r="BM6" s="246"/>
       <c r="BN6" s="39" t="s">
         <v>1069</v>
       </c>
@@ -7840,13 +7844,13 @@
         <v>731</v>
       </c>
       <c r="BN7" s="141"/>
-      <c r="BO7" s="232" t="s">
+      <c r="BO7" s="262" t="s">
         <v>732</v>
       </c>
       <c r="BP7" s="142" t="s">
         <v>733</v>
       </c>
-      <c r="BQ7" s="243" t="s">
+      <c r="BQ7" s="242" t="s">
         <v>734</v>
       </c>
       <c r="BR7" s="130" t="s">
@@ -7975,11 +7979,11 @@
         <v>740</v>
       </c>
       <c r="BN8" s="141"/>
-      <c r="BO8" s="233"/>
+      <c r="BO8" s="263"/>
       <c r="BP8" s="144" t="s">
         <v>741</v>
       </c>
-      <c r="BQ8" s="244"/>
+      <c r="BQ8" s="243"/>
       <c r="BR8" s="130" t="s">
         <v>735</v>
       </c>
@@ -8106,11 +8110,11 @@
         <v>745</v>
       </c>
       <c r="BN9" s="141"/>
-      <c r="BO9" s="234"/>
+      <c r="BO9" s="264"/>
       <c r="BP9" s="144" t="s">
         <v>746</v>
       </c>
-      <c r="BQ9" s="245"/>
+      <c r="BQ9" s="244"/>
       <c r="BR9" s="130" t="s">
         <v>735</v>
       </c>
@@ -8321,11 +8325,11 @@
         <v>755</v>
       </c>
       <c r="BN11" s="141"/>
-      <c r="BO11" s="223" t="s">
+      <c r="BO11" s="254" t="s">
         <v>756</v>
       </c>
       <c r="BP11" s="156"/>
-      <c r="BQ11" s="243" t="s">
+      <c r="BQ11" s="242" t="s">
         <v>757</v>
       </c>
       <c r="BR11" s="157" t="s">
@@ -8464,9 +8468,9 @@
         <v>761</v>
       </c>
       <c r="BN12" s="141"/>
-      <c r="BO12" s="224"/>
+      <c r="BO12" s="255"/>
       <c r="BP12" s="156"/>
-      <c r="BQ12" s="244"/>
+      <c r="BQ12" s="243"/>
       <c r="BR12" s="157" t="s">
         <v>305</v>
       </c>
@@ -8603,9 +8607,9 @@
         <v>765</v>
       </c>
       <c r="BN13" s="141"/>
-      <c r="BO13" s="224"/>
+      <c r="BO13" s="255"/>
       <c r="BP13" s="156"/>
-      <c r="BQ13" s="244"/>
+      <c r="BQ13" s="243"/>
       <c r="BR13" s="157" t="s">
         <v>305</v>
       </c>
@@ -8742,9 +8746,9 @@
         <v>769</v>
       </c>
       <c r="BN14" s="141"/>
-      <c r="BO14" s="225"/>
+      <c r="BO14" s="256"/>
       <c r="BP14" s="156"/>
-      <c r="BQ14" s="245"/>
+      <c r="BQ14" s="244"/>
       <c r="BR14" s="157" t="s">
         <v>305</v>
       </c>
@@ -9150,11 +9154,11 @@
         <v>783</v>
       </c>
       <c r="BN18" s="141"/>
-      <c r="BO18" s="223" t="s">
+      <c r="BO18" s="254" t="s">
         <v>784</v>
       </c>
       <c r="BP18" s="156"/>
-      <c r="BQ18" s="243" t="s">
+      <c r="BQ18" s="242" t="s">
         <v>785</v>
       </c>
       <c r="BR18" s="130"/>
@@ -9286,9 +9290,9 @@
         <v>789</v>
       </c>
       <c r="BN19" s="141"/>
-      <c r="BO19" s="224"/>
+      <c r="BO19" s="255"/>
       <c r="BP19" s="156"/>
-      <c r="BQ19" s="244"/>
+      <c r="BQ19" s="243"/>
       <c r="BR19" s="130"/>
       <c r="BS19" s="130"/>
       <c r="BT19" s="137"/>
@@ -9418,9 +9422,9 @@
         <v>793</v>
       </c>
       <c r="BN20" s="141"/>
-      <c r="BO20" s="225"/>
+      <c r="BO20" s="256"/>
       <c r="BP20" s="156"/>
-      <c r="BQ20" s="245"/>
+      <c r="BQ20" s="244"/>
       <c r="BR20" s="130"/>
       <c r="BS20" s="130"/>
       <c r="BT20" s="137"/>
@@ -9491,7 +9495,7 @@
       <c r="BS21" s="197"/>
       <c r="BT21" s="187"/>
     </row>
-    <row r="22" spans="1:72" s="191" customFormat="1" ht="41.5" customHeight="1">
+    <row r="22" spans="1:72" s="191" customFormat="1" ht="41.45" customHeight="1">
       <c r="A22" s="179"/>
       <c r="B22" s="180" t="s">
         <v>1101</v>
@@ -9603,7 +9607,7 @@
       <c r="BS22" s="197"/>
       <c r="BT22" s="201"/>
     </row>
-    <row r="23" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="23" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A23" s="179"/>
       <c r="B23" s="180"/>
       <c r="C23" s="181"/>
@@ -9666,7 +9670,7 @@
       <c r="BS23" s="197"/>
       <c r="BT23" s="201"/>
     </row>
-    <row r="24" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="24" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A24" s="179"/>
       <c r="B24" s="180"/>
       <c r="C24" s="219"/>
@@ -9729,7 +9733,7 @@
       <c r="BS24" s="197"/>
       <c r="BT24" s="187"/>
     </row>
-    <row r="25" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="25" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A25" s="179"/>
       <c r="B25" s="180"/>
       <c r="C25" s="181"/>
@@ -9792,7 +9796,7 @@
       <c r="BS25" s="197"/>
       <c r="BT25" s="187"/>
     </row>
-    <row r="26" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="26" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A26" s="179"/>
       <c r="B26" s="180"/>
       <c r="C26" s="181"/>
@@ -9855,7 +9859,7 @@
       <c r="BS26" s="197"/>
       <c r="BT26" s="187"/>
     </row>
-    <row r="27" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="27" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A27" s="179"/>
       <c r="B27" s="180"/>
       <c r="C27" s="181"/>
@@ -9918,7 +9922,7 @@
       <c r="BS27" s="197"/>
       <c r="BT27" s="187"/>
     </row>
-    <row r="28" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="28" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A28" s="179"/>
       <c r="B28" s="180"/>
       <c r="C28" s="181"/>
@@ -9981,7 +9985,7 @@
       <c r="BS28" s="197"/>
       <c r="BT28" s="187"/>
     </row>
-    <row r="29" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="29" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A29" s="179"/>
       <c r="B29" s="198"/>
       <c r="C29" s="181"/>
@@ -10044,7 +10048,7 @@
       <c r="BS29" s="197"/>
       <c r="BT29" s="187"/>
     </row>
-    <row r="30" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="30" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A30" s="179"/>
       <c r="B30" s="198"/>
       <c r="C30" s="181"/>
@@ -10107,7 +10111,7 @@
       <c r="BS30" s="197"/>
       <c r="BT30" s="187"/>
     </row>
-    <row r="31" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="31" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A31" s="179"/>
       <c r="B31" s="198"/>
       <c r="C31" s="181"/>
@@ -10170,7 +10174,7 @@
       <c r="BS31" s="197"/>
       <c r="BT31" s="187"/>
     </row>
-    <row r="32" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="32" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A32" s="179"/>
       <c r="B32" s="198"/>
       <c r="C32" s="181"/>
@@ -10233,7 +10237,7 @@
       <c r="BS32" s="197"/>
       <c r="BT32" s="187"/>
     </row>
-    <row r="33" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="33" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A33" s="179"/>
       <c r="B33" s="180"/>
       <c r="C33" s="181"/>
@@ -10296,7 +10300,7 @@
       <c r="BS33" s="197"/>
       <c r="BT33" s="187"/>
     </row>
-    <row r="34" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="34" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A34" s="179"/>
       <c r="B34" s="180"/>
       <c r="C34" s="181"/>
@@ -10359,7 +10363,7 @@
       <c r="BS34" s="197"/>
       <c r="BT34" s="187"/>
     </row>
-    <row r="35" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="35" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A35" s="179"/>
       <c r="B35" s="200"/>
       <c r="C35" s="201"/>
@@ -10425,7 +10429,7 @@
       <c r="BS35" s="197"/>
       <c r="BT35" s="187"/>
     </row>
-    <row r="36" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="36" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A36" s="179"/>
       <c r="B36" s="200"/>
       <c r="C36" s="201"/>
@@ -10491,7 +10495,7 @@
       <c r="BS36" s="197"/>
       <c r="BT36" s="187"/>
     </row>
-    <row r="37" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="37" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A37" s="179"/>
       <c r="B37" s="198"/>
       <c r="C37" s="181"/>
@@ -10557,7 +10561,7 @@
       <c r="BS37" s="197"/>
       <c r="BT37" s="187"/>
     </row>
-    <row r="38" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="38" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A38" s="179"/>
       <c r="B38" s="180"/>
       <c r="C38" s="201"/>
@@ -10623,7 +10627,7 @@
       <c r="BS38" s="197"/>
       <c r="BT38" s="187"/>
     </row>
-    <row r="39" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="39" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A39" s="179"/>
       <c r="B39" s="198"/>
       <c r="C39" s="181"/>
@@ -10689,7 +10693,7 @@
       <c r="BS39" s="197"/>
       <c r="BT39" s="187"/>
     </row>
-    <row r="40" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="40" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A40" s="179"/>
       <c r="B40" s="180"/>
       <c r="C40" s="181"/>
@@ -10755,7 +10759,7 @@
       <c r="BS40" s="197"/>
       <c r="BT40" s="187"/>
     </row>
-    <row r="41" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="41" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A41" s="179"/>
       <c r="B41" s="180"/>
       <c r="C41" s="181"/>
@@ -10821,7 +10825,7 @@
       <c r="BS41" s="197"/>
       <c r="BT41" s="187"/>
     </row>
-    <row r="42" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="42" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A42" s="179"/>
       <c r="B42" s="180"/>
       <c r="C42" s="181"/>
@@ -10887,7 +10891,7 @@
       <c r="BS42" s="197"/>
       <c r="BT42" s="187"/>
     </row>
-    <row r="43" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="43" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A43" s="179"/>
       <c r="B43" s="198"/>
       <c r="C43" s="181"/>
@@ -10953,7 +10957,7 @@
       <c r="BS43" s="197"/>
       <c r="BT43" s="187"/>
     </row>
-    <row r="44" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="44" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A44" s="179"/>
       <c r="B44" s="180"/>
       <c r="C44" s="201"/>
@@ -11019,7 +11023,7 @@
       <c r="BS44" s="197"/>
       <c r="BT44" s="187"/>
     </row>
-    <row r="45" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="45" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A45" s="179"/>
       <c r="B45" s="180"/>
       <c r="C45" s="181"/>
@@ -11085,7 +11089,7 @@
       <c r="BS45" s="197"/>
       <c r="BT45" s="187"/>
     </row>
-    <row r="46" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="46" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A46" s="179"/>
       <c r="B46" s="180"/>
       <c r="C46" s="181"/>
@@ -11151,7 +11155,7 @@
       <c r="BS46" s="197"/>
       <c r="BT46" s="187"/>
     </row>
-    <row r="47" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="47" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A47" s="179"/>
       <c r="B47" s="180"/>
       <c r="C47" s="181"/>
@@ -11217,7 +11221,7 @@
       <c r="BS47" s="197"/>
       <c r="BT47" s="187"/>
     </row>
-    <row r="48" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="48" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A48" s="179"/>
       <c r="B48" s="180"/>
       <c r="C48" s="181"/>
@@ -11283,7 +11287,7 @@
       <c r="BS48" s="197"/>
       <c r="BT48" s="187"/>
     </row>
-    <row r="49" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="49" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A49" s="179"/>
       <c r="B49" s="180"/>
       <c r="C49" s="181"/>
@@ -11349,7 +11353,7 @@
       <c r="BS49" s="197"/>
       <c r="BT49" s="187"/>
     </row>
-    <row r="50" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="50" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A50" s="179"/>
       <c r="B50" s="180"/>
       <c r="C50" s="181"/>
@@ -11415,7 +11419,7 @@
       <c r="BS50" s="197"/>
       <c r="BT50" s="187"/>
     </row>
-    <row r="51" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="51" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A51" s="179"/>
       <c r="B51" s="180"/>
       <c r="C51" s="181"/>
@@ -11481,7 +11485,7 @@
       <c r="BS51" s="197"/>
       <c r="BT51" s="187"/>
     </row>
-    <row r="52" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="52" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A52" s="179"/>
       <c r="B52" s="180"/>
       <c r="C52" s="181"/>
@@ -11547,7 +11551,7 @@
       <c r="BS52" s="197"/>
       <c r="BT52" s="187"/>
     </row>
-    <row r="53" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="53" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A53" s="179"/>
       <c r="B53" s="198"/>
       <c r="C53" s="181"/>
@@ -11613,7 +11617,7 @@
       <c r="BS53" s="197"/>
       <c r="BT53" s="187"/>
     </row>
-    <row r="54" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="54" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A54" s="179"/>
       <c r="B54" s="180"/>
       <c r="C54" s="181"/>
@@ -11679,7 +11683,7 @@
       <c r="BS54" s="197"/>
       <c r="BT54" s="187"/>
     </row>
-    <row r="55" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="55" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A55" s="179"/>
       <c r="B55" s="180"/>
       <c r="C55" s="181"/>
@@ -11745,7 +11749,7 @@
       <c r="BS55" s="197"/>
       <c r="BT55" s="187"/>
     </row>
-    <row r="56" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="56" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A56" s="179"/>
       <c r="B56" s="180"/>
       <c r="C56" s="181"/>
@@ -11811,7 +11815,7 @@
       <c r="BS56" s="197"/>
       <c r="BT56" s="187"/>
     </row>
-    <row r="57" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="57" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A57" s="179"/>
       <c r="B57" s="180"/>
       <c r="C57" s="181"/>
@@ -11877,7 +11881,7 @@
       <c r="BS57" s="197"/>
       <c r="BT57" s="187"/>
     </row>
-    <row r="58" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="58" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A58" s="179"/>
       <c r="B58" s="180"/>
       <c r="C58" s="201"/>
@@ -11943,7 +11947,7 @@
       <c r="BS58" s="197"/>
       <c r="BT58" s="187"/>
     </row>
-    <row r="59" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="59" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A59" s="179"/>
       <c r="B59" s="180"/>
       <c r="C59" s="201"/>
@@ -12009,7 +12013,7 @@
       <c r="BS59" s="197"/>
       <c r="BT59" s="187"/>
     </row>
-    <row r="60" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="60" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A60" s="179"/>
       <c r="B60" s="180"/>
       <c r="C60" s="201"/>
@@ -12075,7 +12079,7 @@
       <c r="BS60" s="197"/>
       <c r="BT60" s="187"/>
     </row>
-    <row r="61" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="61" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A61" s="179"/>
       <c r="B61" s="198"/>
       <c r="C61" s="201"/>
@@ -12141,7 +12145,7 @@
       <c r="BS61" s="197"/>
       <c r="BT61" s="187"/>
     </row>
-    <row r="62" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="62" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A62" s="179"/>
       <c r="B62" s="198"/>
       <c r="C62" s="201"/>
@@ -12207,7 +12211,7 @@
       <c r="BS62" s="197"/>
       <c r="BT62" s="187"/>
     </row>
-    <row r="63" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="63" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A63" s="179"/>
       <c r="B63" s="206"/>
       <c r="C63" s="207"/>
@@ -12266,7 +12270,7 @@
       <c r="BS63" s="197"/>
       <c r="BT63" s="187"/>
     </row>
-    <row r="64" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="64" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A64" s="179"/>
       <c r="B64" s="206"/>
       <c r="C64" s="207"/>
@@ -12325,7 +12329,7 @@
       <c r="BS64" s="197"/>
       <c r="BT64" s="187"/>
     </row>
-    <row r="65" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="65" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A65" s="179"/>
       <c r="B65" s="206"/>
       <c r="C65" s="207"/>
@@ -12384,7 +12388,7 @@
       <c r="BS65" s="197"/>
       <c r="BT65" s="187"/>
     </row>
-    <row r="66" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="66" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A66" s="179"/>
       <c r="B66" s="206"/>
       <c r="C66" s="207"/>
@@ -12443,7 +12447,7 @@
       <c r="BS66" s="197"/>
       <c r="BT66" s="187"/>
     </row>
-    <row r="67" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="67" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A67" s="179"/>
       <c r="B67" s="206"/>
       <c r="C67" s="207"/>
@@ -12502,7 +12506,7 @@
       <c r="BS67" s="197"/>
       <c r="BT67" s="187"/>
     </row>
-    <row r="68" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="68" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A68" s="179"/>
       <c r="B68" s="206"/>
       <c r="C68" s="207"/>
@@ -12561,7 +12565,7 @@
       <c r="BS68" s="197"/>
       <c r="BT68" s="187"/>
     </row>
-    <row r="69" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="69" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A69" s="179"/>
       <c r="B69" s="206"/>
       <c r="C69" s="207"/>
@@ -12620,7 +12624,7 @@
       <c r="BS69" s="197"/>
       <c r="BT69" s="187"/>
     </row>
-    <row r="70" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="70" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A70" s="179"/>
       <c r="B70" s="206"/>
       <c r="C70" s="207"/>
@@ -12679,7 +12683,7 @@
       <c r="BS70" s="197"/>
       <c r="BT70" s="187"/>
     </row>
-    <row r="71" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="71" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A71" s="179"/>
       <c r="B71" s="206"/>
       <c r="C71" s="207"/>
@@ -12738,7 +12742,7 @@
       <c r="BS71" s="197"/>
       <c r="BT71" s="187"/>
     </row>
-    <row r="72" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="72" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A72" s="179"/>
       <c r="B72" s="206"/>
       <c r="C72" s="207"/>
@@ -12797,7 +12801,7 @@
       <c r="BS72" s="197"/>
       <c r="BT72" s="187"/>
     </row>
-    <row r="73" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="73" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A73" s="179"/>
       <c r="B73" s="206"/>
       <c r="C73" s="207"/>
@@ -12856,7 +12860,7 @@
       <c r="BS73" s="197"/>
       <c r="BT73" s="187"/>
     </row>
-    <row r="74" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="74" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A74" s="179"/>
       <c r="B74" s="206"/>
       <c r="C74" s="207"/>
@@ -12915,7 +12919,7 @@
       <c r="BS74" s="197"/>
       <c r="BT74" s="187"/>
     </row>
-    <row r="75" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="75" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A75" s="179"/>
       <c r="B75" s="206"/>
       <c r="C75" s="207"/>
@@ -12974,7 +12978,7 @@
       <c r="BS75" s="197"/>
       <c r="BT75" s="187"/>
     </row>
-    <row r="76" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="76" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A76" s="179"/>
       <c r="B76" s="206"/>
       <c r="C76" s="207"/>
@@ -13033,7 +13037,7 @@
       <c r="BS76" s="197"/>
       <c r="BT76" s="187"/>
     </row>
-    <row r="77" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="77" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A77" s="179"/>
       <c r="B77" s="206"/>
       <c r="C77" s="207"/>
@@ -13092,7 +13096,7 @@
       <c r="BS77" s="197"/>
       <c r="BT77" s="187"/>
     </row>
-    <row r="78" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="78" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A78" s="179"/>
       <c r="B78" s="206"/>
       <c r="C78" s="207"/>
@@ -13151,7 +13155,7 @@
       <c r="BS78" s="197"/>
       <c r="BT78" s="187"/>
     </row>
-    <row r="79" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="79" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A79" s="179"/>
       <c r="B79" s="206"/>
       <c r="C79" s="207"/>
@@ -13210,7 +13214,7 @@
       <c r="BS79" s="197"/>
       <c r="BT79" s="187"/>
     </row>
-    <row r="80" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="80" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A80" s="179"/>
       <c r="B80" s="206"/>
       <c r="C80" s="207"/>
@@ -13269,7 +13273,7 @@
       <c r="BS80" s="197"/>
       <c r="BT80" s="187"/>
     </row>
-    <row r="81" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="81" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A81" s="179"/>
       <c r="B81" s="206"/>
       <c r="C81" s="207"/>
@@ -13328,7 +13332,7 @@
       <c r="BS81" s="197"/>
       <c r="BT81" s="187"/>
     </row>
-    <row r="82" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="82" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A82" s="179"/>
       <c r="B82" s="206"/>
       <c r="C82" s="210"/>
@@ -13387,7 +13391,7 @@
       <c r="BS82" s="197"/>
       <c r="BT82" s="187"/>
     </row>
-    <row r="83" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="83" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A83" s="179"/>
       <c r="B83" s="206"/>
       <c r="C83" s="207"/>
@@ -13446,7 +13450,7 @@
       <c r="BS83" s="197"/>
       <c r="BT83" s="187"/>
     </row>
-    <row r="84" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="84" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A84" s="179"/>
       <c r="B84" s="206"/>
       <c r="C84" s="207"/>
@@ -13505,7 +13509,7 @@
       <c r="BS84" s="197"/>
       <c r="BT84" s="187"/>
     </row>
-    <row r="85" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="85" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A85" s="179"/>
       <c r="B85" s="206"/>
       <c r="C85" s="207"/>
@@ -13564,7 +13568,7 @@
       <c r="BS85" s="197"/>
       <c r="BT85" s="187"/>
     </row>
-    <row r="86" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="86" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A86" s="179"/>
       <c r="B86" s="206"/>
       <c r="C86" s="207"/>
@@ -13623,7 +13627,7 @@
       <c r="BS86" s="197"/>
       <c r="BT86" s="187"/>
     </row>
-    <row r="87" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="87" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A87" s="179"/>
       <c r="B87" s="206"/>
       <c r="C87" s="207"/>
@@ -13682,7 +13686,7 @@
       <c r="BS87" s="197"/>
       <c r="BT87" s="187"/>
     </row>
-    <row r="88" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="88" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A88" s="179"/>
       <c r="B88" s="206"/>
       <c r="C88" s="207"/>
@@ -13741,7 +13745,7 @@
       <c r="BS88" s="197"/>
       <c r="BT88" s="187"/>
     </row>
-    <row r="89" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="89" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A89" s="179"/>
       <c r="B89" s="206"/>
       <c r="C89" s="207"/>
@@ -13800,7 +13804,7 @@
       <c r="BS89" s="197"/>
       <c r="BT89" s="187"/>
     </row>
-    <row r="90" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="90" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A90" s="179"/>
       <c r="B90" s="206"/>
       <c r="C90" s="207"/>
@@ -13859,7 +13863,7 @@
       <c r="BS90" s="197"/>
       <c r="BT90" s="187"/>
     </row>
-    <row r="91" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="91" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A91" s="179"/>
       <c r="B91" s="206"/>
       <c r="C91" s="207"/>
@@ -13918,7 +13922,7 @@
       <c r="BS91" s="197"/>
       <c r="BT91" s="187"/>
     </row>
-    <row r="92" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="92" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A92" s="179"/>
       <c r="B92" s="206"/>
       <c r="C92" s="207"/>
@@ -13977,7 +13981,7 @@
       <c r="BS92" s="197"/>
       <c r="BT92" s="187"/>
     </row>
-    <row r="93" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="93" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A93" s="179"/>
       <c r="B93" s="206"/>
       <c r="C93" s="207"/>
@@ -14036,7 +14040,7 @@
       <c r="BS93" s="197"/>
       <c r="BT93" s="187"/>
     </row>
-    <row r="94" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="94" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A94" s="179"/>
       <c r="B94" s="206"/>
       <c r="C94" s="207"/>
@@ -14095,7 +14099,7 @@
       <c r="BS94" s="197"/>
       <c r="BT94" s="187"/>
     </row>
-    <row r="95" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="95" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A95" s="179"/>
       <c r="B95" s="206"/>
       <c r="C95" s="207"/>
@@ -14154,7 +14158,7 @@
       <c r="BS95" s="197"/>
       <c r="BT95" s="187"/>
     </row>
-    <row r="96" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="96" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A96" s="179"/>
       <c r="B96" s="206"/>
       <c r="C96" s="207"/>
@@ -14213,7 +14217,7 @@
       <c r="BS96" s="197"/>
       <c r="BT96" s="187"/>
     </row>
-    <row r="97" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="97" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A97" s="179"/>
       <c r="B97" s="206"/>
       <c r="C97" s="207"/>
@@ -14272,7 +14276,7 @@
       <c r="BS97" s="197"/>
       <c r="BT97" s="187"/>
     </row>
-    <row r="98" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="98" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A98" s="179"/>
       <c r="B98" s="211"/>
       <c r="C98" s="207"/>
@@ -14331,7 +14335,7 @@
       <c r="BS98" s="197"/>
       <c r="BT98" s="187"/>
     </row>
-    <row r="99" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="99" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A99" s="179"/>
       <c r="B99" s="206"/>
       <c r="C99" s="207"/>
@@ -14390,7 +14394,7 @@
       <c r="BS99" s="197"/>
       <c r="BT99" s="187"/>
     </row>
-    <row r="100" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="100" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A100" s="179"/>
       <c r="B100" s="206"/>
       <c r="C100" s="207"/>
@@ -14449,7 +14453,7 @@
       <c r="BS100" s="197"/>
       <c r="BT100" s="187"/>
     </row>
-    <row r="101" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="101" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A101" s="179"/>
       <c r="B101" s="206"/>
       <c r="C101" s="207"/>
@@ -14508,7 +14512,7 @@
       <c r="BS101" s="197"/>
       <c r="BT101" s="187"/>
     </row>
-    <row r="102" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="102" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A102" s="179"/>
       <c r="B102" s="206"/>
       <c r="C102" s="207"/>
@@ -14567,7 +14571,7 @@
       <c r="BS102" s="197"/>
       <c r="BT102" s="187"/>
     </row>
-    <row r="103" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="103" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A103" s="179"/>
       <c r="B103" s="206"/>
       <c r="C103" s="207"/>
@@ -14626,7 +14630,7 @@
       <c r="BS103" s="197"/>
       <c r="BT103" s="187"/>
     </row>
-    <row r="104" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="104" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A104" s="179"/>
       <c r="B104" s="206"/>
       <c r="C104" s="207"/>
@@ -14685,7 +14689,7 @@
       <c r="BS104" s="197"/>
       <c r="BT104" s="187"/>
     </row>
-    <row r="105" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="105" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A105" s="179"/>
       <c r="B105" s="206"/>
       <c r="C105" s="207"/>
@@ -14744,7 +14748,7 @@
       <c r="BS105" s="197"/>
       <c r="BT105" s="187"/>
     </row>
-    <row r="106" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="106" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A106" s="179"/>
       <c r="B106" s="206"/>
       <c r="C106" s="207"/>
@@ -14803,7 +14807,7 @@
       <c r="BS106" s="197"/>
       <c r="BT106" s="187"/>
     </row>
-    <row r="107" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="107" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A107" s="179"/>
       <c r="B107" s="206"/>
       <c r="C107" s="207"/>
@@ -14862,7 +14866,7 @@
       <c r="BS107" s="197"/>
       <c r="BT107" s="187"/>
     </row>
-    <row r="108" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="108" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A108" s="179"/>
       <c r="B108" s="206"/>
       <c r="C108" s="207"/>
@@ -14921,7 +14925,7 @@
       <c r="BS108" s="197"/>
       <c r="BT108" s="187"/>
     </row>
-    <row r="109" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="109" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A109" s="179"/>
       <c r="B109" s="206"/>
       <c r="C109" s="207"/>
@@ -14980,7 +14984,7 @@
       <c r="BS109" s="197"/>
       <c r="BT109" s="187"/>
     </row>
-    <row r="110" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="110" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A110" s="179"/>
       <c r="B110" s="206"/>
       <c r="C110" s="207"/>
@@ -15039,7 +15043,7 @@
       <c r="BS110" s="197"/>
       <c r="BT110" s="187"/>
     </row>
-    <row r="111" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="111" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A111" s="179"/>
       <c r="B111" s="206"/>
       <c r="C111" s="207"/>
@@ -15098,7 +15102,7 @@
       <c r="BS111" s="197"/>
       <c r="BT111" s="187"/>
     </row>
-    <row r="112" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="112" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A112" s="179"/>
       <c r="B112" s="206"/>
       <c r="C112" s="207"/>
@@ -15157,7 +15161,7 @@
       <c r="BS112" s="197"/>
       <c r="BT112" s="187"/>
     </row>
-    <row r="113" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="113" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A113" s="179"/>
       <c r="B113" s="206"/>
       <c r="C113" s="207"/>
@@ -15216,7 +15220,7 @@
       <c r="BS113" s="197"/>
       <c r="BT113" s="187"/>
     </row>
-    <row r="114" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="114" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A114" s="179"/>
       <c r="B114" s="206"/>
       <c r="C114" s="207"/>
@@ -15275,7 +15279,7 @@
       <c r="BS114" s="197"/>
       <c r="BT114" s="187"/>
     </row>
-    <row r="115" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="115" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A115" s="179"/>
       <c r="B115" s="206"/>
       <c r="C115" s="207"/>
@@ -15334,7 +15338,7 @@
       <c r="BS115" s="197"/>
       <c r="BT115" s="187"/>
     </row>
-    <row r="116" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="116" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A116" s="179"/>
       <c r="B116" s="206"/>
       <c r="C116" s="207"/>
@@ -15393,7 +15397,7 @@
       <c r="BS116" s="197"/>
       <c r="BT116" s="187"/>
     </row>
-    <row r="117" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="117" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A117" s="179"/>
       <c r="B117" s="206"/>
       <c r="C117" s="207"/>
@@ -15452,7 +15456,7 @@
       <c r="BS117" s="197"/>
       <c r="BT117" s="187"/>
     </row>
-    <row r="118" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="118" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A118" s="179"/>
       <c r="B118" s="206"/>
       <c r="C118" s="207"/>
@@ -15511,7 +15515,7 @@
       <c r="BS118" s="197"/>
       <c r="BT118" s="187"/>
     </row>
-    <row r="119" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="119" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A119" s="179"/>
       <c r="B119" s="206"/>
       <c r="C119" s="207"/>
@@ -15570,7 +15574,7 @@
       <c r="BS119" s="197"/>
       <c r="BT119" s="187"/>
     </row>
-    <row r="120" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="120" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A120" s="179"/>
       <c r="B120" s="206"/>
       <c r="C120" s="207"/>
@@ -15629,7 +15633,7 @@
       <c r="BS120" s="197"/>
       <c r="BT120" s="187"/>
     </row>
-    <row r="121" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="121" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A121" s="179"/>
       <c r="B121" s="206"/>
       <c r="C121" s="207"/>
@@ -15688,7 +15692,7 @@
       <c r="BS121" s="197"/>
       <c r="BT121" s="187"/>
     </row>
-    <row r="122" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="122" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A122" s="179"/>
       <c r="B122" s="206"/>
       <c r="C122" s="207"/>
@@ -15747,7 +15751,7 @@
       <c r="BS122" s="197"/>
       <c r="BT122" s="187"/>
     </row>
-    <row r="123" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="123" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A123" s="179"/>
       <c r="B123" s="206"/>
       <c r="C123" s="207"/>
@@ -15806,7 +15810,7 @@
       <c r="BS123" s="197"/>
       <c r="BT123" s="187"/>
     </row>
-    <row r="124" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="124" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A124" s="179"/>
       <c r="B124" s="206"/>
       <c r="C124" s="207"/>
@@ -15865,7 +15869,7 @@
       <c r="BS124" s="197"/>
       <c r="BT124" s="187"/>
     </row>
-    <row r="125" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="125" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A125" s="179"/>
       <c r="B125" s="206"/>
       <c r="C125" s="207"/>
@@ -15924,7 +15928,7 @@
       <c r="BS125" s="197"/>
       <c r="BT125" s="187"/>
     </row>
-    <row r="126" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="126" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A126" s="179"/>
       <c r="B126" s="206"/>
       <c r="C126" s="207"/>
@@ -15983,7 +15987,7 @@
       <c r="BS126" s="197"/>
       <c r="BT126" s="187"/>
     </row>
-    <row r="127" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="127" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A127" s="179"/>
       <c r="B127" s="206"/>
       <c r="C127" s="207"/>
@@ -16042,7 +16046,7 @@
       <c r="BS127" s="197"/>
       <c r="BT127" s="187"/>
     </row>
-    <row r="128" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="128" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A128" s="179"/>
       <c r="B128" s="206"/>
       <c r="C128" s="207"/>
@@ -16101,7 +16105,7 @@
       <c r="BS128" s="197"/>
       <c r="BT128" s="187"/>
     </row>
-    <row r="129" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="129" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A129" s="179"/>
       <c r="B129" s="206"/>
       <c r="C129" s="207"/>
@@ -16160,7 +16164,7 @@
       <c r="BS129" s="197"/>
       <c r="BT129" s="187"/>
     </row>
-    <row r="130" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="130" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A130" s="179"/>
       <c r="B130" s="206"/>
       <c r="C130" s="207"/>
@@ -16219,7 +16223,7 @@
       <c r="BS130" s="197"/>
       <c r="BT130" s="187"/>
     </row>
-    <row r="131" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="131" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A131" s="179"/>
       <c r="B131" s="206"/>
       <c r="C131" s="207"/>
@@ -16278,7 +16282,7 @@
       <c r="BS131" s="197"/>
       <c r="BT131" s="187"/>
     </row>
-    <row r="132" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="132" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A132" s="179"/>
       <c r="B132" s="206"/>
       <c r="C132" s="207"/>
@@ -16337,7 +16341,7 @@
       <c r="BS132" s="197"/>
       <c r="BT132" s="187"/>
     </row>
-    <row r="133" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="133" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A133" s="179"/>
       <c r="B133" s="206"/>
       <c r="C133" s="207"/>
@@ -16396,7 +16400,7 @@
       <c r="BS133" s="197"/>
       <c r="BT133" s="187"/>
     </row>
-    <row r="134" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="134" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A134" s="179"/>
       <c r="B134" s="206"/>
       <c r="C134" s="207"/>
@@ -16455,7 +16459,7 @@
       <c r="BS134" s="197"/>
       <c r="BT134" s="187"/>
     </row>
-    <row r="135" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="135" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A135" s="179"/>
       <c r="B135" s="206"/>
       <c r="C135" s="207"/>
@@ -16514,7 +16518,7 @@
       <c r="BS135" s="197"/>
       <c r="BT135" s="187"/>
     </row>
-    <row r="136" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="136" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A136" s="179"/>
       <c r="B136" s="206"/>
       <c r="C136" s="212"/>
@@ -16573,7 +16577,7 @@
       <c r="BS136" s="197"/>
       <c r="BT136" s="187"/>
     </row>
-    <row r="137" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="137" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A137" s="179"/>
       <c r="B137" s="206"/>
       <c r="C137" s="207"/>
@@ -16632,7 +16636,7 @@
       <c r="BS137" s="197"/>
       <c r="BT137" s="187"/>
     </row>
-    <row r="138" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="138" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A138" s="179"/>
       <c r="B138" s="206"/>
       <c r="C138" s="212"/>
@@ -16691,7 +16695,7 @@
       <c r="BS138" s="197"/>
       <c r="BT138" s="187"/>
     </row>
-    <row r="139" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="139" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A139" s="179"/>
       <c r="B139" s="206"/>
       <c r="C139" s="207"/>
@@ -16750,7 +16754,7 @@
       <c r="BS139" s="197"/>
       <c r="BT139" s="187"/>
     </row>
-    <row r="140" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="140" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A140" s="179"/>
       <c r="B140" s="206"/>
       <c r="C140" s="212"/>
@@ -16809,7 +16813,7 @@
       <c r="BS140" s="197"/>
       <c r="BT140" s="187"/>
     </row>
-    <row r="141" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="141" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A141" s="179"/>
       <c r="B141" s="206"/>
       <c r="C141" s="207"/>
@@ -16868,7 +16872,7 @@
       <c r="BS141" s="197"/>
       <c r="BT141" s="187"/>
     </row>
-    <row r="142" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="142" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A142" s="179"/>
       <c r="B142" s="206"/>
       <c r="C142" s="212"/>
@@ -16927,7 +16931,7 @@
       <c r="BS142" s="197"/>
       <c r="BT142" s="187"/>
     </row>
-    <row r="143" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="143" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A143" s="179"/>
       <c r="B143" s="206"/>
       <c r="C143" s="207"/>
@@ -16986,7 +16990,7 @@
       <c r="BS143" s="197"/>
       <c r="BT143" s="187"/>
     </row>
-    <row r="144" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="144" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A144" s="179"/>
       <c r="B144" s="206"/>
       <c r="C144" s="207"/>
@@ -17045,7 +17049,7 @@
       <c r="BS144" s="197"/>
       <c r="BT144" s="187"/>
     </row>
-    <row r="145" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="145" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A145" s="179"/>
       <c r="B145" s="206"/>
       <c r="C145" s="207"/>
@@ -17104,7 +17108,7 @@
       <c r="BS145" s="197"/>
       <c r="BT145" s="187"/>
     </row>
-    <row r="146" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="146" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A146" s="179"/>
       <c r="B146" s="206"/>
       <c r="C146" s="212"/>
@@ -17163,7 +17167,7 @@
       <c r="BS146" s="197"/>
       <c r="BT146" s="187"/>
     </row>
-    <row r="147" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="147" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A147" s="179"/>
       <c r="B147" s="206"/>
       <c r="C147" s="212"/>
@@ -17222,7 +17226,7 @@
       <c r="BS147" s="197"/>
       <c r="BT147" s="187"/>
     </row>
-    <row r="148" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="148" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A148" s="179"/>
       <c r="B148" s="206"/>
       <c r="C148" s="207"/>
@@ -17281,7 +17285,7 @@
       <c r="BS148" s="197"/>
       <c r="BT148" s="187"/>
     </row>
-    <row r="149" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="149" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A149" s="179"/>
       <c r="B149" s="206"/>
       <c r="C149" s="207"/>
@@ -17340,7 +17344,7 @@
       <c r="BS149" s="197"/>
       <c r="BT149" s="187"/>
     </row>
-    <row r="150" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="150" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A150" s="179"/>
       <c r="B150" s="206"/>
       <c r="C150" s="207"/>
@@ -17399,7 +17403,7 @@
       <c r="BS150" s="197"/>
       <c r="BT150" s="187"/>
     </row>
-    <row r="151" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="151" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A151" s="179"/>
       <c r="B151" s="206"/>
       <c r="C151" s="207"/>
@@ -17458,7 +17462,7 @@
       <c r="BS151" s="197"/>
       <c r="BT151" s="187"/>
     </row>
-    <row r="152" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="152" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A152" s="179"/>
       <c r="B152" s="206"/>
       <c r="C152" s="207"/>
@@ -17517,7 +17521,7 @@
       <c r="BS152" s="197"/>
       <c r="BT152" s="187"/>
     </row>
-    <row r="153" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="153" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A153" s="179"/>
       <c r="B153" s="206"/>
       <c r="C153" s="207"/>
@@ -17576,7 +17580,7 @@
       <c r="BS153" s="197"/>
       <c r="BT153" s="187"/>
     </row>
-    <row r="154" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="154" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A154" s="179"/>
       <c r="B154" s="206"/>
       <c r="C154" s="207"/>
@@ -17635,7 +17639,7 @@
       <c r="BS154" s="197"/>
       <c r="BT154" s="187"/>
     </row>
-    <row r="155" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="155" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A155" s="179"/>
       <c r="B155" s="206"/>
       <c r="C155" s="207"/>
@@ -17694,7 +17698,7 @@
       <c r="BS155" s="197"/>
       <c r="BT155" s="187"/>
     </row>
-    <row r="156" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="156" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A156" s="179"/>
       <c r="B156" s="206"/>
       <c r="C156" s="207"/>
@@ -17753,7 +17757,7 @@
       <c r="BS156" s="197"/>
       <c r="BT156" s="187"/>
     </row>
-    <row r="157" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="157" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A157" s="179"/>
       <c r="B157" s="206"/>
       <c r="C157" s="207"/>
@@ -17812,7 +17816,7 @@
       <c r="BS157" s="197"/>
       <c r="BT157" s="187"/>
     </row>
-    <row r="158" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="158" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A158" s="179"/>
       <c r="B158" s="206"/>
       <c r="C158" s="207"/>
@@ -17871,7 +17875,7 @@
       <c r="BS158" s="197"/>
       <c r="BT158" s="187"/>
     </row>
-    <row r="159" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="159" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A159" s="179"/>
       <c r="B159" s="206"/>
       <c r="C159" s="207"/>
@@ -17930,7 +17934,7 @@
       <c r="BS159" s="197"/>
       <c r="BT159" s="187"/>
     </row>
-    <row r="160" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="160" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A160" s="179"/>
       <c r="B160" s="206"/>
       <c r="C160" s="207"/>
@@ -17989,7 +17993,7 @@
       <c r="BS160" s="197"/>
       <c r="BT160" s="187"/>
     </row>
-    <row r="161" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="161" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A161" s="179"/>
       <c r="B161" s="206"/>
       <c r="C161" s="207"/>
@@ -18048,7 +18052,7 @@
       <c r="BS161" s="197"/>
       <c r="BT161" s="187"/>
     </row>
-    <row r="162" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="162" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A162" s="179"/>
       <c r="B162" s="206"/>
       <c r="C162" s="207"/>
@@ -18107,7 +18111,7 @@
       <c r="BS162" s="197"/>
       <c r="BT162" s="187"/>
     </row>
-    <row r="163" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="163" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A163" s="179"/>
       <c r="B163" s="206"/>
       <c r="C163" s="207"/>
@@ -18166,7 +18170,7 @@
       <c r="BS163" s="197"/>
       <c r="BT163" s="187"/>
     </row>
-    <row r="164" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="164" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A164" s="179"/>
       <c r="B164" s="206"/>
       <c r="C164" s="207"/>
@@ -18225,7 +18229,7 @@
       <c r="BS164" s="197"/>
       <c r="BT164" s="187"/>
     </row>
-    <row r="165" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="165" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A165" s="179"/>
       <c r="B165" s="206"/>
       <c r="C165" s="195"/>
@@ -18284,7 +18288,7 @@
       <c r="BS165" s="197"/>
       <c r="BT165" s="187"/>
     </row>
-    <row r="166" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="166" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A166" s="179"/>
       <c r="B166" s="206"/>
       <c r="C166" s="195"/>
@@ -18343,7 +18347,7 @@
       <c r="BS166" s="197"/>
       <c r="BT166" s="187"/>
     </row>
-    <row r="167" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="167" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A167" s="179"/>
       <c r="B167" s="206"/>
       <c r="C167" s="195"/>
@@ -18402,7 +18406,7 @@
       <c r="BS167" s="197"/>
       <c r="BT167" s="187"/>
     </row>
-    <row r="168" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="168" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A168" s="179"/>
       <c r="B168" s="206"/>
       <c r="C168" s="195"/>
@@ -18461,7 +18465,7 @@
       <c r="BS168" s="197"/>
       <c r="BT168" s="187"/>
     </row>
-    <row r="169" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="169" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A169" s="179"/>
       <c r="B169" s="206"/>
       <c r="C169" s="195"/>
@@ -18520,7 +18524,7 @@
       <c r="BS169" s="197"/>
       <c r="BT169" s="187"/>
     </row>
-    <row r="170" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="170" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A170" s="179"/>
       <c r="B170" s="206"/>
       <c r="C170" s="195"/>
@@ -18579,7 +18583,7 @@
       <c r="BS170" s="197"/>
       <c r="BT170" s="187"/>
     </row>
-    <row r="171" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="171" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A171" s="179"/>
       <c r="B171" s="206"/>
       <c r="C171" s="195"/>
@@ -18638,7 +18642,7 @@
       <c r="BS171" s="197"/>
       <c r="BT171" s="187"/>
     </row>
-    <row r="172" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="172" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A172" s="179"/>
       <c r="B172" s="206"/>
       <c r="C172" s="195"/>
@@ -18697,7 +18701,7 @@
       <c r="BS172" s="197"/>
       <c r="BT172" s="187"/>
     </row>
-    <row r="173" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="173" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A173" s="179"/>
       <c r="B173" s="206"/>
       <c r="C173" s="195"/>
@@ -18756,7 +18760,7 @@
       <c r="BS173" s="197"/>
       <c r="BT173" s="187"/>
     </row>
-    <row r="174" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="174" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A174" s="179"/>
       <c r="B174" s="206"/>
       <c r="C174" s="195"/>
@@ -18815,7 +18819,7 @@
       <c r="BS174" s="197"/>
       <c r="BT174" s="187"/>
     </row>
-    <row r="175" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="175" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A175" s="179"/>
       <c r="B175" s="206"/>
       <c r="C175" s="195"/>
@@ -18874,7 +18878,7 @@
       <c r="BS175" s="197"/>
       <c r="BT175" s="187"/>
     </row>
-    <row r="176" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="176" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A176" s="179"/>
       <c r="B176" s="206"/>
       <c r="C176" s="195"/>
@@ -18933,7 +18937,7 @@
       <c r="BS176" s="197"/>
       <c r="BT176" s="187"/>
     </row>
-    <row r="177" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="177" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A177" s="179"/>
       <c r="B177" s="206"/>
       <c r="C177" s="195"/>
@@ -18992,7 +18996,7 @@
       <c r="BS177" s="197"/>
       <c r="BT177" s="187"/>
     </row>
-    <row r="178" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="178" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A178" s="179"/>
       <c r="B178" s="206"/>
       <c r="C178" s="195"/>
@@ -19051,7 +19055,7 @@
       <c r="BS178" s="197"/>
       <c r="BT178" s="187"/>
     </row>
-    <row r="179" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="179" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A179" s="179"/>
       <c r="B179" s="206"/>
       <c r="C179" s="195"/>
@@ -19110,7 +19114,7 @@
       <c r="BS179" s="197"/>
       <c r="BT179" s="187"/>
     </row>
-    <row r="180" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="180" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A180" s="179"/>
       <c r="B180" s="206"/>
       <c r="C180" s="195"/>
@@ -19171,7 +19175,7 @@
       <c r="BS180" s="197"/>
       <c r="BT180" s="187"/>
     </row>
-    <row r="181" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="181" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A181" s="179"/>
       <c r="B181" s="213" t="s">
         <v>43</v>
@@ -19234,7 +19238,7 @@
       <c r="BS181" s="197"/>
       <c r="BT181" s="187"/>
     </row>
-    <row r="182" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="182" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A182" s="179"/>
       <c r="B182" s="213"/>
       <c r="C182" s="195"/>
@@ -19295,7 +19299,7 @@
       <c r="BS182" s="197"/>
       <c r="BT182" s="187"/>
     </row>
-    <row r="183" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="183" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A183" s="179"/>
       <c r="B183" s="213"/>
       <c r="C183" s="195"/>
@@ -19356,7 +19360,7 @@
       <c r="BS183" s="197"/>
       <c r="BT183" s="187"/>
     </row>
-    <row r="184" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="184" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A184" s="179"/>
       <c r="B184" s="213"/>
       <c r="C184" s="195"/>
@@ -19417,7 +19421,7 @@
       <c r="BS184" s="197"/>
       <c r="BT184" s="187"/>
     </row>
-    <row r="185" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="185" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A185" s="179"/>
       <c r="B185" s="213"/>
       <c r="C185" s="195"/>
@@ -19478,7 +19482,7 @@
       <c r="BS185" s="197"/>
       <c r="BT185" s="187"/>
     </row>
-    <row r="186" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="186" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A186" s="179"/>
       <c r="B186" s="213"/>
       <c r="C186" s="195"/>
@@ -19539,7 +19543,7 @@
       <c r="BS186" s="197"/>
       <c r="BT186" s="187"/>
     </row>
-    <row r="187" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="187" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A187" s="179"/>
       <c r="B187" s="213"/>
       <c r="C187" s="195"/>
@@ -19600,7 +19604,7 @@
       <c r="BS187" s="197"/>
       <c r="BT187" s="187"/>
     </row>
-    <row r="188" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="188" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A188" s="179"/>
       <c r="B188" s="213"/>
       <c r="C188" s="195"/>
@@ -19661,7 +19665,7 @@
       <c r="BS188" s="197"/>
       <c r="BT188" s="187"/>
     </row>
-    <row r="189" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="189" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A189" s="179"/>
       <c r="B189" s="213"/>
       <c r="C189" s="195"/>
@@ -19722,7 +19726,7 @@
       <c r="BS189" s="197"/>
       <c r="BT189" s="187"/>
     </row>
-    <row r="190" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="190" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A190" s="179"/>
       <c r="B190" s="213"/>
       <c r="C190" s="195"/>
@@ -19783,7 +19787,7 @@
       <c r="BS190" s="197"/>
       <c r="BT190" s="187"/>
     </row>
-    <row r="191" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="191" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A191" s="179"/>
       <c r="B191" s="213"/>
       <c r="C191" s="195"/>
@@ -19844,7 +19848,7 @@
       <c r="BS191" s="197"/>
       <c r="BT191" s="187"/>
     </row>
-    <row r="192" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="192" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A192" s="179"/>
       <c r="B192" s="213"/>
       <c r="C192" s="195"/>
@@ -19905,7 +19909,7 @@
       <c r="BS192" s="197"/>
       <c r="BT192" s="187"/>
     </row>
-    <row r="193" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="193" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A193" s="179"/>
       <c r="B193" s="213"/>
       <c r="C193" s="195"/>
@@ -19966,7 +19970,7 @@
       <c r="BS193" s="197"/>
       <c r="BT193" s="187"/>
     </row>
-    <row r="194" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="194" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A194" s="179"/>
       <c r="B194" s="213"/>
       <c r="C194" s="195"/>
@@ -20027,7 +20031,7 @@
       <c r="BS194" s="197"/>
       <c r="BT194" s="187"/>
     </row>
-    <row r="195" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="195" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A195" s="179"/>
       <c r="B195" s="213"/>
       <c r="C195" s="195"/>
@@ -20088,7 +20092,7 @@
       <c r="BS195" s="197"/>
       <c r="BT195" s="187"/>
     </row>
-    <row r="196" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="196" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A196" s="179"/>
       <c r="B196" s="213"/>
       <c r="C196" s="195"/>
@@ -20149,7 +20153,7 @@
       <c r="BS196" s="197"/>
       <c r="BT196" s="187"/>
     </row>
-    <row r="197" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="197" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A197" s="179"/>
       <c r="B197" s="213"/>
       <c r="C197" s="195"/>
@@ -20210,7 +20214,7 @@
       <c r="BS197" s="197"/>
       <c r="BT197" s="187"/>
     </row>
-    <row r="198" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="198" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A198" s="179"/>
       <c r="B198" s="213"/>
       <c r="C198" s="195"/>
@@ -20271,7 +20275,7 @@
       <c r="BS198" s="197"/>
       <c r="BT198" s="187"/>
     </row>
-    <row r="199" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="199" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A199" s="179"/>
       <c r="B199" s="213"/>
       <c r="C199" s="195"/>
@@ -20332,7 +20336,7 @@
       <c r="BS199" s="197"/>
       <c r="BT199" s="187"/>
     </row>
-    <row r="200" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="200" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A200" s="179"/>
       <c r="B200" s="213"/>
       <c r="C200" s="195"/>
@@ -20393,7 +20397,7 @@
       <c r="BS200" s="197"/>
       <c r="BT200" s="187"/>
     </row>
-    <row r="201" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="201" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A201" s="179"/>
       <c r="B201" s="213"/>
       <c r="C201" s="195"/>
@@ -20454,7 +20458,7 @@
       <c r="BS201" s="197"/>
       <c r="BT201" s="187"/>
     </row>
-    <row r="202" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="202" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A202" s="179"/>
       <c r="B202" s="213"/>
       <c r="C202" s="195"/>
@@ -20515,7 +20519,7 @@
       <c r="BS202" s="197"/>
       <c r="BT202" s="187"/>
     </row>
-    <row r="203" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="203" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A203" s="179"/>
       <c r="B203" s="213"/>
       <c r="C203" s="195"/>
@@ -20576,7 +20580,7 @@
       <c r="BS203" s="197"/>
       <c r="BT203" s="187"/>
     </row>
-    <row r="204" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="204" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A204" s="179"/>
       <c r="B204" s="213"/>
       <c r="C204" s="195"/>
@@ -20637,7 +20641,7 @@
       <c r="BS204" s="197"/>
       <c r="BT204" s="187"/>
     </row>
-    <row r="205" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="205" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A205" s="179"/>
       <c r="B205" s="213"/>
       <c r="C205" s="195"/>
@@ -20698,7 +20702,7 @@
       <c r="BS205" s="197"/>
       <c r="BT205" s="187"/>
     </row>
-    <row r="206" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="206" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A206" s="179"/>
       <c r="B206" s="213"/>
       <c r="C206" s="195"/>
@@ -20759,7 +20763,7 @@
       <c r="BS206" s="197"/>
       <c r="BT206" s="187"/>
     </row>
-    <row r="207" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="207" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A207" s="179"/>
       <c r="B207" s="213"/>
       <c r="C207" s="195"/>
@@ -20820,7 +20824,7 @@
       <c r="BS207" s="197"/>
       <c r="BT207" s="187"/>
     </row>
-    <row r="208" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="208" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A208" s="179"/>
       <c r="B208" s="213"/>
       <c r="C208" s="195"/>
@@ -20881,7 +20885,7 @@
       <c r="BS208" s="197"/>
       <c r="BT208" s="187"/>
     </row>
-    <row r="209" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="209" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A209" s="179"/>
       <c r="B209" s="213"/>
       <c r="C209" s="195"/>
@@ -20942,7 +20946,7 @@
       <c r="BS209" s="197"/>
       <c r="BT209" s="187"/>
     </row>
-    <row r="210" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="210" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A210" s="179"/>
       <c r="B210" s="213"/>
       <c r="C210" s="195"/>
@@ -21003,7 +21007,7 @@
       <c r="BS210" s="197"/>
       <c r="BT210" s="187"/>
     </row>
-    <row r="211" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="211" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A211" s="179"/>
       <c r="B211" s="213"/>
       <c r="C211" s="195"/>
@@ -21064,7 +21068,7 @@
       <c r="BS211" s="197"/>
       <c r="BT211" s="187"/>
     </row>
-    <row r="212" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="212" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A212" s="179"/>
       <c r="B212" s="213"/>
       <c r="C212" s="195"/>
@@ -21125,7 +21129,7 @@
       <c r="BS212" s="197"/>
       <c r="BT212" s="187"/>
     </row>
-    <row r="213" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="213" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A213" s="179"/>
       <c r="B213" s="213"/>
       <c r="C213" s="195"/>
@@ -21186,7 +21190,7 @@
       <c r="BS213" s="197"/>
       <c r="BT213" s="187"/>
     </row>
-    <row r="214" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="214" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A214" s="179"/>
       <c r="B214" s="213"/>
       <c r="C214" s="195"/>
@@ -21247,7 +21251,7 @@
       <c r="BS214" s="197"/>
       <c r="BT214" s="187"/>
     </row>
-    <row r="215" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="215" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A215" s="179"/>
       <c r="B215" s="213"/>
       <c r="C215" s="195"/>
@@ -21308,7 +21312,7 @@
       <c r="BS215" s="197"/>
       <c r="BT215" s="187"/>
     </row>
-    <row r="216" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="216" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A216" s="179"/>
       <c r="B216" s="213"/>
       <c r="C216" s="195"/>
@@ -21369,7 +21373,7 @@
       <c r="BS216" s="197"/>
       <c r="BT216" s="187"/>
     </row>
-    <row r="217" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="217" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A217" s="179"/>
       <c r="B217" s="213"/>
       <c r="C217" s="195"/>
@@ -21430,7 +21434,7 @@
       <c r="BS217" s="197"/>
       <c r="BT217" s="187"/>
     </row>
-    <row r="218" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="218" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A218" s="179"/>
       <c r="B218" s="213"/>
       <c r="C218" s="195"/>
@@ -21491,7 +21495,7 @@
       <c r="BS218" s="197"/>
       <c r="BT218" s="187"/>
     </row>
-    <row r="219" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="219" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A219" s="179"/>
       <c r="B219" s="213"/>
       <c r="C219" s="195"/>
@@ -21552,7 +21556,7 @@
       <c r="BS219" s="197"/>
       <c r="BT219" s="187"/>
     </row>
-    <row r="220" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="220" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A220" s="179"/>
       <c r="B220" s="213"/>
       <c r="C220" s="195"/>
@@ -21613,7 +21617,7 @@
       <c r="BS220" s="197"/>
       <c r="BT220" s="187"/>
     </row>
-    <row r="221" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="221" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A221" s="179"/>
       <c r="B221" s="213"/>
       <c r="C221" s="195"/>
@@ -21674,7 +21678,7 @@
       <c r="BS221" s="197"/>
       <c r="BT221" s="187"/>
     </row>
-    <row r="222" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="222" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A222" s="179"/>
       <c r="B222" s="213"/>
       <c r="C222" s="195"/>
@@ -21735,7 +21739,7 @@
       <c r="BS222" s="197"/>
       <c r="BT222" s="187"/>
     </row>
-    <row r="223" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="223" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A223" s="179"/>
       <c r="B223" s="213"/>
       <c r="C223" s="195"/>
@@ -21796,7 +21800,7 @@
       <c r="BS223" s="197"/>
       <c r="BT223" s="187"/>
     </row>
-    <row r="224" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="224" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A224" s="179"/>
       <c r="B224" s="213"/>
       <c r="C224" s="195"/>
@@ -21857,7 +21861,7 @@
       <c r="BS224" s="197"/>
       <c r="BT224" s="187"/>
     </row>
-    <row r="225" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="225" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A225" s="179"/>
       <c r="B225" s="213"/>
       <c r="C225" s="195"/>
@@ -21918,7 +21922,7 @@
       <c r="BS225" s="197"/>
       <c r="BT225" s="187"/>
     </row>
-    <row r="226" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="226" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A226" s="179"/>
       <c r="B226" s="213"/>
       <c r="C226" s="195"/>
@@ -21979,7 +21983,7 @@
       <c r="BS226" s="197"/>
       <c r="BT226" s="187"/>
     </row>
-    <row r="227" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="227" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A227" s="179"/>
       <c r="B227" s="213"/>
       <c r="C227" s="195"/>
@@ -22040,7 +22044,7 @@
       <c r="BS227" s="197"/>
       <c r="BT227" s="187"/>
     </row>
-    <row r="228" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="228" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A228" s="179"/>
       <c r="B228" s="213"/>
       <c r="C228" s="195"/>
@@ -22101,7 +22105,7 @@
       <c r="BS228" s="197"/>
       <c r="BT228" s="187"/>
     </row>
-    <row r="229" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="229" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A229" s="179"/>
       <c r="B229" s="213"/>
       <c r="C229" s="195"/>
@@ -22162,7 +22166,7 @@
       <c r="BS229" s="197"/>
       <c r="BT229" s="187"/>
     </row>
-    <row r="230" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="230" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A230" s="179"/>
       <c r="B230" s="213"/>
       <c r="C230" s="195"/>
@@ -22223,7 +22227,7 @@
       <c r="BS230" s="197"/>
       <c r="BT230" s="187"/>
     </row>
-    <row r="231" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="231" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A231" s="179"/>
       <c r="B231" s="213"/>
       <c r="C231" s="195"/>
@@ -22284,7 +22288,7 @@
       <c r="BS231" s="197"/>
       <c r="BT231" s="187"/>
     </row>
-    <row r="232" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="232" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A232" s="179"/>
       <c r="B232" s="213"/>
       <c r="C232" s="195"/>
@@ -22345,7 +22349,7 @@
       <c r="BS232" s="197"/>
       <c r="BT232" s="187"/>
     </row>
-    <row r="233" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="233" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A233" s="179"/>
       <c r="B233" s="213"/>
       <c r="C233" s="195"/>
@@ -22406,7 +22410,7 @@
       <c r="BS233" s="197"/>
       <c r="BT233" s="187"/>
     </row>
-    <row r="234" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="234" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A234" s="179"/>
       <c r="B234" s="213"/>
       <c r="C234" s="195"/>
@@ -22467,7 +22471,7 @@
       <c r="BS234" s="197"/>
       <c r="BT234" s="187"/>
     </row>
-    <row r="235" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="235" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A235" s="179"/>
       <c r="B235" s="213"/>
       <c r="C235" s="195"/>
@@ -22528,7 +22532,7 @@
       <c r="BS235" s="197"/>
       <c r="BT235" s="187"/>
     </row>
-    <row r="236" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="236" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A236" s="179"/>
       <c r="B236" s="213"/>
       <c r="C236" s="195"/>
@@ -22589,7 +22593,7 @@
       <c r="BS236" s="197"/>
       <c r="BT236" s="187"/>
     </row>
-    <row r="237" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="237" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A237" s="179"/>
       <c r="B237" s="213"/>
       <c r="C237" s="195"/>
@@ -22650,7 +22654,7 @@
       <c r="BS237" s="197"/>
       <c r="BT237" s="187"/>
     </row>
-    <row r="238" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="238" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A238" s="179"/>
       <c r="B238" s="213"/>
       <c r="C238" s="195"/>
@@ -22711,7 +22715,7 @@
       <c r="BS238" s="197"/>
       <c r="BT238" s="187"/>
     </row>
-    <row r="239" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="239" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A239" s="179"/>
       <c r="B239" s="213"/>
       <c r="C239" s="195"/>
@@ -22772,7 +22776,7 @@
       <c r="BS239" s="197"/>
       <c r="BT239" s="187"/>
     </row>
-    <row r="240" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="240" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A240" s="179"/>
       <c r="B240" s="213"/>
       <c r="C240" s="195"/>
@@ -22833,7 +22837,7 @@
       <c r="BS240" s="197"/>
       <c r="BT240" s="187"/>
     </row>
-    <row r="241" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="241" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A241" s="179"/>
       <c r="B241" s="213"/>
       <c r="C241" s="195"/>
@@ -22894,7 +22898,7 @@
       <c r="BS241" s="197"/>
       <c r="BT241" s="187"/>
     </row>
-    <row r="242" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="242" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A242" s="179"/>
       <c r="B242" s="213"/>
       <c r="C242" s="195"/>
@@ -22955,7 +22959,7 @@
       <c r="BS242" s="197"/>
       <c r="BT242" s="187"/>
     </row>
-    <row r="243" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="243" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A243" s="179"/>
       <c r="B243" s="213"/>
       <c r="C243" s="195"/>
@@ -23016,7 +23020,7 @@
       <c r="BS243" s="197"/>
       <c r="BT243" s="187"/>
     </row>
-    <row r="244" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="244" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A244" s="179"/>
       <c r="B244" s="213"/>
       <c r="C244" s="195"/>
@@ -23077,7 +23081,7 @@
       <c r="BS244" s="197"/>
       <c r="BT244" s="187"/>
     </row>
-    <row r="245" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="245" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A245" s="179"/>
       <c r="B245" s="213"/>
       <c r="C245" s="195"/>
@@ -23138,7 +23142,7 @@
       <c r="BS245" s="197"/>
       <c r="BT245" s="187"/>
     </row>
-    <row r="246" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="246" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A246" s="179"/>
       <c r="B246" s="213"/>
       <c r="C246" s="195"/>
@@ -23199,7 +23203,7 @@
       <c r="BS246" s="197"/>
       <c r="BT246" s="187"/>
     </row>
-    <row r="247" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="247" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A247" s="179"/>
       <c r="B247" s="213"/>
       <c r="C247" s="195"/>
@@ -23260,7 +23264,7 @@
       <c r="BS247" s="197"/>
       <c r="BT247" s="187"/>
     </row>
-    <row r="248" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="248" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A248" s="179"/>
       <c r="B248" s="213"/>
       <c r="C248" s="195"/>
@@ -23321,7 +23325,7 @@
       <c r="BS248" s="197"/>
       <c r="BT248" s="187"/>
     </row>
-    <row r="249" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="249" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A249" s="179"/>
       <c r="B249" s="213"/>
       <c r="C249" s="195"/>
@@ -23382,7 +23386,7 @@
       <c r="BS249" s="197"/>
       <c r="BT249" s="187"/>
     </row>
-    <row r="250" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="250" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A250" s="179"/>
       <c r="B250" s="213"/>
       <c r="C250" s="195"/>
@@ -23443,7 +23447,7 @@
       <c r="BS250" s="197"/>
       <c r="BT250" s="187"/>
     </row>
-    <row r="251" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="251" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A251" s="179"/>
       <c r="B251" s="213"/>
       <c r="C251" s="195"/>
@@ -23504,7 +23508,7 @@
       <c r="BS251" s="197"/>
       <c r="BT251" s="187"/>
     </row>
-    <row r="252" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="252" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A252" s="179"/>
       <c r="B252" s="213"/>
       <c r="C252" s="195"/>
@@ -23565,7 +23569,7 @@
       <c r="BS252" s="197"/>
       <c r="BT252" s="187"/>
     </row>
-    <row r="253" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="253" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A253" s="179"/>
       <c r="B253" s="213"/>
       <c r="C253" s="195"/>
@@ -23626,7 +23630,7 @@
       <c r="BS253" s="197"/>
       <c r="BT253" s="187"/>
     </row>
-    <row r="254" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="254" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A254" s="179"/>
       <c r="B254" s="213"/>
       <c r="C254" s="195"/>
@@ -23687,7 +23691,7 @@
       <c r="BS254" s="197"/>
       <c r="BT254" s="187"/>
     </row>
-    <row r="255" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="255" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A255" s="179"/>
       <c r="B255" s="213"/>
       <c r="C255" s="195"/>
@@ -23748,7 +23752,7 @@
       <c r="BS255" s="197"/>
       <c r="BT255" s="187"/>
     </row>
-    <row r="256" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="256" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A256" s="179"/>
       <c r="B256" s="213"/>
       <c r="C256" s="195"/>
@@ -23809,7 +23813,7 @@
       <c r="BS256" s="197"/>
       <c r="BT256" s="187"/>
     </row>
-    <row r="257" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="257" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A257" s="179"/>
       <c r="B257" s="213"/>
       <c r="C257" s="195"/>
@@ -23870,7 +23874,7 @@
       <c r="BS257" s="197"/>
       <c r="BT257" s="187"/>
     </row>
-    <row r="258" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="258" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A258" s="179"/>
       <c r="B258" s="213"/>
       <c r="C258" s="195"/>
@@ -23931,7 +23935,7 @@
       <c r="BS258" s="197"/>
       <c r="BT258" s="187"/>
     </row>
-    <row r="259" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="259" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A259" s="179"/>
       <c r="B259" s="213"/>
       <c r="C259" s="195"/>
@@ -23992,7 +23996,7 @@
       <c r="BS259" s="197"/>
       <c r="BT259" s="187"/>
     </row>
-    <row r="260" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="260" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A260" s="179"/>
       <c r="B260" s="213"/>
       <c r="C260" s="195"/>
@@ -24053,7 +24057,7 @@
       <c r="BS260" s="197"/>
       <c r="BT260" s="187"/>
     </row>
-    <row r="261" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="261" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A261" s="179"/>
       <c r="B261" s="213"/>
       <c r="C261" s="195"/>
@@ -24114,7 +24118,7 @@
       <c r="BS261" s="197"/>
       <c r="BT261" s="187"/>
     </row>
-    <row r="262" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="262" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A262" s="179"/>
       <c r="B262" s="213"/>
       <c r="C262" s="195"/>
@@ -24175,7 +24179,7 @@
       <c r="BS262" s="197"/>
       <c r="BT262" s="187"/>
     </row>
-    <row r="263" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="263" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A263" s="179"/>
       <c r="B263" s="213"/>
       <c r="C263" s="195"/>
@@ -24236,7 +24240,7 @@
       <c r="BS263" s="197"/>
       <c r="BT263" s="187"/>
     </row>
-    <row r="264" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="264" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A264" s="179"/>
       <c r="B264" s="213"/>
       <c r="C264" s="195"/>
@@ -24297,7 +24301,7 @@
       <c r="BS264" s="197"/>
       <c r="BT264" s="187"/>
     </row>
-    <row r="265" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="265" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A265" s="179"/>
       <c r="B265" s="213"/>
       <c r="C265" s="195"/>
@@ -24358,7 +24362,7 @@
       <c r="BS265" s="197"/>
       <c r="BT265" s="187"/>
     </row>
-    <row r="266" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="266" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A266" s="179"/>
       <c r="B266" s="213"/>
       <c r="C266" s="195"/>
@@ -24419,7 +24423,7 @@
       <c r="BS266" s="197"/>
       <c r="BT266" s="187"/>
     </row>
-    <row r="267" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="267" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A267" s="179"/>
       <c r="B267" s="213"/>
       <c r="C267" s="195"/>
@@ -24480,7 +24484,7 @@
       <c r="BS267" s="197"/>
       <c r="BT267" s="187"/>
     </row>
-    <row r="268" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="268" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A268" s="179"/>
       <c r="B268" s="213"/>
       <c r="C268" s="195"/>
@@ -24541,7 +24545,7 @@
       <c r="BS268" s="197"/>
       <c r="BT268" s="187"/>
     </row>
-    <row r="269" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="269" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A269" s="179"/>
       <c r="B269" s="213"/>
       <c r="C269" s="195"/>
@@ -24602,7 +24606,7 @@
       <c r="BS269" s="197"/>
       <c r="BT269" s="187"/>
     </row>
-    <row r="270" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="270" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A270" s="179"/>
       <c r="B270" s="213"/>
       <c r="C270" s="195"/>
@@ -24663,7 +24667,7 @@
       <c r="BS270" s="197"/>
       <c r="BT270" s="187"/>
     </row>
-    <row r="271" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="271" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A271" s="179"/>
       <c r="B271" s="213"/>
       <c r="C271" s="195"/>
@@ -24724,7 +24728,7 @@
       <c r="BS271" s="197"/>
       <c r="BT271" s="187"/>
     </row>
-    <row r="272" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="272" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A272" s="179"/>
       <c r="B272" s="213"/>
       <c r="C272" s="195"/>
@@ -24785,7 +24789,7 @@
       <c r="BS272" s="197"/>
       <c r="BT272" s="187"/>
     </row>
-    <row r="273" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="273" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A273" s="179"/>
       <c r="B273" s="213"/>
       <c r="C273" s="195"/>
@@ -24846,7 +24850,7 @@
       <c r="BS273" s="197"/>
       <c r="BT273" s="187"/>
     </row>
-    <row r="274" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="274" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A274" s="179"/>
       <c r="B274" s="213"/>
       <c r="C274" s="195"/>
@@ -24907,7 +24911,7 @@
       <c r="BS274" s="197"/>
       <c r="BT274" s="187"/>
     </row>
-    <row r="275" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="275" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A275" s="179"/>
       <c r="B275" s="213"/>
       <c r="C275" s="195"/>
@@ -24968,7 +24972,7 @@
       <c r="BS275" s="197"/>
       <c r="BT275" s="187"/>
     </row>
-    <row r="276" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="276" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A276" s="179"/>
       <c r="B276" s="213"/>
       <c r="C276" s="195"/>
@@ -25029,7 +25033,7 @@
       <c r="BS276" s="197"/>
       <c r="BT276" s="187"/>
     </row>
-    <row r="277" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="277" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A277" s="179"/>
       <c r="B277" s="213"/>
       <c r="C277" s="195"/>
@@ -25090,7 +25094,7 @@
       <c r="BS277" s="197"/>
       <c r="BT277" s="187"/>
     </row>
-    <row r="278" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="278" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A278" s="179"/>
       <c r="B278" s="213"/>
       <c r="C278" s="195"/>
@@ -25151,7 +25155,7 @@
       <c r="BS278" s="197"/>
       <c r="BT278" s="187"/>
     </row>
-    <row r="279" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="279" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A279" s="179"/>
       <c r="B279" s="213"/>
       <c r="C279" s="195"/>
@@ -25212,7 +25216,7 @@
       <c r="BS279" s="197"/>
       <c r="BT279" s="187"/>
     </row>
-    <row r="280" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="280" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A280" s="179"/>
       <c r="B280" s="213"/>
       <c r="C280" s="195"/>
@@ -25273,7 +25277,7 @@
       <c r="BS280" s="197"/>
       <c r="BT280" s="187"/>
     </row>
-    <row r="281" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="281" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A281" s="179"/>
       <c r="B281" s="213"/>
       <c r="C281" s="195"/>
@@ -25334,7 +25338,7 @@
       <c r="BS281" s="197"/>
       <c r="BT281" s="187"/>
     </row>
-    <row r="282" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="282" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A282" s="179"/>
       <c r="B282" s="213"/>
       <c r="C282" s="195"/>
@@ -25395,7 +25399,7 @@
       <c r="BS282" s="197"/>
       <c r="BT282" s="187"/>
     </row>
-    <row r="283" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="283" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A283" s="179"/>
       <c r="B283" s="213"/>
       <c r="C283" s="195"/>
@@ -25456,7 +25460,7 @@
       <c r="BS283" s="197"/>
       <c r="BT283" s="187"/>
     </row>
-    <row r="284" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="284" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A284" s="179"/>
       <c r="B284" s="213"/>
       <c r="C284" s="195"/>
@@ -25517,7 +25521,7 @@
       <c r="BS284" s="197"/>
       <c r="BT284" s="187"/>
     </row>
-    <row r="285" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="285" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A285" s="179"/>
       <c r="B285" s="213"/>
       <c r="C285" s="195"/>
@@ -25578,7 +25582,7 @@
       <c r="BS285" s="197"/>
       <c r="BT285" s="187"/>
     </row>
-    <row r="286" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="286" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A286" s="179"/>
       <c r="B286" s="213"/>
       <c r="C286" s="195"/>
@@ -25639,7 +25643,7 @@
       <c r="BS286" s="197"/>
       <c r="BT286" s="187"/>
     </row>
-    <row r="287" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="287" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A287" s="179"/>
       <c r="B287" s="213"/>
       <c r="C287" s="195"/>
@@ -25700,7 +25704,7 @@
       <c r="BS287" s="197"/>
       <c r="BT287" s="187"/>
     </row>
-    <row r="288" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="288" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A288" s="179"/>
       <c r="B288" s="213"/>
       <c r="C288" s="195"/>
@@ -25761,7 +25765,7 @@
       <c r="BS288" s="197"/>
       <c r="BT288" s="187"/>
     </row>
-    <row r="289" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="289" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A289" s="179"/>
       <c r="B289" s="213"/>
       <c r="C289" s="195"/>
@@ -25822,7 +25826,7 @@
       <c r="BS289" s="197"/>
       <c r="BT289" s="187"/>
     </row>
-    <row r="290" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="290" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A290" s="179"/>
       <c r="B290" s="213"/>
       <c r="C290" s="195"/>
@@ -25883,7 +25887,7 @@
       <c r="BS290" s="197"/>
       <c r="BT290" s="187"/>
     </row>
-    <row r="291" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="291" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A291" s="179"/>
       <c r="B291" s="213"/>
       <c r="C291" s="195"/>
@@ -25944,7 +25948,7 @@
       <c r="BS291" s="197"/>
       <c r="BT291" s="187"/>
     </row>
-    <row r="292" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="292" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A292" s="179"/>
       <c r="B292" s="213"/>
       <c r="C292" s="195"/>
@@ -26005,7 +26009,7 @@
       <c r="BS292" s="197"/>
       <c r="BT292" s="187"/>
     </row>
-    <row r="293" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="293" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A293" s="179"/>
       <c r="B293" s="213"/>
       <c r="C293" s="195"/>
@@ -26066,7 +26070,7 @@
       <c r="BS293" s="197"/>
       <c r="BT293" s="187"/>
     </row>
-    <row r="294" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="294" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A294" s="179"/>
       <c r="B294" s="213"/>
       <c r="C294" s="195"/>
@@ -26127,7 +26131,7 @@
       <c r="BS294" s="197"/>
       <c r="BT294" s="187"/>
     </row>
-    <row r="295" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="295" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A295" s="179"/>
       <c r="B295" s="213"/>
       <c r="C295" s="195"/>
@@ -26188,7 +26192,7 @@
       <c r="BS295" s="197"/>
       <c r="BT295" s="187"/>
     </row>
-    <row r="296" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="296" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A296" s="179"/>
       <c r="B296" s="213"/>
       <c r="C296" s="195"/>
@@ -26249,7 +26253,7 @@
       <c r="BS296" s="197"/>
       <c r="BT296" s="187"/>
     </row>
-    <row r="297" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="297" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A297" s="179"/>
       <c r="B297" s="213"/>
       <c r="C297" s="195"/>
@@ -26310,7 +26314,7 @@
       <c r="BS297" s="197"/>
       <c r="BT297" s="187"/>
     </row>
-    <row r="298" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="298" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A298" s="179"/>
       <c r="B298" s="213"/>
       <c r="C298" s="195"/>
@@ -26371,7 +26375,7 @@
       <c r="BS298" s="197"/>
       <c r="BT298" s="187"/>
     </row>
-    <row r="299" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="299" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A299" s="179"/>
       <c r="B299" s="213"/>
       <c r="C299" s="195"/>
@@ -26432,7 +26436,7 @@
       <c r="BS299" s="197"/>
       <c r="BT299" s="187"/>
     </row>
-    <row r="300" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="300" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A300" s="179"/>
       <c r="B300" s="213"/>
       <c r="C300" s="195"/>
@@ -26493,7 +26497,7 @@
       <c r="BS300" s="197"/>
       <c r="BT300" s="187"/>
     </row>
-    <row r="301" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="301" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A301" s="179"/>
       <c r="B301" s="213"/>
       <c r="C301" s="195"/>
@@ -26554,7 +26558,7 @@
       <c r="BS301" s="197"/>
       <c r="BT301" s="187"/>
     </row>
-    <row r="302" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="302" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A302" s="179"/>
       <c r="B302" s="213"/>
       <c r="C302" s="195"/>
@@ -26615,7 +26619,7 @@
       <c r="BS302" s="197"/>
       <c r="BT302" s="187"/>
     </row>
-    <row r="303" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="303" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A303" s="179"/>
       <c r="B303" s="213"/>
       <c r="C303" s="195"/>
@@ -26676,7 +26680,7 @@
       <c r="BS303" s="197"/>
       <c r="BT303" s="187"/>
     </row>
-    <row r="304" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="304" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A304" s="179"/>
       <c r="B304" s="213"/>
       <c r="C304" s="195"/>
@@ -26737,7 +26741,7 @@
       <c r="BS304" s="197"/>
       <c r="BT304" s="187"/>
     </row>
-    <row r="305" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="305" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A305" s="179"/>
       <c r="B305" s="213"/>
       <c r="C305" s="195"/>
@@ -26798,7 +26802,7 @@
       <c r="BS305" s="197"/>
       <c r="BT305" s="187"/>
     </row>
-    <row r="306" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="306" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A306" s="179"/>
       <c r="B306" s="213"/>
       <c r="C306" s="195"/>
@@ -26859,7 +26863,7 @@
       <c r="BS306" s="197"/>
       <c r="BT306" s="187"/>
     </row>
-    <row r="307" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="307" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A307" s="179"/>
       <c r="B307" s="213"/>
       <c r="C307" s="195"/>
@@ -26920,7 +26924,7 @@
       <c r="BS307" s="197"/>
       <c r="BT307" s="187"/>
     </row>
-    <row r="308" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="308" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A308" s="179"/>
       <c r="B308" s="213"/>
       <c r="C308" s="195"/>
@@ -26981,7 +26985,7 @@
       <c r="BS308" s="197"/>
       <c r="BT308" s="187"/>
     </row>
-    <row r="309" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="309" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A309" s="179"/>
       <c r="B309" s="213"/>
       <c r="C309" s="195"/>
@@ -27042,7 +27046,7 @@
       <c r="BS309" s="197"/>
       <c r="BT309" s="187"/>
     </row>
-    <row r="310" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="310" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A310" s="179"/>
       <c r="B310" s="213"/>
       <c r="C310" s="195"/>
@@ -27103,7 +27107,7 @@
       <c r="BS310" s="197"/>
       <c r="BT310" s="187"/>
     </row>
-    <row r="311" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="311" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A311" s="179"/>
       <c r="B311" s="213"/>
       <c r="C311" s="195"/>
@@ -27164,7 +27168,7 @@
       <c r="BS311" s="197"/>
       <c r="BT311" s="187"/>
     </row>
-    <row r="312" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="312" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A312" s="179"/>
       <c r="B312" s="213"/>
       <c r="C312" s="195"/>
@@ -27225,7 +27229,7 @@
       <c r="BS312" s="197"/>
       <c r="BT312" s="187"/>
     </row>
-    <row r="313" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="313" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A313" s="179"/>
       <c r="B313" s="213"/>
       <c r="C313" s="195"/>
@@ -27286,7 +27290,7 @@
       <c r="BS313" s="197"/>
       <c r="BT313" s="187"/>
     </row>
-    <row r="314" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="314" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A314" s="179"/>
       <c r="B314" s="213"/>
       <c r="C314" s="195"/>
@@ -27347,7 +27351,7 @@
       <c r="BS314" s="197"/>
       <c r="BT314" s="187"/>
     </row>
-    <row r="315" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="315" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A315" s="179"/>
       <c r="B315" s="213"/>
       <c r="C315" s="195"/>
@@ -27408,7 +27412,7 @@
       <c r="BS315" s="197"/>
       <c r="BT315" s="187"/>
     </row>
-    <row r="316" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="316" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A316" s="179"/>
       <c r="B316" s="213"/>
       <c r="C316" s="195"/>
@@ -27469,7 +27473,7 @@
       <c r="BS316" s="197"/>
       <c r="BT316" s="187"/>
     </row>
-    <row r="317" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="317" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A317" s="179"/>
       <c r="B317" s="213"/>
       <c r="C317" s="195"/>
@@ -27530,7 +27534,7 @@
       <c r="BS317" s="197"/>
       <c r="BT317" s="187"/>
     </row>
-    <row r="318" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="318" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A318" s="179"/>
       <c r="B318" s="213"/>
       <c r="C318" s="195"/>
@@ -27591,7 +27595,7 @@
       <c r="BS318" s="197"/>
       <c r="BT318" s="187"/>
     </row>
-    <row r="319" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="319" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A319" s="179"/>
       <c r="B319" s="213"/>
       <c r="C319" s="195"/>
@@ -27652,7 +27656,7 @@
       <c r="BS319" s="197"/>
       <c r="BT319" s="187"/>
     </row>
-    <row r="320" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="320" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A320" s="179"/>
       <c r="B320" s="213"/>
       <c r="C320" s="195"/>
@@ -27713,7 +27717,7 @@
       <c r="BS320" s="197"/>
       <c r="BT320" s="187"/>
     </row>
-    <row r="321" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="321" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A321" s="179"/>
       <c r="B321" s="213"/>
       <c r="C321" s="195"/>
@@ -27774,7 +27778,7 @@
       <c r="BS321" s="197"/>
       <c r="BT321" s="187"/>
     </row>
-    <row r="322" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="322" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A322" s="179"/>
       <c r="B322" s="213"/>
       <c r="C322" s="195"/>
@@ -27835,7 +27839,7 @@
       <c r="BS322" s="197"/>
       <c r="BT322" s="187"/>
     </row>
-    <row r="323" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="323" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A323" s="179"/>
       <c r="B323" s="213"/>
       <c r="C323" s="195"/>
@@ -27896,7 +27900,7 @@
       <c r="BS323" s="197"/>
       <c r="BT323" s="187"/>
     </row>
-    <row r="324" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="324" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A324" s="179"/>
       <c r="B324" s="213"/>
       <c r="C324" s="195"/>
@@ -27957,7 +27961,7 @@
       <c r="BS324" s="197"/>
       <c r="BT324" s="187"/>
     </row>
-    <row r="325" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="325" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A325" s="179"/>
       <c r="B325" s="213"/>
       <c r="C325" s="195"/>
@@ -28018,7 +28022,7 @@
       <c r="BS325" s="197"/>
       <c r="BT325" s="187"/>
     </row>
-    <row r="326" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="326" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A326" s="179"/>
       <c r="B326" s="213"/>
       <c r="C326" s="195"/>
@@ -28079,7 +28083,7 @@
       <c r="BS326" s="197"/>
       <c r="BT326" s="187"/>
     </row>
-    <row r="327" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="327" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A327" s="179"/>
       <c r="B327" s="213"/>
       <c r="C327" s="195"/>
@@ -28140,7 +28144,7 @@
       <c r="BS327" s="197"/>
       <c r="BT327" s="187"/>
     </row>
-    <row r="328" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="328" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A328" s="179"/>
       <c r="B328" s="213"/>
       <c r="C328" s="195"/>
@@ -28201,7 +28205,7 @@
       <c r="BS328" s="197"/>
       <c r="BT328" s="187"/>
     </row>
-    <row r="329" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="329" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A329" s="179"/>
       <c r="B329" s="213"/>
       <c r="C329" s="195"/>
@@ -28262,7 +28266,7 @@
       <c r="BS329" s="197"/>
       <c r="BT329" s="187"/>
     </row>
-    <row r="330" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="330" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A330" s="179"/>
       <c r="B330" s="213"/>
       <c r="C330" s="195"/>
@@ -28323,7 +28327,7 @@
       <c r="BS330" s="197"/>
       <c r="BT330" s="187"/>
     </row>
-    <row r="331" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="331" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A331" s="179"/>
       <c r="B331" s="213"/>
       <c r="C331" s="195"/>
@@ -28384,7 +28388,7 @@
       <c r="BS331" s="197"/>
       <c r="BT331" s="187"/>
     </row>
-    <row r="332" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="332" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A332" s="179"/>
       <c r="B332" s="213"/>
       <c r="C332" s="195"/>
@@ -28445,7 +28449,7 @@
       <c r="BS332" s="197"/>
       <c r="BT332" s="187"/>
     </row>
-    <row r="333" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="333" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A333" s="179"/>
       <c r="B333" s="213"/>
       <c r="C333" s="195"/>
@@ -28506,7 +28510,7 @@
       <c r="BS333" s="197"/>
       <c r="BT333" s="187"/>
     </row>
-    <row r="334" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="334" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A334" s="179"/>
       <c r="B334" s="213"/>
       <c r="C334" s="195"/>
@@ -28567,7 +28571,7 @@
       <c r="BS334" s="197"/>
       <c r="BT334" s="187"/>
     </row>
-    <row r="335" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="335" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A335" s="179"/>
       <c r="B335" s="213"/>
       <c r="C335" s="195"/>
@@ -28628,7 +28632,7 @@
       <c r="BS335" s="197"/>
       <c r="BT335" s="187"/>
     </row>
-    <row r="336" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="336" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A336" s="179"/>
       <c r="B336" s="213"/>
       <c r="C336" s="195"/>
@@ -28689,7 +28693,7 @@
       <c r="BS336" s="197"/>
       <c r="BT336" s="187"/>
     </row>
-    <row r="337" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="337" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A337" s="179"/>
       <c r="B337" s="213"/>
       <c r="C337" s="195"/>
@@ -28750,7 +28754,7 @@
       <c r="BS337" s="197"/>
       <c r="BT337" s="187"/>
     </row>
-    <row r="338" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="338" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A338" s="179"/>
       <c r="B338" s="213"/>
       <c r="C338" s="195"/>
@@ -28811,7 +28815,7 @@
       <c r="BS338" s="197"/>
       <c r="BT338" s="187"/>
     </row>
-    <row r="339" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="339" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A339" s="179"/>
       <c r="B339" s="213"/>
       <c r="C339" s="195"/>
@@ -28872,7 +28876,7 @@
       <c r="BS339" s="197"/>
       <c r="BT339" s="187"/>
     </row>
-    <row r="340" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="340" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A340" s="179"/>
       <c r="B340" s="213"/>
       <c r="C340" s="195"/>
@@ -28933,7 +28937,7 @@
       <c r="BS340" s="197"/>
       <c r="BT340" s="187"/>
     </row>
-    <row r="341" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="341" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A341" s="179"/>
       <c r="B341" s="213"/>
       <c r="C341" s="195"/>
@@ -28994,7 +28998,7 @@
       <c r="BS341" s="197"/>
       <c r="BT341" s="187"/>
     </row>
-    <row r="342" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="342" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A342" s="179"/>
       <c r="B342" s="213"/>
       <c r="C342" s="195"/>
@@ -29055,7 +29059,7 @@
       <c r="BS342" s="197"/>
       <c r="BT342" s="187"/>
     </row>
-    <row r="343" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="343" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A343" s="179"/>
       <c r="B343" s="213"/>
       <c r="C343" s="195"/>
@@ -29116,7 +29120,7 @@
       <c r="BS343" s="197"/>
       <c r="BT343" s="187"/>
     </row>
-    <row r="344" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="344" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A344" s="179"/>
       <c r="B344" s="213"/>
       <c r="C344" s="195"/>
@@ -29177,7 +29181,7 @@
       <c r="BS344" s="197"/>
       <c r="BT344" s="187"/>
     </row>
-    <row r="345" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="345" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A345" s="179"/>
       <c r="B345" s="213"/>
       <c r="C345" s="195"/>
@@ -29238,7 +29242,7 @@
       <c r="BS345" s="197"/>
       <c r="BT345" s="187"/>
     </row>
-    <row r="346" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="346" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A346" s="179"/>
       <c r="B346" s="213"/>
       <c r="C346" s="195"/>
@@ -29299,7 +29303,7 @@
       <c r="BS346" s="197"/>
       <c r="BT346" s="187"/>
     </row>
-    <row r="347" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="347" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A347" s="179"/>
       <c r="B347" s="213"/>
       <c r="C347" s="195"/>
@@ -29360,7 +29364,7 @@
       <c r="BS347" s="197"/>
       <c r="BT347" s="187"/>
     </row>
-    <row r="348" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="348" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A348" s="179"/>
       <c r="B348" s="213"/>
       <c r="C348" s="195"/>
@@ -29421,7 +29425,7 @@
       <c r="BS348" s="197"/>
       <c r="BT348" s="187"/>
     </row>
-    <row r="349" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="349" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A349" s="179"/>
       <c r="B349" s="213"/>
       <c r="C349" s="195"/>
@@ -29482,7 +29486,7 @@
       <c r="BS349" s="197"/>
       <c r="BT349" s="187"/>
     </row>
-    <row r="350" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="350" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A350" s="179"/>
       <c r="B350" s="213"/>
       <c r="C350" s="195"/>
@@ -29543,7 +29547,7 @@
       <c r="BS350" s="197"/>
       <c r="BT350" s="187"/>
     </row>
-    <row r="351" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="351" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A351" s="179"/>
       <c r="B351" s="213"/>
       <c r="C351" s="195"/>
@@ -29604,7 +29608,7 @@
       <c r="BS351" s="197"/>
       <c r="BT351" s="187"/>
     </row>
-    <row r="352" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="352" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A352" s="179"/>
       <c r="B352" s="213"/>
       <c r="C352" s="195"/>
@@ -29665,7 +29669,7 @@
       <c r="BS352" s="197"/>
       <c r="BT352" s="187"/>
     </row>
-    <row r="353" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="353" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A353" s="179"/>
       <c r="B353" s="213"/>
       <c r="C353" s="195"/>
@@ -29726,7 +29730,7 @@
       <c r="BS353" s="197"/>
       <c r="BT353" s="187"/>
     </row>
-    <row r="354" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="354" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A354" s="179"/>
       <c r="B354" s="213"/>
       <c r="C354" s="195"/>
@@ -29787,7 +29791,7 @@
       <c r="BS354" s="197"/>
       <c r="BT354" s="187"/>
     </row>
-    <row r="355" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="355" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A355" s="179"/>
       <c r="B355" s="213"/>
       <c r="C355" s="195"/>
@@ -29848,7 +29852,7 @@
       <c r="BS355" s="197"/>
       <c r="BT355" s="187"/>
     </row>
-    <row r="356" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="356" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A356" s="179"/>
       <c r="B356" s="213"/>
       <c r="C356" s="195"/>
@@ -29909,7 +29913,7 @@
       <c r="BS356" s="197"/>
       <c r="BT356" s="187"/>
     </row>
-    <row r="357" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="357" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A357" s="179"/>
       <c r="B357" s="213"/>
       <c r="C357" s="195"/>
@@ -29970,7 +29974,7 @@
       <c r="BS357" s="197"/>
       <c r="BT357" s="187"/>
     </row>
-    <row r="358" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="358" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A358" s="179"/>
       <c r="B358" s="213"/>
       <c r="C358" s="195"/>
@@ -30031,7 +30035,7 @@
       <c r="BS358" s="197"/>
       <c r="BT358" s="187"/>
     </row>
-    <row r="359" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="359" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A359" s="179"/>
       <c r="B359" s="213"/>
       <c r="C359" s="195"/>
@@ -30092,7 +30096,7 @@
       <c r="BS359" s="197"/>
       <c r="BT359" s="187"/>
     </row>
-    <row r="360" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="360" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A360" s="179"/>
       <c r="B360" s="213"/>
       <c r="C360" s="195"/>
@@ -30153,7 +30157,7 @@
       <c r="BS360" s="197"/>
       <c r="BT360" s="187"/>
     </row>
-    <row r="361" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="361" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A361" s="179"/>
       <c r="B361" s="213"/>
       <c r="C361" s="195"/>
@@ -30214,7 +30218,7 @@
       <c r="BS361" s="197"/>
       <c r="BT361" s="187"/>
     </row>
-    <row r="362" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="362" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A362" s="179"/>
       <c r="B362" s="213"/>
       <c r="C362" s="195"/>
@@ -30275,7 +30279,7 @@
       <c r="BS362" s="197"/>
       <c r="BT362" s="187"/>
     </row>
-    <row r="363" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="363" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A363" s="179"/>
       <c r="B363" s="213"/>
       <c r="C363" s="195"/>
@@ -30336,7 +30340,7 @@
       <c r="BS363" s="197"/>
       <c r="BT363" s="187"/>
     </row>
-    <row r="364" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="364" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A364" s="179"/>
       <c r="B364" s="213"/>
       <c r="C364" s="195"/>
@@ -30397,7 +30401,7 @@
       <c r="BS364" s="197"/>
       <c r="BT364" s="187"/>
     </row>
-    <row r="365" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="365" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A365" s="179"/>
       <c r="B365" s="213"/>
       <c r="C365" s="195"/>
@@ -30458,7 +30462,7 @@
       <c r="BS365" s="197"/>
       <c r="BT365" s="187"/>
     </row>
-    <row r="366" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="366" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A366" s="179"/>
       <c r="B366" s="213"/>
       <c r="C366" s="195"/>
@@ -30519,7 +30523,7 @@
       <c r="BS366" s="197"/>
       <c r="BT366" s="187"/>
     </row>
-    <row r="367" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="367" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A367" s="179"/>
       <c r="B367" s="213"/>
       <c r="C367" s="195"/>
@@ -30580,7 +30584,7 @@
       <c r="BS367" s="197"/>
       <c r="BT367" s="187"/>
     </row>
-    <row r="368" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="368" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A368" s="179"/>
       <c r="B368" s="213"/>
       <c r="C368" s="195"/>
@@ -30641,7 +30645,7 @@
       <c r="BS368" s="197"/>
       <c r="BT368" s="187"/>
     </row>
-    <row r="369" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="369" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A369" s="179"/>
       <c r="B369" s="213"/>
       <c r="C369" s="195"/>
@@ -30702,7 +30706,7 @@
       <c r="BS369" s="197"/>
       <c r="BT369" s="187"/>
     </row>
-    <row r="370" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="370" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A370" s="179"/>
       <c r="B370" s="213"/>
       <c r="C370" s="195"/>
@@ -30763,7 +30767,7 @@
       <c r="BS370" s="197"/>
       <c r="BT370" s="187"/>
     </row>
-    <row r="371" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="371" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A371" s="179"/>
       <c r="B371" s="213"/>
       <c r="C371" s="195"/>
@@ -30824,7 +30828,7 @@
       <c r="BS371" s="197"/>
       <c r="BT371" s="187"/>
     </row>
-    <row r="372" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="372" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A372" s="179"/>
       <c r="B372" s="213"/>
       <c r="C372" s="195"/>
@@ -30885,7 +30889,7 @@
       <c r="BS372" s="197"/>
       <c r="BT372" s="187"/>
     </row>
-    <row r="373" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="373" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A373" s="179"/>
       <c r="B373" s="213"/>
       <c r="C373" s="195"/>
@@ -30946,7 +30950,7 @@
       <c r="BS373" s="197"/>
       <c r="BT373" s="187"/>
     </row>
-    <row r="374" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="374" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A374" s="179"/>
       <c r="B374" s="213"/>
       <c r="C374" s="195"/>
@@ -31007,7 +31011,7 @@
       <c r="BS374" s="197"/>
       <c r="BT374" s="187"/>
     </row>
-    <row r="375" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="375" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A375" s="179"/>
       <c r="B375" s="213"/>
       <c r="C375" s="195"/>
@@ -31068,7 +31072,7 @@
       <c r="BS375" s="197"/>
       <c r="BT375" s="187"/>
     </row>
-    <row r="376" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="376" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A376" s="179"/>
       <c r="B376" s="213"/>
       <c r="C376" s="195"/>
@@ -31129,7 +31133,7 @@
       <c r="BS376" s="197"/>
       <c r="BT376" s="187"/>
     </row>
-    <row r="377" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="377" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A377" s="179"/>
       <c r="B377" s="213"/>
       <c r="C377" s="195"/>
@@ -31190,7 +31194,7 @@
       <c r="BS377" s="197"/>
       <c r="BT377" s="187"/>
     </row>
-    <row r="378" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="378" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A378" s="179"/>
       <c r="B378" s="213"/>
       <c r="C378" s="195"/>
@@ -31251,7 +31255,7 @@
       <c r="BS378" s="197"/>
       <c r="BT378" s="187"/>
     </row>
-    <row r="379" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="379" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A379" s="179"/>
       <c r="B379" s="213"/>
       <c r="C379" s="195"/>
@@ -31312,7 +31316,7 @@
       <c r="BS379" s="197"/>
       <c r="BT379" s="187"/>
     </row>
-    <row r="380" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="380" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A380" s="179"/>
       <c r="B380" s="213"/>
       <c r="C380" s="195"/>
@@ -31373,7 +31377,7 @@
       <c r="BS380" s="197"/>
       <c r="BT380" s="187"/>
     </row>
-    <row r="381" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="381" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A381" s="179"/>
       <c r="B381" s="213"/>
       <c r="C381" s="195"/>
@@ -31434,7 +31438,7 @@
       <c r="BS381" s="197"/>
       <c r="BT381" s="187"/>
     </row>
-    <row r="382" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="382" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A382" s="179"/>
       <c r="B382" s="213"/>
       <c r="C382" s="195"/>
@@ -31495,7 +31499,7 @@
       <c r="BS382" s="197"/>
       <c r="BT382" s="187"/>
     </row>
-    <row r="383" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="383" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A383" s="179"/>
       <c r="B383" s="213"/>
       <c r="C383" s="195"/>
@@ -31556,7 +31560,7 @@
       <c r="BS383" s="197"/>
       <c r="BT383" s="187"/>
     </row>
-    <row r="384" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="384" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A384" s="179"/>
       <c r="B384" s="213"/>
       <c r="C384" s="195"/>
@@ -31617,7 +31621,7 @@
       <c r="BS384" s="197"/>
       <c r="BT384" s="187"/>
     </row>
-    <row r="385" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="385" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A385" s="179"/>
       <c r="B385" s="213"/>
       <c r="C385" s="195"/>
@@ -31678,7 +31682,7 @@
       <c r="BS385" s="197"/>
       <c r="BT385" s="187"/>
     </row>
-    <row r="386" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="386" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A386" s="179"/>
       <c r="B386" s="213"/>
       <c r="C386" s="195"/>
@@ -31739,7 +31743,7 @@
       <c r="BS386" s="197"/>
       <c r="BT386" s="187"/>
     </row>
-    <row r="387" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="387" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A387" s="179"/>
       <c r="B387" s="213"/>
       <c r="C387" s="195"/>
@@ -31800,7 +31804,7 @@
       <c r="BS387" s="197"/>
       <c r="BT387" s="187"/>
     </row>
-    <row r="388" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="388" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A388" s="179"/>
       <c r="B388" s="213"/>
       <c r="C388" s="195"/>
@@ -31861,7 +31865,7 @@
       <c r="BS388" s="197"/>
       <c r="BT388" s="187"/>
     </row>
-    <row r="389" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="389" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A389" s="179"/>
       <c r="B389" s="213"/>
       <c r="C389" s="195"/>
@@ -31922,7 +31926,7 @@
       <c r="BS389" s="197"/>
       <c r="BT389" s="187"/>
     </row>
-    <row r="390" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="390" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A390" s="179"/>
       <c r="B390" s="213"/>
       <c r="C390" s="195"/>
@@ -31983,7 +31987,7 @@
       <c r="BS390" s="197"/>
       <c r="BT390" s="187"/>
     </row>
-    <row r="391" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="391" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A391" s="179"/>
       <c r="B391" s="213"/>
       <c r="C391" s="195"/>
@@ -32044,7 +32048,7 @@
       <c r="BS391" s="197"/>
       <c r="BT391" s="187"/>
     </row>
-    <row r="392" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="392" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A392" s="179"/>
       <c r="B392" s="213"/>
       <c r="C392" s="195"/>
@@ -32105,7 +32109,7 @@
       <c r="BS392" s="197"/>
       <c r="BT392" s="187"/>
     </row>
-    <row r="393" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="393" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A393" s="179"/>
       <c r="B393" s="213"/>
       <c r="C393" s="195"/>
@@ -32166,7 +32170,7 @@
       <c r="BS393" s="197"/>
       <c r="BT393" s="187"/>
     </row>
-    <row r="394" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="394" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A394" s="179"/>
       <c r="B394" s="213"/>
       <c r="C394" s="195"/>
@@ -32227,7 +32231,7 @@
       <c r="BS394" s="197"/>
       <c r="BT394" s="187"/>
     </row>
-    <row r="395" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="395" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A395" s="179"/>
       <c r="B395" s="213"/>
       <c r="C395" s="195"/>
@@ -32288,7 +32292,7 @@
       <c r="BS395" s="197"/>
       <c r="BT395" s="187"/>
     </row>
-    <row r="396" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="396" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A396" s="179"/>
       <c r="B396" s="213"/>
       <c r="C396" s="195"/>
@@ -32349,7 +32353,7 @@
       <c r="BS396" s="197"/>
       <c r="BT396" s="187"/>
     </row>
-    <row r="397" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="397" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A397" s="179"/>
       <c r="B397" s="213"/>
       <c r="C397" s="195"/>
@@ -32410,7 +32414,7 @@
       <c r="BS397" s="197"/>
       <c r="BT397" s="187"/>
     </row>
-    <row r="398" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="398" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A398" s="179"/>
       <c r="B398" s="213"/>
       <c r="C398" s="195"/>
@@ -32471,7 +32475,7 @@
       <c r="BS398" s="197"/>
       <c r="BT398" s="187"/>
     </row>
-    <row r="399" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="399" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A399" s="179"/>
       <c r="B399" s="213"/>
       <c r="C399" s="195"/>
@@ -32532,7 +32536,7 @@
       <c r="BS399" s="197"/>
       <c r="BT399" s="187"/>
     </row>
-    <row r="400" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="400" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A400" s="179"/>
       <c r="B400" s="213"/>
       <c r="C400" s="195"/>
@@ -32593,7 +32597,7 @@
       <c r="BS400" s="197"/>
       <c r="BT400" s="187"/>
     </row>
-    <row r="401" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="401" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A401" s="179"/>
       <c r="B401" s="213"/>
       <c r="C401" s="195"/>
@@ -32654,7 +32658,7 @@
       <c r="BS401" s="197"/>
       <c r="BT401" s="187"/>
     </row>
-    <row r="402" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="402" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A402" s="179"/>
       <c r="B402" s="213"/>
       <c r="C402" s="195"/>
@@ -32715,7 +32719,7 @@
       <c r="BS402" s="197"/>
       <c r="BT402" s="187"/>
     </row>
-    <row r="403" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="403" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A403" s="179"/>
       <c r="B403" s="213"/>
       <c r="C403" s="195"/>
@@ -32776,7 +32780,7 @@
       <c r="BS403" s="197"/>
       <c r="BT403" s="187"/>
     </row>
-    <row r="404" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="404" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A404" s="179"/>
       <c r="B404" s="213"/>
       <c r="C404" s="195"/>
@@ -32837,7 +32841,7 @@
       <c r="BS404" s="197"/>
       <c r="BT404" s="187"/>
     </row>
-    <row r="405" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="405" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A405" s="179"/>
       <c r="B405" s="213"/>
       <c r="C405" s="195"/>
@@ -32898,7 +32902,7 @@
       <c r="BS405" s="197"/>
       <c r="BT405" s="187"/>
     </row>
-    <row r="406" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="406" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A406" s="179"/>
       <c r="B406" s="213"/>
       <c r="C406" s="195"/>
@@ -32959,7 +32963,7 @@
       <c r="BS406" s="197"/>
       <c r="BT406" s="187"/>
     </row>
-    <row r="407" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="407" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A407" s="179"/>
       <c r="B407" s="213"/>
       <c r="C407" s="195"/>
@@ -33020,7 +33024,7 @@
       <c r="BS407" s="197"/>
       <c r="BT407" s="187"/>
     </row>
-    <row r="408" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="408" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A408" s="179"/>
       <c r="B408" s="213"/>
       <c r="C408" s="195"/>
@@ -33081,7 +33085,7 @@
       <c r="BS408" s="197"/>
       <c r="BT408" s="187"/>
     </row>
-    <row r="409" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="409" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A409" s="179"/>
       <c r="B409" s="213"/>
       <c r="C409" s="195"/>
@@ -33142,7 +33146,7 @@
       <c r="BS409" s="197"/>
       <c r="BT409" s="187"/>
     </row>
-    <row r="410" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="410" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A410" s="179"/>
       <c r="B410" s="213"/>
       <c r="C410" s="195"/>
@@ -33203,7 +33207,7 @@
       <c r="BS410" s="197"/>
       <c r="BT410" s="187"/>
     </row>
-    <row r="411" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="411" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A411" s="179"/>
       <c r="B411" s="213"/>
       <c r="C411" s="195"/>
@@ -33264,7 +33268,7 @@
       <c r="BS411" s="197"/>
       <c r="BT411" s="187"/>
     </row>
-    <row r="412" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="412" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A412" s="179"/>
       <c r="B412" s="213"/>
       <c r="C412" s="195"/>
@@ -33325,7 +33329,7 @@
       <c r="BS412" s="197"/>
       <c r="BT412" s="187"/>
     </row>
-    <row r="413" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="413" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A413" s="179"/>
       <c r="B413" s="213"/>
       <c r="C413" s="195"/>
@@ -33386,7 +33390,7 @@
       <c r="BS413" s="197"/>
       <c r="BT413" s="187"/>
     </row>
-    <row r="414" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="414" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A414" s="179"/>
       <c r="B414" s="213"/>
       <c r="C414" s="195"/>
@@ -33447,7 +33451,7 @@
       <c r="BS414" s="197"/>
       <c r="BT414" s="187"/>
     </row>
-    <row r="415" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="415" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A415" s="179"/>
       <c r="B415" s="213"/>
       <c r="C415" s="195"/>
@@ -33508,7 +33512,7 @@
       <c r="BS415" s="197"/>
       <c r="BT415" s="187"/>
     </row>
-    <row r="416" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="416" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A416" s="179"/>
       <c r="B416" s="213"/>
       <c r="C416" s="195"/>
@@ -33569,7 +33573,7 @@
       <c r="BS416" s="197"/>
       <c r="BT416" s="187"/>
     </row>
-    <row r="417" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="417" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A417" s="179"/>
       <c r="B417" s="213"/>
       <c r="C417" s="195"/>
@@ -33630,7 +33634,7 @@
       <c r="BS417" s="197"/>
       <c r="BT417" s="187"/>
     </row>
-    <row r="418" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="418" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A418" s="179"/>
       <c r="B418" s="213"/>
       <c r="C418" s="195"/>
@@ -33691,7 +33695,7 @@
       <c r="BS418" s="197"/>
       <c r="BT418" s="187"/>
     </row>
-    <row r="419" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="419" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A419" s="179"/>
       <c r="B419" s="213"/>
       <c r="C419" s="195"/>
@@ -33752,7 +33756,7 @@
       <c r="BS419" s="197"/>
       <c r="BT419" s="187"/>
     </row>
-    <row r="420" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="420" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A420" s="179"/>
       <c r="B420" s="213"/>
       <c r="C420" s="195"/>
@@ -33813,7 +33817,7 @@
       <c r="BS420" s="197"/>
       <c r="BT420" s="187"/>
     </row>
-    <row r="421" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="421" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A421" s="179"/>
       <c r="B421" s="213"/>
       <c r="C421" s="195"/>
@@ -33874,7 +33878,7 @@
       <c r="BS421" s="197"/>
       <c r="BT421" s="187"/>
     </row>
-    <row r="422" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="422" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A422" s="179"/>
       <c r="B422" s="213"/>
       <c r="C422" s="195"/>
@@ -33935,7 +33939,7 @@
       <c r="BS422" s="197"/>
       <c r="BT422" s="187"/>
     </row>
-    <row r="423" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="423" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A423" s="179"/>
       <c r="B423" s="213"/>
       <c r="C423" s="195"/>
@@ -33996,7 +34000,7 @@
       <c r="BS423" s="197"/>
       <c r="BT423" s="187"/>
     </row>
-    <row r="424" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="424" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A424" s="179"/>
       <c r="B424" s="213"/>
       <c r="C424" s="195"/>
@@ -34057,7 +34061,7 @@
       <c r="BS424" s="197"/>
       <c r="BT424" s="187"/>
     </row>
-    <row r="425" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="425" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A425" s="179"/>
       <c r="B425" s="213"/>
       <c r="C425" s="195"/>
@@ -34118,7 +34122,7 @@
       <c r="BS425" s="197"/>
       <c r="BT425" s="187"/>
     </row>
-    <row r="426" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="426" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A426" s="179"/>
       <c r="B426" s="213"/>
       <c r="C426" s="195"/>
@@ -34179,7 +34183,7 @@
       <c r="BS426" s="197"/>
       <c r="BT426" s="187"/>
     </row>
-    <row r="427" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="427" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A427" s="179"/>
       <c r="B427" s="213"/>
       <c r="C427" s="195"/>
@@ -34240,7 +34244,7 @@
       <c r="BS427" s="197"/>
       <c r="BT427" s="187"/>
     </row>
-    <row r="428" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="428" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A428" s="179"/>
       <c r="B428" s="213"/>
       <c r="C428" s="195"/>
@@ -34301,7 +34305,7 @@
       <c r="BS428" s="197"/>
       <c r="BT428" s="187"/>
     </row>
-    <row r="429" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="429" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A429" s="179"/>
       <c r="B429" s="213"/>
       <c r="C429" s="195"/>
@@ -34362,7 +34366,7 @@
       <c r="BS429" s="197"/>
       <c r="BT429" s="187"/>
     </row>
-    <row r="430" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="430" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A430" s="179"/>
       <c r="B430" s="213"/>
       <c r="C430" s="195"/>
@@ -34423,7 +34427,7 @@
       <c r="BS430" s="197"/>
       <c r="BT430" s="187"/>
     </row>
-    <row r="431" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="431" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A431" s="179"/>
       <c r="B431" s="213"/>
       <c r="C431" s="195"/>
@@ -34484,7 +34488,7 @@
       <c r="BS431" s="197"/>
       <c r="BT431" s="187"/>
     </row>
-    <row r="432" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="432" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A432" s="179"/>
       <c r="B432" s="213"/>
       <c r="C432" s="195"/>
@@ -34545,7 +34549,7 @@
       <c r="BS432" s="197"/>
       <c r="BT432" s="187"/>
     </row>
-    <row r="433" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="433" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A433" s="179"/>
       <c r="B433" s="213"/>
       <c r="C433" s="195"/>
@@ -34606,7 +34610,7 @@
       <c r="BS433" s="197"/>
       <c r="BT433" s="187"/>
     </row>
-    <row r="434" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="434" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A434" s="179"/>
       <c r="B434" s="213"/>
       <c r="C434" s="195"/>
@@ -34667,7 +34671,7 @@
       <c r="BS434" s="197"/>
       <c r="BT434" s="187"/>
     </row>
-    <row r="435" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="435" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A435" s="179"/>
       <c r="B435" s="213"/>
       <c r="C435" s="195"/>
@@ -34728,7 +34732,7 @@
       <c r="BS435" s="197"/>
       <c r="BT435" s="187"/>
     </row>
-    <row r="436" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="436" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A436" s="179"/>
       <c r="B436" s="213"/>
       <c r="C436" s="195"/>
@@ -34789,7 +34793,7 @@
       <c r="BS436" s="197"/>
       <c r="BT436" s="187"/>
     </row>
-    <row r="437" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="437" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A437" s="179"/>
       <c r="B437" s="213"/>
       <c r="C437" s="195"/>
@@ -34850,7 +34854,7 @@
       <c r="BS437" s="197"/>
       <c r="BT437" s="187"/>
     </row>
-    <row r="438" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="438" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A438" s="179"/>
       <c r="B438" s="213"/>
       <c r="C438" s="195"/>
@@ -34911,7 +34915,7 @@
       <c r="BS438" s="197"/>
       <c r="BT438" s="187"/>
     </row>
-    <row r="439" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="439" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A439" s="179"/>
       <c r="B439" s="213"/>
       <c r="C439" s="195"/>
@@ -34972,7 +34976,7 @@
       <c r="BS439" s="197"/>
       <c r="BT439" s="187"/>
     </row>
-    <row r="440" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="440" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A440" s="179"/>
       <c r="B440" s="213"/>
       <c r="C440" s="195"/>
@@ -35033,7 +35037,7 @@
       <c r="BS440" s="197"/>
       <c r="BT440" s="187"/>
     </row>
-    <row r="441" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="441" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A441" s="179"/>
       <c r="B441" s="213"/>
       <c r="C441" s="195"/>
@@ -35094,7 +35098,7 @@
       <c r="BS441" s="197"/>
       <c r="BT441" s="187"/>
     </row>
-    <row r="442" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="442" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A442" s="179"/>
       <c r="B442" s="213"/>
       <c r="C442" s="195"/>
@@ -35155,7 +35159,7 @@
       <c r="BS442" s="197"/>
       <c r="BT442" s="187"/>
     </row>
-    <row r="443" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="443" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A443" s="179"/>
       <c r="B443" s="213"/>
       <c r="C443" s="195"/>
@@ -35216,7 +35220,7 @@
       <c r="BS443" s="197"/>
       <c r="BT443" s="187"/>
     </row>
-    <row r="444" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="444" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A444" s="179"/>
       <c r="B444" s="213"/>
       <c r="C444" s="195"/>
@@ -35277,7 +35281,7 @@
       <c r="BS444" s="197"/>
       <c r="BT444" s="187"/>
     </row>
-    <row r="445" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="445" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A445" s="179"/>
       <c r="B445" s="213"/>
       <c r="C445" s="195"/>
@@ -35338,7 +35342,7 @@
       <c r="BS445" s="197"/>
       <c r="BT445" s="187"/>
     </row>
-    <row r="446" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="446" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A446" s="179"/>
       <c r="B446" s="213"/>
       <c r="C446" s="195"/>
@@ -35399,7 +35403,7 @@
       <c r="BS446" s="197"/>
       <c r="BT446" s="187"/>
     </row>
-    <row r="447" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="447" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A447" s="179"/>
       <c r="B447" s="213"/>
       <c r="C447" s="195"/>
@@ -35460,7 +35464,7 @@
       <c r="BS447" s="197"/>
       <c r="BT447" s="187"/>
     </row>
-    <row r="448" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="448" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A448" s="179"/>
       <c r="B448" s="213"/>
       <c r="C448" s="195"/>
@@ -35521,7 +35525,7 @@
       <c r="BS448" s="197"/>
       <c r="BT448" s="187"/>
     </row>
-    <row r="449" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="449" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A449" s="179"/>
       <c r="B449" s="213"/>
       <c r="C449" s="195"/>
@@ -35582,7 +35586,7 @@
       <c r="BS449" s="197"/>
       <c r="BT449" s="187"/>
     </row>
-    <row r="450" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="450" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A450" s="179"/>
       <c r="B450" s="213"/>
       <c r="C450" s="195"/>
@@ -35643,7 +35647,7 @@
       <c r="BS450" s="197"/>
       <c r="BT450" s="187"/>
     </row>
-    <row r="451" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="451" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A451" s="179"/>
       <c r="B451" s="213"/>
       <c r="C451" s="195"/>
@@ -35704,7 +35708,7 @@
       <c r="BS451" s="197"/>
       <c r="BT451" s="187"/>
     </row>
-    <row r="452" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="452" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A452" s="179"/>
       <c r="B452" s="213"/>
       <c r="C452" s="195"/>
@@ -35765,7 +35769,7 @@
       <c r="BS452" s="197"/>
       <c r="BT452" s="187"/>
     </row>
-    <row r="453" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="453" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A453" s="179"/>
       <c r="B453" s="213"/>
       <c r="C453" s="195"/>
@@ -35826,7 +35830,7 @@
       <c r="BS453" s="197"/>
       <c r="BT453" s="187"/>
     </row>
-    <row r="454" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="454" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A454" s="179"/>
       <c r="B454" s="213"/>
       <c r="C454" s="195"/>
@@ -35887,7 +35891,7 @@
       <c r="BS454" s="197"/>
       <c r="BT454" s="187"/>
     </row>
-    <row r="455" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="455" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A455" s="179"/>
       <c r="B455" s="213"/>
       <c r="C455" s="195"/>
@@ -35948,7 +35952,7 @@
       <c r="BS455" s="197"/>
       <c r="BT455" s="187"/>
     </row>
-    <row r="456" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="456" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A456" s="179"/>
       <c r="B456" s="213"/>
       <c r="C456" s="195"/>
@@ -36009,7 +36013,7 @@
       <c r="BS456" s="197"/>
       <c r="BT456" s="187"/>
     </row>
-    <row r="457" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="457" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A457" s="179"/>
       <c r="B457" s="213"/>
       <c r="C457" s="195"/>
@@ -36070,7 +36074,7 @@
       <c r="BS457" s="197"/>
       <c r="BT457" s="187"/>
     </row>
-    <row r="458" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="458" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A458" s="179"/>
       <c r="B458" s="213"/>
       <c r="C458" s="195"/>
@@ -36131,7 +36135,7 @@
       <c r="BS458" s="197"/>
       <c r="BT458" s="187"/>
     </row>
-    <row r="459" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="459" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A459" s="179"/>
       <c r="B459" s="213"/>
       <c r="C459" s="195"/>
@@ -36192,7 +36196,7 @@
       <c r="BS459" s="197"/>
       <c r="BT459" s="187"/>
     </row>
-    <row r="460" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="460" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A460" s="179"/>
       <c r="B460" s="213"/>
       <c r="C460" s="195"/>
@@ -36253,7 +36257,7 @@
       <c r="BS460" s="197"/>
       <c r="BT460" s="187"/>
     </row>
-    <row r="461" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="461" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A461" s="179"/>
       <c r="B461" s="213"/>
       <c r="C461" s="195"/>
@@ -36314,7 +36318,7 @@
       <c r="BS461" s="197"/>
       <c r="BT461" s="187"/>
     </row>
-    <row r="462" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="462" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A462" s="179"/>
       <c r="B462" s="213"/>
       <c r="C462" s="195"/>
@@ -36375,7 +36379,7 @@
       <c r="BS462" s="197"/>
       <c r="BT462" s="187"/>
     </row>
-    <row r="463" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="463" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A463" s="179"/>
       <c r="B463" s="213"/>
       <c r="C463" s="195"/>
@@ -36436,7 +36440,7 @@
       <c r="BS463" s="197"/>
       <c r="BT463" s="187"/>
     </row>
-    <row r="464" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="464" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A464" s="179"/>
       <c r="B464" s="213"/>
       <c r="C464" s="195"/>
@@ -36497,7 +36501,7 @@
       <c r="BS464" s="197"/>
       <c r="BT464" s="187"/>
     </row>
-    <row r="465" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="465" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A465" s="179"/>
       <c r="B465" s="213"/>
       <c r="C465" s="195"/>
@@ -36558,7 +36562,7 @@
       <c r="BS465" s="197"/>
       <c r="BT465" s="187"/>
     </row>
-    <row r="466" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="466" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A466" s="179"/>
       <c r="B466" s="213"/>
       <c r="C466" s="195"/>
@@ -36619,7 +36623,7 @@
       <c r="BS466" s="197"/>
       <c r="BT466" s="187"/>
     </row>
-    <row r="467" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="467" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A467" s="179"/>
       <c r="B467" s="213"/>
       <c r="C467" s="195"/>
@@ -36680,7 +36684,7 @@
       <c r="BS467" s="197"/>
       <c r="BT467" s="187"/>
     </row>
-    <row r="468" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="468" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A468" s="179"/>
       <c r="B468" s="213"/>
       <c r="C468" s="195"/>
@@ -36741,7 +36745,7 @@
       <c r="BS468" s="197"/>
       <c r="BT468" s="187"/>
     </row>
-    <row r="469" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="469" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A469" s="179"/>
       <c r="B469" s="213"/>
       <c r="C469" s="195"/>
@@ -36802,7 +36806,7 @@
       <c r="BS469" s="197"/>
       <c r="BT469" s="187"/>
     </row>
-    <row r="470" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="470" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A470" s="179"/>
       <c r="B470" s="213"/>
       <c r="C470" s="195"/>
@@ -36863,7 +36867,7 @@
       <c r="BS470" s="197"/>
       <c r="BT470" s="187"/>
     </row>
-    <row r="471" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="471" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A471" s="179"/>
       <c r="B471" s="213"/>
       <c r="C471" s="195"/>
@@ -36924,7 +36928,7 @@
       <c r="BS471" s="197"/>
       <c r="BT471" s="187"/>
     </row>
-    <row r="472" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="472" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A472" s="179"/>
       <c r="B472" s="213"/>
       <c r="C472" s="195"/>
@@ -36985,7 +36989,7 @@
       <c r="BS472" s="197"/>
       <c r="BT472" s="187"/>
     </row>
-    <row r="473" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="473" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A473" s="179"/>
       <c r="B473" s="213"/>
       <c r="C473" s="195"/>
@@ -37046,7 +37050,7 @@
       <c r="BS473" s="197"/>
       <c r="BT473" s="187"/>
     </row>
-    <row r="474" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="474" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A474" s="179"/>
       <c r="B474" s="213"/>
       <c r="C474" s="195"/>
@@ -37107,7 +37111,7 @@
       <c r="BS474" s="197"/>
       <c r="BT474" s="187"/>
     </row>
-    <row r="475" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="475" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A475" s="179"/>
       <c r="B475" s="213"/>
       <c r="C475" s="195"/>
@@ -37168,7 +37172,7 @@
       <c r="BS475" s="197"/>
       <c r="BT475" s="187"/>
     </row>
-    <row r="476" spans="1:72" s="191" customFormat="1" ht="13.25" customHeight="1">
+    <row r="476" spans="1:72" s="191" customFormat="1" ht="13.35" customHeight="1">
       <c r="A476" s="179"/>
       <c r="B476" s="213"/>
       <c r="C476" s="195"/>
@@ -60700,6 +60704,38 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="48">
+    <mergeCell ref="BO11:BO14"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="BO7:BO9"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="S1:T3"/>
+    <mergeCell ref="BQ18:BQ20"/>
+    <mergeCell ref="BQ11:BQ14"/>
+    <mergeCell ref="BQ7:BQ9"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="BO18:BO20"/>
+    <mergeCell ref="BA5:BK5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="H5:H6"/>
@@ -60716,38 +60752,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S1:T3"/>
-    <mergeCell ref="BQ18:BQ20"/>
-    <mergeCell ref="BQ11:BQ14"/>
-    <mergeCell ref="BQ7:BQ9"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="BO18:BO20"/>
-    <mergeCell ref="BA5:BK5"/>
-    <mergeCell ref="BO11:BO14"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="BO7:BO9"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AF5:AF6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="BT5 AR5 AZ5 BL5 U5 I5:K5 Q5 H5:H948 M5">
@@ -60845,185 +60849,185 @@
       <selection pane="bottomRight" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="33.453125" style="64" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" style="58" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" style="102" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="61" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="58" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="102" customWidth="1"/>
     <col min="10" max="10" width="13" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" style="101" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="101" customWidth="1"/>
     <col min="12" max="12" width="13" style="101" customWidth="1"/>
-    <col min="13" max="13" width="1.453125" style="47" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" style="46" customWidth="1"/>
-    <col min="15" max="15" width="13.08984375" style="43" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" style="43" customWidth="1"/>
-    <col min="17" max="17" width="1.453125" style="47" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" style="40" customWidth="1"/>
-    <col min="19" max="19" width="20.6328125" style="40" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="46" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="43" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="1.42578125" style="47" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" style="40" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" style="40" customWidth="1"/>
     <col min="20" max="20" width="14" style="40" customWidth="1"/>
-    <col min="21" max="21" width="8.08984375" style="40" customWidth="1"/>
-    <col min="22" max="22" width="9.90625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="9.36328125" style="49" customWidth="1"/>
-    <col min="24" max="24" width="10.453125" style="49" customWidth="1"/>
-    <col min="25" max="25" width="9.6328125" style="49" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="40" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="49" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" style="49" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" style="49" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="49" customWidth="1"/>
     <col min="26" max="27" width="6" style="49" customWidth="1"/>
-    <col min="28" max="29" width="10.36328125" style="40" customWidth="1"/>
-    <col min="30" max="30" width="9.36328125" style="40" customWidth="1"/>
-    <col min="31" max="31" width="10.453125" style="40" customWidth="1"/>
+    <col min="28" max="29" width="10.42578125" style="40" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" style="40" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" style="40" customWidth="1"/>
     <col min="32" max="32" width="10" style="40" customWidth="1"/>
-    <col min="33" max="33" width="10.90625" style="40" customWidth="1"/>
-    <col min="34" max="34" width="11.453125" style="40" customWidth="1"/>
-    <col min="35" max="35" width="10.6328125" style="40" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" style="40" customWidth="1"/>
-    <col min="37" max="37" width="9.453125" style="40" customWidth="1"/>
-    <col min="38" max="38" width="7.6328125" style="40" customWidth="1"/>
-    <col min="39" max="39" width="1.453125" style="47" customWidth="1"/>
-    <col min="40" max="40" width="15.6328125" style="40" customWidth="1"/>
-    <col min="41" max="42" width="11.6328125" style="40" customWidth="1"/>
-    <col min="43" max="44" width="13.08984375" style="40" customWidth="1"/>
-    <col min="45" max="46" width="13.453125" style="40" customWidth="1"/>
-    <col min="47" max="47" width="1.453125" style="47" customWidth="1"/>
-    <col min="48" max="60" width="12.36328125" style="40" hidden="1" customWidth="1"/>
-    <col min="61" max="62" width="12.36328125" style="40" customWidth="1"/>
-    <col min="63" max="63" width="18.90625" style="40" customWidth="1"/>
-    <col min="64" max="67" width="12.36328125" style="40" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="40" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="40" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" style="40" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" style="40" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" style="40" customWidth="1"/>
+    <col min="38" max="38" width="7.5703125" style="40" customWidth="1"/>
+    <col min="39" max="39" width="1.42578125" style="47" customWidth="1"/>
+    <col min="40" max="40" width="15.5703125" style="40" customWidth="1"/>
+    <col min="41" max="42" width="11.5703125" style="40" customWidth="1"/>
+    <col min="43" max="44" width="13.140625" style="40" customWidth="1"/>
+    <col min="45" max="46" width="13.42578125" style="40" customWidth="1"/>
+    <col min="47" max="47" width="1.42578125" style="47" customWidth="1"/>
+    <col min="48" max="60" width="12.42578125" style="40" hidden="1" customWidth="1"/>
+    <col min="61" max="62" width="12.42578125" style="40" customWidth="1"/>
+    <col min="63" max="63" width="18.85546875" style="40" customWidth="1"/>
+    <col min="64" max="67" width="12.42578125" style="40" customWidth="1"/>
     <col min="68" max="68" width="15" style="40" customWidth="1"/>
-    <col min="69" max="69" width="12.36328125" style="40" customWidth="1"/>
-    <col min="70" max="70" width="1.453125" style="47" customWidth="1"/>
-    <col min="71" max="71" width="44.36328125" style="43" customWidth="1"/>
-    <col min="72" max="72" width="19.08984375" style="51" customWidth="1"/>
+    <col min="69" max="69" width="12.42578125" style="40" customWidth="1"/>
+    <col min="70" max="70" width="1.42578125" style="47" customWidth="1"/>
+    <col min="71" max="71" width="44.42578125" style="43" customWidth="1"/>
+    <col min="72" max="72" width="19.140625" style="51" customWidth="1"/>
     <col min="73" max="73" width="37" style="66" customWidth="1"/>
-    <col min="74" max="74" width="28.36328125" style="62" customWidth="1"/>
-    <col min="75" max="75" width="37.453125" style="56" customWidth="1"/>
-    <col min="76" max="76" width="32.90625" style="41" customWidth="1"/>
-    <col min="77" max="77" width="22.36328125" style="41" customWidth="1"/>
-    <col min="78" max="78" width="1.453125" style="47" customWidth="1"/>
-    <col min="79" max="16384" width="11.453125" style="43"/>
+    <col min="74" max="74" width="28.42578125" style="62" customWidth="1"/>
+    <col min="75" max="75" width="37.42578125" style="56" customWidth="1"/>
+    <col min="76" max="76" width="32.85546875" style="41" customWidth="1"/>
+    <col min="77" max="77" width="22.42578125" style="41" customWidth="1"/>
+    <col min="78" max="78" width="1.42578125" style="47" customWidth="1"/>
+    <col min="79" max="16384" width="11.42578125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="37" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="250" t="s">
+      <c r="B1" s="223" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="250" t="s">
+      <c r="C1" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="250" t="s">
+      <c r="D1" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="260" t="s">
+      <c r="E1" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="255" t="s">
+      <c r="F1" s="230" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="255" t="s">
+      <c r="G1" s="230" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="252" t="s">
+      <c r="H1" s="226" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="254" t="s">
+      <c r="I1" s="228" t="s">
         <v>672</v>
       </c>
-      <c r="J1" s="254" t="s">
+      <c r="J1" s="228" t="s">
         <v>1047</v>
       </c>
-      <c r="K1" s="254" t="s">
+      <c r="K1" s="228" t="s">
         <v>1048</v>
       </c>
-      <c r="L1" s="262" t="s">
+      <c r="L1" s="237" t="s">
         <v>1049</v>
       </c>
       <c r="M1" s="33"/>
-      <c r="N1" s="264" t="s">
+      <c r="N1" s="239" t="s">
         <v>288</v>
       </c>
-      <c r="O1" s="237" t="s">
+      <c r="O1" s="247" t="s">
         <v>287</v>
       </c>
-      <c r="P1" s="237" t="s">
+      <c r="P1" s="247" t="s">
         <v>170</v>
       </c>
       <c r="Q1" s="33"/>
-      <c r="R1" s="235" t="s">
+      <c r="R1" s="224" t="s">
         <v>312</v>
       </c>
-      <c r="S1" s="235" t="s">
+      <c r="S1" s="224" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="235" t="s">
+      <c r="T1" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="235" t="s">
+      <c r="U1" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="239" t="s">
+      <c r="V1" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="239"/>
-      <c r="X1" s="239"/>
-      <c r="Y1" s="240"/>
-      <c r="Z1" s="239" t="s">
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="250"/>
+      <c r="Z1" s="249" t="s">
         <v>284</v>
       </c>
-      <c r="AA1" s="240"/>
-      <c r="AB1" s="235" t="s">
+      <c r="AA1" s="250"/>
+      <c r="AB1" s="224" t="s">
         <v>192</v>
       </c>
-      <c r="AC1" s="235" t="s">
+      <c r="AC1" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="235" t="s">
+      <c r="AD1" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="AE1" s="235" t="s">
+      <c r="AE1" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="235" t="s">
+      <c r="AF1" s="224" t="s">
         <v>171</v>
       </c>
-      <c r="AG1" s="241" t="s">
+      <c r="AG1" s="265" t="s">
         <v>285</v>
       </c>
-      <c r="AH1" s="241"/>
-      <c r="AI1" s="241"/>
-      <c r="AJ1" s="241"/>
-      <c r="AK1" s="235" t="s">
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="265"/>
+      <c r="AJ1" s="265"/>
+      <c r="AK1" s="224" t="s">
         <v>153</v>
       </c>
-      <c r="AL1" s="235" t="s">
+      <c r="AL1" s="224" t="s">
         <v>313</v>
       </c>
       <c r="AM1" s="33"/>
-      <c r="AN1" s="226" t="s">
+      <c r="AN1" s="251" t="s">
         <v>121</v>
       </c>
-      <c r="AO1" s="226" t="s">
+      <c r="AO1" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="226" t="s">
+      <c r="AP1" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="226" t="s">
+      <c r="AQ1" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="226" t="s">
+      <c r="AR1" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="226" t="s">
+      <c r="AS1" s="251" t="s">
         <v>203</v>
       </c>
-      <c r="AT1" s="226" t="s">
+      <c r="AT1" s="251" t="s">
         <v>49</v>
       </c>
       <c r="AU1" s="33"/>
@@ -61044,19 +61048,19 @@
       <c r="BF1" s="267"/>
       <c r="BG1" s="267"/>
       <c r="BH1" s="267"/>
-      <c r="BI1" s="248" t="s">
+      <c r="BI1" s="257" t="s">
         <v>123</v>
       </c>
-      <c r="BJ1" s="249"/>
-      <c r="BK1" s="249"/>
-      <c r="BL1" s="249"/>
-      <c r="BM1" s="249"/>
-      <c r="BN1" s="249"/>
-      <c r="BO1" s="249"/>
-      <c r="BP1" s="249"/>
-      <c r="BQ1" s="249"/>
+      <c r="BJ1" s="229"/>
+      <c r="BK1" s="229"/>
+      <c r="BL1" s="229"/>
+      <c r="BM1" s="229"/>
+      <c r="BN1" s="229"/>
+      <c r="BO1" s="229"/>
+      <c r="BP1" s="229"/>
+      <c r="BQ1" s="229"/>
       <c r="BR1" s="33"/>
-      <c r="BS1" s="246" t="s">
+      <c r="BS1" s="245" t="s">
         <v>154</v>
       </c>
       <c r="BT1" s="34" t="s">
@@ -61081,27 +61085,27 @@
       <c r="CA1" s="36"/>
     </row>
     <row r="2" spans="1:79" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A2" s="250"/>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="263"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="238"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="265"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
       <c r="Q2" s="21"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="251"/>
-      <c r="U2" s="236"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="253"/>
       <c r="V2" s="10" t="s">
         <v>150</v>
       </c>
@@ -61120,11 +61124,11 @@
       <c r="AA2" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="AB2" s="236"/>
-      <c r="AC2" s="236"/>
-      <c r="AD2" s="235"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="236"/>
+      <c r="AB2" s="253"/>
+      <c r="AC2" s="253"/>
+      <c r="AD2" s="224"/>
+      <c r="AE2" s="253"/>
+      <c r="AF2" s="253"/>
       <c r="AG2" s="14" t="s">
         <v>44</v>
       </c>
@@ -61137,16 +61141,16 @@
       <c r="AJ2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="236"/>
-      <c r="AL2" s="236"/>
+      <c r="AK2" s="253"/>
+      <c r="AL2" s="253"/>
       <c r="AM2" s="21"/>
-      <c r="AN2" s="227"/>
-      <c r="AO2" s="226"/>
-      <c r="AP2" s="226"/>
-      <c r="AQ2" s="227"/>
-      <c r="AR2" s="227"/>
-      <c r="AS2" s="227"/>
-      <c r="AT2" s="227"/>
+      <c r="AN2" s="252"/>
+      <c r="AO2" s="251"/>
+      <c r="AP2" s="251"/>
+      <c r="AQ2" s="252"/>
+      <c r="AR2" s="252"/>
+      <c r="AS2" s="252"/>
+      <c r="AT2" s="252"/>
       <c r="AU2" s="21"/>
       <c r="AV2" s="11" t="s">
         <v>155</v>
@@ -61215,7 +61219,7 @@
         <v>38</v>
       </c>
       <c r="BR2" s="21"/>
-      <c r="BS2" s="247"/>
+      <c r="BS2" s="246"/>
       <c r="BT2" s="39" t="s">
         <v>302</v>
       </c>
@@ -62481,28 +62485,14 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="40">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="BI1:BQ1"/>
+    <mergeCell ref="BS1:BS2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="AV1:BD1"/>
     <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="AC1:AC2"/>
@@ -62513,14 +62503,28 @@
     <mergeCell ref="AN1:AN2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="BI1:BQ1"/>
-    <mergeCell ref="BS1:BS2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="AV1:BD1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="BZ1 AM1 AU1 BR1 Q1 H1:H16 M1 I1:K1">
@@ -62587,10 +62591,10 @@
       <selection pane="bottomLeft" activeCell="D531" sqref="D531"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.90625" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.90625" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
@@ -62601,7 +62605,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="96" customFormat="1" ht="15.5">
+    <row r="2" spans="1:2" s="96" customFormat="1" ht="15.75">
       <c r="A2" s="94"/>
       <c r="B2" s="95"/>
     </row>
@@ -67449,1087 +67453,1087 @@
       <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:15" ht="70.5" customHeight="1">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="306" t="s">
         <v>721</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
       <c r="N1" s="78"/>
       <c r="O1" s="78"/>
     </row>
-    <row r="2" spans="1:15" ht="17.5">
-      <c r="A2" s="307" t="s">
+    <row r="2" spans="1:15" ht="18">
+      <c r="A2" s="308" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-    </row>
-    <row r="3" spans="1:15" s="284" customFormat="1"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+    </row>
+    <row r="3" spans="1:15" s="274" customFormat="1"/>
     <row r="4" spans="1:15" s="79" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A4" s="308" t="s">
+      <c r="A4" s="309" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="308"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-    </row>
-    <row r="5" spans="1:15" s="284" customFormat="1"/>
-    <row r="6" spans="1:15" ht="17.5">
-      <c r="A6" s="272" t="s">
+      <c r="B4" s="309"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="309"/>
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="309"/>
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
+    </row>
+    <row r="5" spans="1:15" s="274" customFormat="1"/>
+    <row r="6" spans="1:15" ht="18">
+      <c r="A6" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="273"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="274"/>
-    </row>
-    <row r="7" spans="1:15" s="91" customFormat="1" ht="15">
-      <c r="A7" s="288" t="s">
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="279"/>
+    </row>
+    <row r="7" spans="1:15" s="91" customFormat="1" ht="15.75">
+      <c r="A7" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="289"/>
-      <c r="C7" s="289"/>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="290"/>
-    </row>
-    <row r="8" spans="1:15" s="271" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:15" ht="17.5">
-      <c r="A9" s="272" t="s">
+      <c r="B7" s="294"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="295"/>
+    </row>
+    <row r="8" spans="1:15" s="284" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:15" ht="18">
+      <c r="A9" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="273"/>
-      <c r="C9" s="273"/>
-      <c r="D9" s="273"/>
-      <c r="E9" s="273"/>
-      <c r="F9" s="274"/>
-    </row>
-    <row r="10" spans="1:15" s="86" customFormat="1" ht="15.5">
-      <c r="A10" s="288" t="s">
+      <c r="B9" s="278"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="278"/>
+      <c r="F9" s="279"/>
+    </row>
+    <row r="10" spans="1:15" s="86" customFormat="1" ht="15.75">
+      <c r="A10" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="290"/>
-    </row>
-    <row r="11" spans="1:15" s="271" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:15" ht="17.5">
-      <c r="A12" s="292" t="s">
+      <c r="B10" s="294"/>
+      <c r="C10" s="294"/>
+      <c r="D10" s="294"/>
+      <c r="E10" s="294"/>
+      <c r="F10" s="295"/>
+    </row>
+    <row r="11" spans="1:15" s="284" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:15" ht="18.75">
+      <c r="A12" s="311" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="293"/>
-      <c r="C12" s="293"/>
-      <c r="D12" s="293"/>
-      <c r="E12" s="293"/>
-      <c r="F12" s="293"/>
-      <c r="G12" s="293"/>
-      <c r="H12" s="293"/>
-      <c r="I12" s="293"/>
-      <c r="J12" s="293"/>
-      <c r="K12" s="293"/>
-      <c r="L12" s="293"/>
-      <c r="M12" s="294"/>
+      <c r="B12" s="312"/>
+      <c r="C12" s="312"/>
+      <c r="D12" s="312"/>
+      <c r="E12" s="312"/>
+      <c r="F12" s="312"/>
+      <c r="G12" s="312"/>
+      <c r="H12" s="312"/>
+      <c r="I12" s="312"/>
+      <c r="J12" s="312"/>
+      <c r="K12" s="312"/>
+      <c r="L12" s="312"/>
+      <c r="M12" s="313"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A13" s="295" t="s">
+      <c r="A13" s="314" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="296"/>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="296"/>
-      <c r="J13" s="296"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="296"/>
-      <c r="M13" s="297"/>
+      <c r="B13" s="315"/>
+      <c r="C13" s="315"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="315"/>
+      <c r="F13" s="315"/>
+      <c r="G13" s="315"/>
+      <c r="H13" s="315"/>
+      <c r="I13" s="315"/>
+      <c r="J13" s="315"/>
+      <c r="K13" s="315"/>
+      <c r="L13" s="315"/>
+      <c r="M13" s="316"/>
     </row>
     <row r="14" spans="1:15" s="92" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="295" t="s">
+      <c r="A14" s="314" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="296"/>
-      <c r="C14" s="296"/>
-      <c r="D14" s="296"/>
-      <c r="E14" s="296"/>
-      <c r="F14" s="296"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="296"/>
-      <c r="I14" s="296"/>
-      <c r="J14" s="296"/>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
-      <c r="M14" s="297"/>
+      <c r="B14" s="315"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="315"/>
+      <c r="F14" s="315"/>
+      <c r="G14" s="315"/>
+      <c r="H14" s="315"/>
+      <c r="I14" s="315"/>
+      <c r="J14" s="315"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
+      <c r="M14" s="316"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A15" s="298" t="s">
+      <c r="A15" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="299"/>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="299"/>
-      <c r="M15" s="300"/>
-    </row>
-    <row r="16" spans="1:15" s="291" customFormat="1" ht="12.75" customHeight="1"/>
+      <c r="B15" s="318"/>
+      <c r="C15" s="318"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="318"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="318"/>
+      <c r="H15" s="318"/>
+      <c r="I15" s="318"/>
+      <c r="J15" s="318"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
+      <c r="M15" s="319"/>
+    </row>
+    <row r="16" spans="1:15" s="310" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="17" spans="1:12" s="79" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A17" s="281" t="s">
+      <c r="A17" s="320" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="282"/>
-      <c r="C17" s="282"/>
-      <c r="D17" s="282"/>
-      <c r="E17" s="282"/>
-      <c r="F17" s="282"/>
-      <c r="G17" s="282"/>
-      <c r="H17" s="282"/>
-      <c r="I17" s="283"/>
-    </row>
-    <row r="18" spans="1:12" s="284" customFormat="1"/>
-    <row r="19" spans="1:12" ht="17.5">
-      <c r="A19" s="285" t="s">
+      <c r="B17" s="321"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="321"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="321"/>
+      <c r="G17" s="321"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="322"/>
+    </row>
+    <row r="18" spans="1:12" s="274" customFormat="1"/>
+    <row r="19" spans="1:12" ht="18.75">
+      <c r="A19" s="323" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="286"/>
-      <c r="C19" s="286"/>
-      <c r="D19" s="286"/>
-      <c r="E19" s="286"/>
-      <c r="F19" s="286"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="286"/>
-      <c r="I19" s="286"/>
-      <c r="J19" s="287"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.5">
-      <c r="A20" s="275" t="s">
+      <c r="B19" s="324"/>
+      <c r="C19" s="324"/>
+      <c r="D19" s="324"/>
+      <c r="E19" s="324"/>
+      <c r="F19" s="324"/>
+      <c r="G19" s="324"/>
+      <c r="H19" s="324"/>
+      <c r="I19" s="324"/>
+      <c r="J19" s="325"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" s="283" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="271"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
-      <c r="E20" s="271"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="271"/>
-      <c r="H20" s="271"/>
-      <c r="I20" s="271"/>
-      <c r="J20" s="276"/>
+      <c r="B20" s="284"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="284"/>
+      <c r="F20" s="284"/>
+      <c r="G20" s="284"/>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="285"/>
       <c r="K20" s="82"/>
       <c r="L20" s="82"/>
     </row>
-    <row r="21" spans="1:12" ht="15.5">
-      <c r="A21" s="277" t="s">
+    <row r="21" spans="1:12" ht="15.75">
+      <c r="A21" s="286" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="278"/>
-      <c r="C21" s="278"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="278"/>
-      <c r="G21" s="278"/>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="279"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="288"/>
       <c r="K21" s="82"/>
       <c r="L21" s="82"/>
     </row>
-    <row r="22" spans="1:12" s="271" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="23" spans="1:12" ht="17.5">
-      <c r="A23" s="272" t="s">
+    <row r="22" spans="1:12" s="284" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="23" spans="1:12" ht="18">
+      <c r="A23" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="273"/>
-      <c r="C23" s="273"/>
-      <c r="D23" s="273"/>
-      <c r="E23" s="274"/>
-    </row>
-    <row r="24" spans="1:12" ht="15">
-      <c r="A24" s="275" t="s">
+      <c r="B23" s="278"/>
+      <c r="C23" s="278"/>
+      <c r="D23" s="278"/>
+      <c r="E23" s="279"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
+      <c r="A24" s="283" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="271"/>
-      <c r="C24" s="271"/>
-      <c r="D24" s="271"/>
-      <c r="E24" s="276"/>
-    </row>
-    <row r="25" spans="1:12" ht="15">
-      <c r="A25" s="277" t="s">
+      <c r="B24" s="284"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="285"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
+      <c r="A25" s="286" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="278"/>
-      <c r="E25" s="279"/>
-    </row>
-    <row r="26" spans="1:12" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:12" ht="17.5">
-      <c r="A27" s="272" t="s">
+      <c r="B25" s="287"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="287"/>
+      <c r="E25" s="288"/>
+    </row>
+    <row r="26" spans="1:12" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="18">
+      <c r="A27" s="277" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="273"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="273"/>
-      <c r="G27" s="274"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.5">
-      <c r="A28" s="288" t="s">
+      <c r="B27" s="278"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="279"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75">
+      <c r="A28" s="293" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="289"/>
-      <c r="C28" s="289"/>
-      <c r="D28" s="289"/>
-      <c r="E28" s="289"/>
-      <c r="F28" s="289"/>
-      <c r="G28" s="290"/>
+      <c r="B28" s="294"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="294"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="295"/>
       <c r="H28" s="82"/>
     </row>
-    <row r="29" spans="1:12" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:12" ht="17.5">
-      <c r="A30" s="272" t="s">
+    <row r="29" spans="1:12" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="18">
+      <c r="A30" s="277" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="273"/>
-      <c r="C30" s="273"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="273"/>
-      <c r="F30" s="273"/>
-      <c r="G30" s="273"/>
-      <c r="H30" s="274"/>
-    </row>
-    <row r="31" spans="1:12" ht="15">
-      <c r="A31" s="277" t="s">
+      <c r="B30" s="278"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="279"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75">
+      <c r="A31" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="278"/>
-      <c r="C31" s="278"/>
-      <c r="D31" s="278"/>
-      <c r="E31" s="278"/>
-      <c r="F31" s="278"/>
-      <c r="G31" s="278"/>
-      <c r="H31" s="279"/>
-    </row>
-    <row r="32" spans="1:12" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="33" spans="1:11" ht="17.5">
-      <c r="A33" s="272" t="s">
+      <c r="B31" s="287"/>
+      <c r="C31" s="287"/>
+      <c r="D31" s="287"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="287"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="288"/>
+    </row>
+    <row r="32" spans="1:12" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="33" spans="1:11" ht="18">
+      <c r="A33" s="277" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="273"/>
-      <c r="C33" s="273"/>
-      <c r="D33" s="273"/>
-      <c r="E33" s="273"/>
-      <c r="F33" s="273"/>
-      <c r="G33" s="273"/>
-      <c r="H33" s="273"/>
-      <c r="I33" s="273"/>
-      <c r="J33" s="273"/>
-      <c r="K33" s="274"/>
-    </row>
-    <row r="34" spans="1:11" ht="15">
-      <c r="A34" s="301" t="s">
+      <c r="B33" s="278"/>
+      <c r="C33" s="278"/>
+      <c r="D33" s="278"/>
+      <c r="E33" s="278"/>
+      <c r="F33" s="278"/>
+      <c r="G33" s="278"/>
+      <c r="H33" s="278"/>
+      <c r="I33" s="278"/>
+      <c r="J33" s="278"/>
+      <c r="K33" s="279"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75">
+      <c r="A34" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="302"/>
-      <c r="C34" s="302"/>
-      <c r="D34" s="302"/>
-      <c r="E34" s="302"/>
-      <c r="F34" s="302"/>
-      <c r="G34" s="302"/>
-      <c r="H34" s="302"/>
-      <c r="I34" s="302"/>
-      <c r="J34" s="302"/>
-      <c r="K34" s="303"/>
-    </row>
-    <row r="35" spans="1:11" ht="15">
-      <c r="A35" s="277" t="s">
+      <c r="B34" s="290"/>
+      <c r="C34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="290"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="290"/>
+      <c r="K34" s="291"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75">
+      <c r="A35" s="286" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="278"/>
-      <c r="C35" s="278"/>
-      <c r="D35" s="278"/>
-      <c r="E35" s="278"/>
-      <c r="F35" s="278"/>
-      <c r="G35" s="278"/>
-      <c r="H35" s="278"/>
-      <c r="I35" s="278"/>
-      <c r="J35" s="278"/>
-      <c r="K35" s="279"/>
-    </row>
-    <row r="36" spans="1:11" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="37" spans="1:11" ht="17.5">
-      <c r="A37" s="272" t="s">
+      <c r="B35" s="287"/>
+      <c r="C35" s="287"/>
+      <c r="D35" s="287"/>
+      <c r="E35" s="287"/>
+      <c r="F35" s="287"/>
+      <c r="G35" s="287"/>
+      <c r="H35" s="287"/>
+      <c r="I35" s="287"/>
+      <c r="J35" s="287"/>
+      <c r="K35" s="288"/>
+    </row>
+    <row r="36" spans="1:11" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="37" spans="1:11" ht="18">
+      <c r="A37" s="277" t="s">
         <v>206</v>
       </c>
-      <c r="B37" s="273"/>
-      <c r="C37" s="273"/>
-      <c r="D37" s="273"/>
-      <c r="E37" s="273"/>
-      <c r="F37" s="273"/>
-      <c r="G37" s="273"/>
-      <c r="H37" s="273"/>
-      <c r="I37" s="273"/>
-      <c r="J37" s="274"/>
-    </row>
-    <row r="38" spans="1:11" ht="15">
-      <c r="A38" s="288" t="s">
+      <c r="B37" s="278"/>
+      <c r="C37" s="278"/>
+      <c r="D37" s="278"/>
+      <c r="E37" s="278"/>
+      <c r="F37" s="278"/>
+      <c r="G37" s="278"/>
+      <c r="H37" s="278"/>
+      <c r="I37" s="278"/>
+      <c r="J37" s="279"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75">
+      <c r="A38" s="293" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="289"/>
-      <c r="C38" s="289"/>
-      <c r="D38" s="289"/>
-      <c r="E38" s="289"/>
-      <c r="F38" s="289"/>
-      <c r="G38" s="289"/>
-      <c r="H38" s="289"/>
-      <c r="I38" s="289"/>
-      <c r="J38" s="290"/>
-    </row>
-    <row r="39" spans="1:11" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="40" spans="1:11" ht="17.5">
-      <c r="A40" s="272" t="s">
+      <c r="B38" s="294"/>
+      <c r="C38" s="294"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="294"/>
+      <c r="I38" s="294"/>
+      <c r="J38" s="295"/>
+    </row>
+    <row r="39" spans="1:11" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:11" ht="18">
+      <c r="A40" s="277" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="273"/>
-      <c r="C40" s="273"/>
-      <c r="D40" s="273"/>
-      <c r="E40" s="273"/>
-      <c r="F40" s="273"/>
-      <c r="G40" s="273"/>
-      <c r="H40" s="273"/>
-      <c r="I40" s="274"/>
-    </row>
-    <row r="41" spans="1:11" ht="15">
-      <c r="A41" s="275" t="s">
+      <c r="B40" s="278"/>
+      <c r="C40" s="278"/>
+      <c r="D40" s="278"/>
+      <c r="E40" s="278"/>
+      <c r="F40" s="278"/>
+      <c r="G40" s="278"/>
+      <c r="H40" s="278"/>
+      <c r="I40" s="279"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75">
+      <c r="A41" s="283" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="271"/>
-      <c r="C41" s="271"/>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271"/>
-      <c r="F41" s="271"/>
-      <c r="G41" s="271"/>
-      <c r="H41" s="271"/>
-      <c r="I41" s="276"/>
-    </row>
-    <row r="42" spans="1:11" ht="15">
-      <c r="A42" s="277" t="s">
+      <c r="B41" s="284"/>
+      <c r="C41" s="284"/>
+      <c r="D41" s="284"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="284"/>
+      <c r="H41" s="284"/>
+      <c r="I41" s="285"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75">
+      <c r="A42" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="278"/>
-      <c r="C42" s="278"/>
-      <c r="D42" s="278"/>
-      <c r="E42" s="278"/>
-      <c r="F42" s="278"/>
-      <c r="G42" s="278"/>
-      <c r="H42" s="278"/>
-      <c r="I42" s="279"/>
-    </row>
-    <row r="43" spans="1:11" s="284" customFormat="1"/>
-    <row r="44" spans="1:11" ht="17.5">
-      <c r="A44" s="272" t="s">
+      <c r="B42" s="287"/>
+      <c r="C42" s="287"/>
+      <c r="D42" s="287"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="287"/>
+      <c r="G42" s="287"/>
+      <c r="H42" s="287"/>
+      <c r="I42" s="288"/>
+    </row>
+    <row r="43" spans="1:11" s="274" customFormat="1"/>
+    <row r="44" spans="1:11" ht="18">
+      <c r="A44" s="277" t="s">
         <v>178</v>
       </c>
-      <c r="B44" s="273"/>
-      <c r="C44" s="273"/>
-      <c r="D44" s="273"/>
-      <c r="E44" s="273"/>
-      <c r="F44" s="273"/>
-      <c r="G44" s="274"/>
-    </row>
-    <row r="45" spans="1:11" ht="15">
-      <c r="A45" s="288" t="s">
+      <c r="B44" s="278"/>
+      <c r="C44" s="278"/>
+      <c r="D44" s="278"/>
+      <c r="E44" s="278"/>
+      <c r="F44" s="278"/>
+      <c r="G44" s="279"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75">
+      <c r="A45" s="293" t="s">
         <v>179</v>
       </c>
-      <c r="B45" s="289"/>
-      <c r="C45" s="289"/>
-      <c r="D45" s="289"/>
-      <c r="E45" s="289"/>
-      <c r="F45" s="289"/>
-      <c r="G45" s="290"/>
-    </row>
-    <row r="46" spans="1:11" s="271" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="47" spans="1:11" ht="17.5">
-      <c r="A47" s="272" t="s">
+      <c r="B45" s="294"/>
+      <c r="C45" s="294"/>
+      <c r="D45" s="294"/>
+      <c r="E45" s="294"/>
+      <c r="F45" s="294"/>
+      <c r="G45" s="295"/>
+    </row>
+    <row r="46" spans="1:11" s="284" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:11" ht="18">
+      <c r="A47" s="277" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="273"/>
-      <c r="C47" s="273"/>
-      <c r="D47" s="273"/>
-      <c r="E47" s="273"/>
-      <c r="F47" s="273"/>
-      <c r="G47" s="273"/>
-      <c r="H47" s="273"/>
-      <c r="I47" s="274"/>
-    </row>
-    <row r="48" spans="1:11" ht="15">
-      <c r="A48" s="288" t="s">
+      <c r="B47" s="278"/>
+      <c r="C47" s="278"/>
+      <c r="D47" s="278"/>
+      <c r="E47" s="278"/>
+      <c r="F47" s="278"/>
+      <c r="G47" s="278"/>
+      <c r="H47" s="278"/>
+      <c r="I47" s="279"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75">
+      <c r="A48" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="289"/>
-      <c r="C48" s="289"/>
-      <c r="D48" s="289"/>
-      <c r="E48" s="289"/>
-      <c r="F48" s="289"/>
-      <c r="G48" s="289"/>
-      <c r="H48" s="289"/>
-      <c r="I48" s="290"/>
-    </row>
-    <row r="49" spans="1:12" s="284" customFormat="1"/>
-    <row r="50" spans="1:12" ht="17.5">
-      <c r="A50" s="272" t="s">
+      <c r="B48" s="294"/>
+      <c r="C48" s="294"/>
+      <c r="D48" s="294"/>
+      <c r="E48" s="294"/>
+      <c r="F48" s="294"/>
+      <c r="G48" s="294"/>
+      <c r="H48" s="294"/>
+      <c r="I48" s="295"/>
+    </row>
+    <row r="49" spans="1:12" s="274" customFormat="1"/>
+    <row r="50" spans="1:12" ht="18">
+      <c r="A50" s="277" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="273"/>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="273"/>
-      <c r="F50" s="273"/>
-      <c r="G50" s="273"/>
-      <c r="H50" s="273"/>
-      <c r="I50" s="273"/>
-      <c r="J50" s="274"/>
-    </row>
-    <row r="51" spans="1:12" ht="15">
-      <c r="A51" s="288" t="s">
+      <c r="B50" s="278"/>
+      <c r="C50" s="278"/>
+      <c r="D50" s="278"/>
+      <c r="E50" s="278"/>
+      <c r="F50" s="278"/>
+      <c r="G50" s="278"/>
+      <c r="H50" s="278"/>
+      <c r="I50" s="278"/>
+      <c r="J50" s="279"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
+      <c r="A51" s="293" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="289"/>
-      <c r="C51" s="289"/>
-      <c r="D51" s="289"/>
-      <c r="E51" s="289"/>
-      <c r="F51" s="289"/>
-      <c r="G51" s="289"/>
-      <c r="H51" s="289"/>
-      <c r="I51" s="289"/>
-      <c r="J51" s="290"/>
-    </row>
-    <row r="52" spans="1:12" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="53" spans="1:12" ht="17.5">
-      <c r="A53" s="272" t="s">
+      <c r="B51" s="294"/>
+      <c r="C51" s="294"/>
+      <c r="D51" s="294"/>
+      <c r="E51" s="294"/>
+      <c r="F51" s="294"/>
+      <c r="G51" s="294"/>
+      <c r="H51" s="294"/>
+      <c r="I51" s="294"/>
+      <c r="J51" s="295"/>
+    </row>
+    <row r="52" spans="1:12" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="53" spans="1:12" ht="18">
+      <c r="A53" s="277" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="273"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="273"/>
-      <c r="E53" s="273"/>
-      <c r="F53" s="273"/>
-      <c r="G53" s="273"/>
-      <c r="H53" s="273"/>
-      <c r="I53" s="273"/>
-      <c r="J53" s="274"/>
-    </row>
-    <row r="54" spans="1:12" ht="15">
-      <c r="A54" s="288" t="s">
+      <c r="B53" s="278"/>
+      <c r="C53" s="278"/>
+      <c r="D53" s="278"/>
+      <c r="E53" s="278"/>
+      <c r="F53" s="278"/>
+      <c r="G53" s="278"/>
+      <c r="H53" s="278"/>
+      <c r="I53" s="278"/>
+      <c r="J53" s="279"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75">
+      <c r="A54" s="293" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="289"/>
-      <c r="C54" s="289"/>
-      <c r="D54" s="289"/>
-      <c r="E54" s="289"/>
-      <c r="F54" s="289"/>
-      <c r="G54" s="289"/>
-      <c r="H54" s="289"/>
-      <c r="I54" s="289"/>
-      <c r="J54" s="290"/>
-    </row>
-    <row r="55" spans="1:12" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="56" spans="1:12" ht="17.5">
-      <c r="A56" s="272" t="s">
+      <c r="B54" s="294"/>
+      <c r="C54" s="294"/>
+      <c r="D54" s="294"/>
+      <c r="E54" s="294"/>
+      <c r="F54" s="294"/>
+      <c r="G54" s="294"/>
+      <c r="H54" s="294"/>
+      <c r="I54" s="294"/>
+      <c r="J54" s="295"/>
+    </row>
+    <row r="55" spans="1:12" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="56" spans="1:12" ht="18">
+      <c r="A56" s="277" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="273"/>
-      <c r="C56" s="273"/>
-      <c r="D56" s="273"/>
-      <c r="E56" s="273"/>
-      <c r="F56" s="273"/>
-      <c r="G56" s="273"/>
-      <c r="H56" s="273"/>
-      <c r="I56" s="273"/>
-      <c r="J56" s="273"/>
-      <c r="K56" s="273"/>
-      <c r="L56" s="274"/>
-    </row>
-    <row r="57" spans="1:12" ht="15">
-      <c r="A57" s="277" t="s">
+      <c r="B56" s="278"/>
+      <c r="C56" s="278"/>
+      <c r="D56" s="278"/>
+      <c r="E56" s="278"/>
+      <c r="F56" s="278"/>
+      <c r="G56" s="278"/>
+      <c r="H56" s="278"/>
+      <c r="I56" s="278"/>
+      <c r="J56" s="278"/>
+      <c r="K56" s="278"/>
+      <c r="L56" s="279"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75">
+      <c r="A57" s="286" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="278"/>
-      <c r="C57" s="278"/>
-      <c r="D57" s="278"/>
-      <c r="E57" s="278"/>
-      <c r="F57" s="278"/>
-      <c r="G57" s="278"/>
-      <c r="H57" s="278"/>
-      <c r="I57" s="278"/>
-      <c r="J57" s="278"/>
-      <c r="K57" s="278"/>
-      <c r="L57" s="279"/>
-    </row>
-    <row r="58" spans="1:12" s="284" customFormat="1"/>
-    <row r="59" spans="1:12" ht="17.5">
-      <c r="A59" s="272" t="s">
+      <c r="B57" s="287"/>
+      <c r="C57" s="287"/>
+      <c r="D57" s="287"/>
+      <c r="E57" s="287"/>
+      <c r="F57" s="287"/>
+      <c r="G57" s="287"/>
+      <c r="H57" s="287"/>
+      <c r="I57" s="287"/>
+      <c r="J57" s="287"/>
+      <c r="K57" s="287"/>
+      <c r="L57" s="288"/>
+    </row>
+    <row r="58" spans="1:12" s="274" customFormat="1"/>
+    <row r="59" spans="1:12" ht="18">
+      <c r="A59" s="277" t="s">
         <v>1088</v>
       </c>
-      <c r="B59" s="273"/>
-      <c r="C59" s="273"/>
-      <c r="D59" s="274"/>
-    </row>
-    <row r="60" spans="1:12" ht="15">
-      <c r="A60" s="288" t="s">
+      <c r="B59" s="278"/>
+      <c r="C59" s="278"/>
+      <c r="D59" s="279"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75">
+      <c r="A60" s="293" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="289"/>
-      <c r="C60" s="289"/>
-      <c r="D60" s="290"/>
-    </row>
-    <row r="61" spans="1:12" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="62" spans="1:12" ht="17.5">
-      <c r="A62" s="272" t="s">
+      <c r="B60" s="294"/>
+      <c r="C60" s="294"/>
+      <c r="D60" s="295"/>
+    </row>
+    <row r="61" spans="1:12" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="62" spans="1:12" ht="18">
+      <c r="A62" s="277" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="273"/>
-      <c r="C62" s="273"/>
-      <c r="D62" s="273"/>
-      <c r="E62" s="273"/>
-      <c r="F62" s="273"/>
-      <c r="G62" s="273"/>
-      <c r="H62" s="273"/>
-      <c r="I62" s="274"/>
-    </row>
-    <row r="63" spans="1:12" ht="15">
-      <c r="A63" s="288" t="s">
+      <c r="B62" s="278"/>
+      <c r="C62" s="278"/>
+      <c r="D62" s="278"/>
+      <c r="E62" s="278"/>
+      <c r="F62" s="278"/>
+      <c r="G62" s="278"/>
+      <c r="H62" s="278"/>
+      <c r="I62" s="279"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75">
+      <c r="A63" s="293" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="289"/>
-      <c r="C63" s="289"/>
-      <c r="D63" s="289"/>
-      <c r="E63" s="289"/>
-      <c r="F63" s="289"/>
-      <c r="G63" s="289"/>
-      <c r="H63" s="289"/>
-      <c r="I63" s="290"/>
-    </row>
-    <row r="64" spans="1:12" ht="17.5">
-      <c r="A64" s="272" t="s">
+      <c r="B63" s="294"/>
+      <c r="C63" s="294"/>
+      <c r="D63" s="294"/>
+      <c r="E63" s="294"/>
+      <c r="F63" s="294"/>
+      <c r="G63" s="294"/>
+      <c r="H63" s="294"/>
+      <c r="I63" s="295"/>
+    </row>
+    <row r="64" spans="1:12" ht="18">
+      <c r="A64" s="277" t="s">
         <v>840</v>
       </c>
-      <c r="B64" s="273"/>
-      <c r="C64" s="273"/>
-      <c r="D64" s="273"/>
-      <c r="E64" s="274"/>
-    </row>
-    <row r="65" spans="1:5" ht="15">
-      <c r="A65" s="288" t="s">
+      <c r="B64" s="278"/>
+      <c r="C64" s="278"/>
+      <c r="D64" s="278"/>
+      <c r="E64" s="279"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75">
+      <c r="A65" s="293" t="s">
         <v>841</v>
       </c>
-      <c r="B65" s="289"/>
-      <c r="C65" s="289"/>
-      <c r="D65" s="289"/>
-      <c r="E65" s="290"/>
-    </row>
-    <row r="66" spans="1:5" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="67" spans="1:5" ht="17.5">
-      <c r="A67" s="272" t="s">
+      <c r="B65" s="294"/>
+      <c r="C65" s="294"/>
+      <c r="D65" s="294"/>
+      <c r="E65" s="295"/>
+    </row>
+    <row r="66" spans="1:5" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="67" spans="1:5" ht="18">
+      <c r="A67" s="277" t="s">
         <v>842</v>
       </c>
-      <c r="B67" s="273"/>
-      <c r="C67" s="273"/>
-      <c r="D67" s="273"/>
-      <c r="E67" s="274"/>
-    </row>
-    <row r="68" spans="1:5" ht="15">
-      <c r="A68" s="288" t="s">
+      <c r="B67" s="278"/>
+      <c r="C67" s="278"/>
+      <c r="D67" s="278"/>
+      <c r="E67" s="279"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75">
+      <c r="A68" s="293" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="289"/>
-      <c r="C68" s="289"/>
-      <c r="D68" s="289"/>
-      <c r="E68" s="290"/>
+      <c r="B68" s="294"/>
+      <c r="C68" s="294"/>
+      <c r="D68" s="294"/>
+      <c r="E68" s="295"/>
     </row>
     <row r="69" spans="1:5" ht="12.75" customHeight="1">
       <c r="A69" s="80"/>
     </row>
-    <row r="70" spans="1:5" ht="17.5">
-      <c r="A70" s="272" t="s">
+    <row r="70" spans="1:5" ht="18">
+      <c r="A70" s="277" t="s">
         <v>843</v>
       </c>
-      <c r="B70" s="273"/>
-      <c r="C70" s="273"/>
-      <c r="D70" s="273"/>
-      <c r="E70" s="274"/>
-    </row>
-    <row r="71" spans="1:5" ht="15">
-      <c r="A71" s="288" t="s">
+      <c r="B70" s="278"/>
+      <c r="C70" s="278"/>
+      <c r="D70" s="278"/>
+      <c r="E70" s="279"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75">
+      <c r="A71" s="293" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="289"/>
-      <c r="C71" s="289"/>
-      <c r="D71" s="289"/>
-      <c r="E71" s="290"/>
-    </row>
-    <row r="72" spans="1:5" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="73" spans="1:5" ht="17.5">
-      <c r="A73" s="272" t="s">
+      <c r="B71" s="294"/>
+      <c r="C71" s="294"/>
+      <c r="D71" s="294"/>
+      <c r="E71" s="295"/>
+    </row>
+    <row r="72" spans="1:5" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="73" spans="1:5" ht="18">
+      <c r="A73" s="277" t="s">
         <v>844</v>
       </c>
-      <c r="B73" s="273"/>
-      <c r="C73" s="273"/>
-      <c r="D73" s="273"/>
-      <c r="E73" s="274"/>
-    </row>
-    <row r="74" spans="1:5" ht="15">
-      <c r="A74" s="288" t="s">
+      <c r="B73" s="278"/>
+      <c r="C73" s="278"/>
+      <c r="D73" s="278"/>
+      <c r="E73" s="279"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75">
+      <c r="A74" s="293" t="s">
         <v>1085</v>
       </c>
-      <c r="B74" s="289"/>
-      <c r="C74" s="289"/>
-      <c r="D74" s="289"/>
-      <c r="E74" s="290"/>
-    </row>
-    <row r="75" spans="1:5" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="76" spans="1:5" ht="17.5">
-      <c r="A76" s="272" t="s">
+      <c r="B74" s="294"/>
+      <c r="C74" s="294"/>
+      <c r="D74" s="294"/>
+      <c r="E74" s="295"/>
+    </row>
+    <row r="75" spans="1:5" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="76" spans="1:5" ht="18">
+      <c r="A76" s="277" t="s">
         <v>845</v>
       </c>
-      <c r="B76" s="273"/>
-      <c r="C76" s="273"/>
-      <c r="D76" s="273"/>
-      <c r="E76" s="274"/>
-    </row>
-    <row r="77" spans="1:5" ht="15">
-      <c r="A77" s="288" t="s">
+      <c r="B76" s="278"/>
+      <c r="C76" s="278"/>
+      <c r="D76" s="278"/>
+      <c r="E76" s="279"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75">
+      <c r="A77" s="293" t="s">
         <v>1086</v>
       </c>
-      <c r="B77" s="289"/>
-      <c r="C77" s="289"/>
-      <c r="D77" s="289"/>
-      <c r="E77" s="290"/>
-    </row>
-    <row r="78" spans="1:5" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="79" spans="1:5" ht="17.5">
-      <c r="A79" s="272" t="s">
+      <c r="B77" s="294"/>
+      <c r="C77" s="294"/>
+      <c r="D77" s="294"/>
+      <c r="E77" s="295"/>
+    </row>
+    <row r="78" spans="1:5" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="79" spans="1:5" ht="18">
+      <c r="A79" s="277" t="s">
         <v>846</v>
       </c>
-      <c r="B79" s="273"/>
-      <c r="C79" s="273"/>
-      <c r="D79" s="273"/>
-      <c r="E79" s="274"/>
-    </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="A80" s="288" t="s">
+      <c r="B79" s="278"/>
+      <c r="C79" s="278"/>
+      <c r="D79" s="278"/>
+      <c r="E79" s="279"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75">
+      <c r="A80" s="293" t="s">
         <v>1087</v>
       </c>
-      <c r="B80" s="289"/>
-      <c r="C80" s="289"/>
-      <c r="D80" s="289"/>
-      <c r="E80" s="290"/>
-    </row>
-    <row r="81" spans="1:5" s="284" customFormat="1"/>
-    <row r="82" spans="1:5" ht="17.5">
-      <c r="A82" s="272" t="s">
+      <c r="B80" s="294"/>
+      <c r="C80" s="294"/>
+      <c r="D80" s="294"/>
+      <c r="E80" s="295"/>
+    </row>
+    <row r="81" spans="1:5" s="274" customFormat="1"/>
+    <row r="82" spans="1:5" ht="18">
+      <c r="A82" s="277" t="s">
         <v>847</v>
       </c>
-      <c r="B82" s="273"/>
-      <c r="C82" s="273"/>
-      <c r="D82" s="273"/>
-      <c r="E82" s="274"/>
-    </row>
-    <row r="83" spans="1:5" ht="15">
-      <c r="A83" s="288" t="s">
+      <c r="B82" s="278"/>
+      <c r="C82" s="278"/>
+      <c r="D82" s="278"/>
+      <c r="E82" s="279"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75">
+      <c r="A83" s="293" t="s">
         <v>1082</v>
       </c>
-      <c r="B83" s="289"/>
-      <c r="C83" s="289"/>
-      <c r="D83" s="289"/>
-      <c r="E83" s="290"/>
-    </row>
-    <row r="84" spans="1:5" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="85" spans="1:5" ht="17.5">
-      <c r="A85" s="272" t="s">
+      <c r="B83" s="294"/>
+      <c r="C83" s="294"/>
+      <c r="D83" s="294"/>
+      <c r="E83" s="295"/>
+    </row>
+    <row r="84" spans="1:5" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="85" spans="1:5" ht="18">
+      <c r="A85" s="277" t="s">
         <v>848</v>
       </c>
-      <c r="B85" s="273"/>
-      <c r="C85" s="273"/>
-      <c r="D85" s="274"/>
-    </row>
-    <row r="86" spans="1:5" ht="15">
-      <c r="A86" s="288" t="s">
+      <c r="B85" s="278"/>
+      <c r="C85" s="278"/>
+      <c r="D85" s="279"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75">
+      <c r="A86" s="293" t="s">
         <v>849</v>
       </c>
-      <c r="B86" s="289"/>
-      <c r="C86" s="289"/>
-      <c r="D86" s="289"/>
-      <c r="E86" s="290"/>
-    </row>
-    <row r="87" spans="1:5" ht="15">
+      <c r="B86" s="294"/>
+      <c r="C86" s="294"/>
+      <c r="D86" s="294"/>
+      <c r="E86" s="295"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75">
       <c r="A87" s="85"/>
       <c r="B87" s="83"/>
       <c r="C87" s="83"/>
       <c r="D87" s="83"/>
       <c r="E87" s="84"/>
     </row>
-    <row r="88" spans="1:5" ht="17.5">
-      <c r="A88" s="272" t="s">
+    <row r="88" spans="1:5" ht="18">
+      <c r="A88" s="277" t="s">
         <v>850</v>
       </c>
-      <c r="B88" s="273"/>
-      <c r="C88" s="273"/>
-      <c r="D88" s="273"/>
-      <c r="E88" s="274"/>
-    </row>
-    <row r="89" spans="1:5" ht="15">
-      <c r="A89" s="288"/>
-      <c r="B89" s="289"/>
-      <c r="C89" s="289"/>
-      <c r="D89" s="289"/>
-      <c r="E89" s="290"/>
-    </row>
-    <row r="90" spans="1:5" s="304" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="91" spans="1:5" ht="17.5">
-      <c r="A91" s="272" t="s">
+      <c r="B88" s="278"/>
+      <c r="C88" s="278"/>
+      <c r="D88" s="278"/>
+      <c r="E88" s="279"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75">
+      <c r="A89" s="293"/>
+      <c r="B89" s="294"/>
+      <c r="C89" s="294"/>
+      <c r="D89" s="294"/>
+      <c r="E89" s="295"/>
+    </row>
+    <row r="90" spans="1:5" s="276" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="91" spans="1:5" ht="18">
+      <c r="A91" s="277" t="s">
         <v>851</v>
       </c>
-      <c r="B91" s="273"/>
-      <c r="C91" s="273"/>
-      <c r="D91" s="273"/>
-      <c r="E91" s="274"/>
-    </row>
-    <row r="92" spans="1:5" ht="15">
-      <c r="A92" s="288" t="s">
+      <c r="B91" s="278"/>
+      <c r="C91" s="278"/>
+      <c r="D91" s="278"/>
+      <c r="E91" s="279"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75">
+      <c r="A92" s="293" t="s">
         <v>69</v>
       </c>
-      <c r="B92" s="289"/>
-      <c r="C92" s="289"/>
-      <c r="D92" s="289"/>
-      <c r="E92" s="290"/>
-    </row>
-    <row r="93" spans="1:5" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="94" spans="1:5" ht="17.5">
-      <c r="A94" s="272" t="s">
+      <c r="B92" s="294"/>
+      <c r="C92" s="294"/>
+      <c r="D92" s="294"/>
+      <c r="E92" s="295"/>
+    </row>
+    <row r="93" spans="1:5" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="94" spans="1:5" ht="18">
+      <c r="A94" s="277" t="s">
         <v>852</v>
       </c>
-      <c r="B94" s="273"/>
-      <c r="C94" s="273"/>
-      <c r="D94" s="274"/>
-    </row>
-    <row r="95" spans="1:5" ht="15">
-      <c r="A95" s="288" t="s">
+      <c r="B94" s="278"/>
+      <c r="C94" s="278"/>
+      <c r="D94" s="279"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75">
+      <c r="A95" s="293" t="s">
         <v>1077</v>
       </c>
-      <c r="B95" s="289"/>
-      <c r="C95" s="289"/>
-      <c r="D95" s="290"/>
-    </row>
-    <row r="96" spans="1:5" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="97" spans="1:12" ht="17.5">
-      <c r="A97" s="272" t="s">
+      <c r="B95" s="294"/>
+      <c r="C95" s="294"/>
+      <c r="D95" s="295"/>
+    </row>
+    <row r="96" spans="1:5" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="97" spans="1:12" ht="18">
+      <c r="A97" s="277" t="s">
         <v>853</v>
       </c>
-      <c r="B97" s="273"/>
-      <c r="C97" s="273"/>
-      <c r="D97" s="274"/>
-    </row>
-    <row r="98" spans="1:12" ht="15">
-      <c r="A98" s="288" t="s">
+      <c r="B97" s="278"/>
+      <c r="C97" s="278"/>
+      <c r="D97" s="279"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.75">
+      <c r="A98" s="293" t="s">
         <v>1078</v>
       </c>
-      <c r="B98" s="289"/>
-      <c r="C98" s="289"/>
-      <c r="D98" s="290"/>
-    </row>
-    <row r="99" spans="1:12" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="100" spans="1:12" ht="17.5">
-      <c r="A100" s="272" t="s">
+      <c r="B98" s="294"/>
+      <c r="C98" s="294"/>
+      <c r="D98" s="295"/>
+    </row>
+    <row r="99" spans="1:12" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="100" spans="1:12" ht="18">
+      <c r="A100" s="277" t="s">
         <v>854</v>
       </c>
-      <c r="B100" s="273"/>
-      <c r="C100" s="273"/>
-      <c r="D100" s="273"/>
-      <c r="E100" s="273"/>
-      <c r="F100" s="274"/>
-    </row>
-    <row r="101" spans="1:12" ht="15">
-      <c r="A101" s="288" t="s">
+      <c r="B100" s="278"/>
+      <c r="C100" s="278"/>
+      <c r="D100" s="278"/>
+      <c r="E100" s="278"/>
+      <c r="F100" s="279"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75">
+      <c r="A101" s="293" t="s">
         <v>1079</v>
       </c>
-      <c r="B101" s="289"/>
-      <c r="C101" s="289"/>
-      <c r="D101" s="289"/>
-      <c r="E101" s="289"/>
-      <c r="F101" s="290"/>
-    </row>
-    <row r="102" spans="1:12" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="103" spans="1:12" ht="17.5">
-      <c r="A103" s="314" t="s">
+      <c r="B101" s="294"/>
+      <c r="C101" s="294"/>
+      <c r="D101" s="294"/>
+      <c r="E101" s="294"/>
+      <c r="F101" s="295"/>
+    </row>
+    <row r="102" spans="1:12" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="103" spans="1:12" ht="18">
+      <c r="A103" s="300" t="s">
         <v>855</v>
       </c>
-      <c r="B103" s="315"/>
-      <c r="C103" s="315"/>
-      <c r="D103" s="315"/>
-      <c r="E103" s="315"/>
-      <c r="F103" s="315"/>
-      <c r="G103" s="316"/>
-    </row>
-    <row r="104" spans="1:12" ht="15">
-      <c r="A104" s="301" t="s">
+      <c r="B103" s="301"/>
+      <c r="C103" s="301"/>
+      <c r="D103" s="301"/>
+      <c r="E103" s="301"/>
+      <c r="F103" s="301"/>
+      <c r="G103" s="302"/>
+    </row>
+    <row r="104" spans="1:12" ht="15.75">
+      <c r="A104" s="289" t="s">
         <v>1080</v>
       </c>
-      <c r="B104" s="302"/>
-      <c r="C104" s="302"/>
-      <c r="D104" s="302"/>
-      <c r="E104" s="302"/>
-      <c r="F104" s="302"/>
-      <c r="G104" s="303"/>
-    </row>
-    <row r="105" spans="1:12" ht="15">
-      <c r="A105" s="277" t="s">
+      <c r="B104" s="290"/>
+      <c r="C104" s="290"/>
+      <c r="D104" s="290"/>
+      <c r="E104" s="290"/>
+      <c r="F104" s="290"/>
+      <c r="G104" s="291"/>
+    </row>
+    <row r="105" spans="1:12" ht="15.75">
+      <c r="A105" s="286" t="s">
         <v>1081</v>
       </c>
-      <c r="B105" s="278"/>
-      <c r="C105" s="278"/>
-      <c r="D105" s="278"/>
-      <c r="E105" s="278"/>
-      <c r="F105" s="278"/>
-      <c r="G105" s="279"/>
-    </row>
-    <row r="106" spans="1:12" s="284" customFormat="1"/>
-    <row r="107" spans="1:12" ht="17.5">
-      <c r="A107" s="272" t="s">
+      <c r="B105" s="287"/>
+      <c r="C105" s="287"/>
+      <c r="D105" s="287"/>
+      <c r="E105" s="287"/>
+      <c r="F105" s="287"/>
+      <c r="G105" s="288"/>
+    </row>
+    <row r="106" spans="1:12" s="274" customFormat="1"/>
+    <row r="107" spans="1:12" ht="18">
+      <c r="A107" s="277" t="s">
         <v>856</v>
       </c>
-      <c r="B107" s="273"/>
-      <c r="C107" s="273"/>
-      <c r="D107" s="273"/>
-      <c r="E107" s="273"/>
-      <c r="F107" s="273"/>
-      <c r="G107" s="273"/>
-      <c r="H107" s="273"/>
-      <c r="I107" s="273"/>
-      <c r="J107" s="273"/>
-      <c r="K107" s="273"/>
-      <c r="L107" s="274"/>
-    </row>
-    <row r="108" spans="1:12" ht="15">
-      <c r="A108" s="288" t="s">
+      <c r="B107" s="278"/>
+      <c r="C107" s="278"/>
+      <c r="D107" s="278"/>
+      <c r="E107" s="278"/>
+      <c r="F107" s="278"/>
+      <c r="G107" s="278"/>
+      <c r="H107" s="278"/>
+      <c r="I107" s="278"/>
+      <c r="J107" s="278"/>
+      <c r="K107" s="278"/>
+      <c r="L107" s="279"/>
+    </row>
+    <row r="108" spans="1:12" ht="15.75">
+      <c r="A108" s="293" t="s">
         <v>1083</v>
       </c>
-      <c r="B108" s="289"/>
-      <c r="C108" s="289"/>
-      <c r="D108" s="289"/>
-      <c r="E108" s="289"/>
-      <c r="F108" s="289"/>
-      <c r="G108" s="289"/>
-      <c r="H108" s="289"/>
-      <c r="I108" s="289"/>
-      <c r="J108" s="289"/>
-      <c r="K108" s="289"/>
-      <c r="L108" s="290"/>
-    </row>
-    <row r="109" spans="1:12" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="110" spans="1:12" ht="17.5">
-      <c r="A110" s="272" t="s">
+      <c r="B108" s="294"/>
+      <c r="C108" s="294"/>
+      <c r="D108" s="294"/>
+      <c r="E108" s="294"/>
+      <c r="F108" s="294"/>
+      <c r="G108" s="294"/>
+      <c r="H108" s="294"/>
+      <c r="I108" s="294"/>
+      <c r="J108" s="294"/>
+      <c r="K108" s="294"/>
+      <c r="L108" s="295"/>
+    </row>
+    <row r="109" spans="1:12" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="110" spans="1:12" ht="18">
+      <c r="A110" s="277" t="s">
         <v>825</v>
       </c>
-      <c r="B110" s="273"/>
-      <c r="C110" s="273"/>
-      <c r="D110" s="273"/>
-      <c r="E110" s="273"/>
-      <c r="F110" s="273"/>
-      <c r="G110" s="274"/>
-    </row>
-    <row r="111" spans="1:12" ht="15">
-      <c r="A111" s="288" t="s">
+      <c r="B110" s="278"/>
+      <c r="C110" s="278"/>
+      <c r="D110" s="278"/>
+      <c r="E110" s="278"/>
+      <c r="F110" s="278"/>
+      <c r="G110" s="279"/>
+    </row>
+    <row r="111" spans="1:12" ht="15.75">
+      <c r="A111" s="293" t="s">
         <v>1084</v>
       </c>
-      <c r="B111" s="289"/>
-      <c r="C111" s="289"/>
-      <c r="D111" s="289"/>
-      <c r="E111" s="289"/>
-      <c r="F111" s="289"/>
-      <c r="G111" s="290"/>
-    </row>
-    <row r="112" spans="1:12" s="284" customFormat="1"/>
-    <row r="113" spans="1:9" ht="19">
-      <c r="A113" s="317" t="s">
+      <c r="B111" s="294"/>
+      <c r="C111" s="294"/>
+      <c r="D111" s="294"/>
+      <c r="E111" s="294"/>
+      <c r="F111" s="294"/>
+      <c r="G111" s="295"/>
+    </row>
+    <row r="112" spans="1:12" s="274" customFormat="1"/>
+    <row r="113" spans="1:9" ht="18.75">
+      <c r="A113" s="303" t="s">
         <v>826</v>
       </c>
-      <c r="B113" s="318"/>
-      <c r="C113" s="318"/>
-      <c r="D113" s="318"/>
-      <c r="E113" s="318"/>
-      <c r="F113" s="318"/>
-      <c r="G113" s="319"/>
-    </row>
-    <row r="114" spans="1:9" s="284" customFormat="1"/>
-    <row r="115" spans="1:9" ht="17.5">
-      <c r="A115" s="272" t="s">
+      <c r="B113" s="304"/>
+      <c r="C113" s="304"/>
+      <c r="D113" s="304"/>
+      <c r="E113" s="304"/>
+      <c r="F113" s="304"/>
+      <c r="G113" s="305"/>
+    </row>
+    <row r="114" spans="1:9" s="274" customFormat="1"/>
+    <row r="115" spans="1:9" ht="18">
+      <c r="A115" s="277" t="s">
         <v>827</v>
       </c>
-      <c r="B115" s="273"/>
-      <c r="C115" s="273"/>
-      <c r="D115" s="273"/>
-      <c r="E115" s="273"/>
-      <c r="F115" s="273"/>
-      <c r="G115" s="273"/>
-      <c r="H115" s="273"/>
-      <c r="I115" s="274"/>
-    </row>
-    <row r="116" spans="1:9" ht="15">
-      <c r="A116" s="288" t="s">
+      <c r="B115" s="278"/>
+      <c r="C115" s="278"/>
+      <c r="D115" s="278"/>
+      <c r="E115" s="278"/>
+      <c r="F115" s="278"/>
+      <c r="G115" s="278"/>
+      <c r="H115" s="278"/>
+      <c r="I115" s="279"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.75">
+      <c r="A116" s="293" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="289"/>
-      <c r="C116" s="289"/>
-      <c r="D116" s="289"/>
-      <c r="E116" s="289"/>
-      <c r="F116" s="289"/>
-      <c r="G116" s="289"/>
-      <c r="H116" s="289"/>
-      <c r="I116" s="290"/>
-    </row>
-    <row r="117" spans="1:9" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="118" spans="1:9" ht="17.5">
-      <c r="A118" s="272" t="s">
+      <c r="B116" s="294"/>
+      <c r="C116" s="294"/>
+      <c r="D116" s="294"/>
+      <c r="E116" s="294"/>
+      <c r="F116" s="294"/>
+      <c r="G116" s="294"/>
+      <c r="H116" s="294"/>
+      <c r="I116" s="295"/>
+    </row>
+    <row r="117" spans="1:9" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="118" spans="1:9" ht="18">
+      <c r="A118" s="277" t="s">
         <v>828</v>
       </c>
-      <c r="B118" s="273"/>
-      <c r="C118" s="273"/>
-      <c r="D118" s="274"/>
-    </row>
-    <row r="119" spans="1:9" ht="15">
-      <c r="A119" s="288" t="s">
+      <c r="B118" s="278"/>
+      <c r="C118" s="278"/>
+      <c r="D118" s="279"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.75">
+      <c r="A119" s="293" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="289"/>
-      <c r="C119" s="289"/>
-      <c r="D119" s="290"/>
-    </row>
-    <row r="120" spans="1:9" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="121" spans="1:9" ht="17.5">
-      <c r="A121" s="272" t="s">
+      <c r="B119" s="294"/>
+      <c r="C119" s="294"/>
+      <c r="D119" s="295"/>
+    </row>
+    <row r="120" spans="1:9" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="121" spans="1:9" ht="18">
+      <c r="A121" s="277" t="s">
         <v>829</v>
       </c>
-      <c r="B121" s="273"/>
-      <c r="C121" s="273"/>
-      <c r="D121" s="273"/>
-      <c r="E121" s="273"/>
-      <c r="F121" s="273"/>
-      <c r="G121" s="274"/>
-    </row>
-    <row r="122" spans="1:9" ht="15">
-      <c r="A122" s="288" t="s">
+      <c r="B121" s="278"/>
+      <c r="C121" s="278"/>
+      <c r="D121" s="278"/>
+      <c r="E121" s="278"/>
+      <c r="F121" s="278"/>
+      <c r="G121" s="279"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75">
+      <c r="A122" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="B122" s="289"/>
-      <c r="C122" s="289"/>
-      <c r="D122" s="289"/>
-      <c r="E122" s="289"/>
-      <c r="F122" s="289"/>
-      <c r="G122" s="290"/>
-    </row>
-    <row r="123" spans="1:9" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="124" spans="1:9" ht="17.5">
-      <c r="A124" s="272" t="s">
+      <c r="B122" s="294"/>
+      <c r="C122" s="294"/>
+      <c r="D122" s="294"/>
+      <c r="E122" s="294"/>
+      <c r="F122" s="294"/>
+      <c r="G122" s="295"/>
+    </row>
+    <row r="123" spans="1:9" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="124" spans="1:9" ht="18">
+      <c r="A124" s="277" t="s">
         <v>830</v>
       </c>
-      <c r="B124" s="273"/>
-      <c r="C124" s="274"/>
-    </row>
-    <row r="125" spans="1:9" s="304" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="126" spans="1:9" ht="17.5">
-      <c r="A126" s="272" t="s">
+      <c r="B124" s="278"/>
+      <c r="C124" s="279"/>
+    </row>
+    <row r="125" spans="1:9" s="276" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="126" spans="1:9" ht="18">
+      <c r="A126" s="277" t="s">
         <v>831</v>
       </c>
-      <c r="B126" s="273"/>
-      <c r="C126" s="274"/>
-    </row>
-    <row r="127" spans="1:9" s="304" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="128" spans="1:9" ht="17.5">
-      <c r="A128" s="272" t="s">
+      <c r="B126" s="278"/>
+      <c r="C126" s="279"/>
+    </row>
+    <row r="127" spans="1:9" s="276" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="128" spans="1:9" ht="18">
+      <c r="A128" s="277" t="s">
         <v>832</v>
       </c>
-      <c r="B128" s="273"/>
-      <c r="C128" s="274"/>
-    </row>
-    <row r="129" spans="1:12" s="304" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="130" spans="1:12" ht="17.5">
-      <c r="A130" s="272" t="s">
+      <c r="B128" s="278"/>
+      <c r="C128" s="279"/>
+    </row>
+    <row r="129" spans="1:12" s="276" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="130" spans="1:12" ht="18">
+      <c r="A130" s="277" t="s">
         <v>835</v>
       </c>
-      <c r="B130" s="273"/>
-      <c r="C130" s="274"/>
-    </row>
-    <row r="131" spans="1:12" s="304" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="132" spans="1:12" s="304" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="133" spans="1:12" ht="17.5">
-      <c r="A133" s="272" t="s">
+      <c r="B130" s="278"/>
+      <c r="C130" s="279"/>
+    </row>
+    <row r="131" spans="1:12" s="276" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="132" spans="1:12" s="276" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="133" spans="1:12" ht="18">
+      <c r="A133" s="277" t="s">
         <v>834</v>
       </c>
-      <c r="B133" s="273"/>
-      <c r="C133" s="274"/>
-    </row>
-    <row r="134" spans="1:12" s="304" customFormat="1" ht="12.75" customHeight="1"/>
+      <c r="B133" s="278"/>
+      <c r="C133" s="279"/>
+    </row>
+    <row r="134" spans="1:12" s="276" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="135" spans="1:12" s="81" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="136" spans="1:12" ht="17.5">
-      <c r="A136" s="272" t="s">
+    <row r="136" spans="1:12" ht="18">
+      <c r="A136" s="277" t="s">
         <v>833</v>
       </c>
-      <c r="B136" s="273"/>
-      <c r="C136" s="273"/>
-      <c r="D136" s="273"/>
-      <c r="E136" s="273"/>
-      <c r="F136" s="273"/>
-      <c r="G136" s="274"/>
-    </row>
-    <row r="137" spans="1:12" ht="15">
-      <c r="A137" s="288" t="s">
+      <c r="B136" s="278"/>
+      <c r="C136" s="278"/>
+      <c r="D136" s="278"/>
+      <c r="E136" s="278"/>
+      <c r="F136" s="278"/>
+      <c r="G136" s="279"/>
+    </row>
+    <row r="137" spans="1:12" ht="15.75">
+      <c r="A137" s="293" t="s">
         <v>31</v>
       </c>
-      <c r="B137" s="289"/>
-      <c r="C137" s="289"/>
-      <c r="D137" s="289"/>
-      <c r="E137" s="289"/>
-      <c r="F137" s="289"/>
-      <c r="G137" s="290"/>
-    </row>
-    <row r="138" spans="1:12" ht="15">
+      <c r="B137" s="294"/>
+      <c r="C137" s="294"/>
+      <c r="D137" s="294"/>
+      <c r="E137" s="294"/>
+      <c r="F137" s="294"/>
+      <c r="G137" s="295"/>
+    </row>
+    <row r="138" spans="1:12" ht="15.75">
       <c r="A138" s="85"/>
       <c r="B138" s="83"/>
       <c r="C138" s="83"/>
@@ -68538,220 +68542,220 @@
       <c r="F138" s="83"/>
       <c r="G138" s="84"/>
     </row>
-    <row r="139" spans="1:12" ht="17.5">
-      <c r="A139" s="272" t="s">
+    <row r="139" spans="1:12" ht="18">
+      <c r="A139" s="277" t="s">
         <v>836</v>
       </c>
-      <c r="B139" s="273"/>
-      <c r="C139" s="273"/>
-      <c r="D139" s="273"/>
-      <c r="E139" s="273"/>
-      <c r="F139" s="273"/>
-      <c r="G139" s="273"/>
-      <c r="H139" s="274"/>
-    </row>
-    <row r="140" spans="1:12" ht="15">
-      <c r="A140" s="288" t="s">
+      <c r="B139" s="278"/>
+      <c r="C139" s="278"/>
+      <c r="D139" s="278"/>
+      <c r="E139" s="278"/>
+      <c r="F139" s="278"/>
+      <c r="G139" s="278"/>
+      <c r="H139" s="279"/>
+    </row>
+    <row r="140" spans="1:12" ht="15.75">
+      <c r="A140" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="B140" s="289"/>
-      <c r="C140" s="289"/>
-      <c r="D140" s="289"/>
-      <c r="E140" s="289"/>
-      <c r="F140" s="289"/>
-      <c r="G140" s="289"/>
-      <c r="H140" s="290"/>
-    </row>
-    <row r="141" spans="1:12" s="284" customFormat="1"/>
-    <row r="142" spans="1:12" ht="17.5">
-      <c r="A142" s="272" t="s">
+      <c r="B140" s="294"/>
+      <c r="C140" s="294"/>
+      <c r="D140" s="294"/>
+      <c r="E140" s="294"/>
+      <c r="F140" s="294"/>
+      <c r="G140" s="294"/>
+      <c r="H140" s="295"/>
+    </row>
+    <row r="141" spans="1:12" s="274" customFormat="1"/>
+    <row r="142" spans="1:12" ht="18">
+      <c r="A142" s="277" t="s">
         <v>837</v>
       </c>
-      <c r="B142" s="273"/>
-      <c r="C142" s="273"/>
-      <c r="D142" s="273"/>
-      <c r="E142" s="273"/>
-      <c r="F142" s="273"/>
-      <c r="G142" s="273"/>
-      <c r="H142" s="273"/>
-      <c r="I142" s="273"/>
-      <c r="J142" s="273"/>
-      <c r="K142" s="273"/>
-      <c r="L142" s="274"/>
-    </row>
-    <row r="143" spans="1:12" ht="15">
-      <c r="A143" s="277" t="s">
+      <c r="B142" s="278"/>
+      <c r="C142" s="278"/>
+      <c r="D142" s="278"/>
+      <c r="E142" s="278"/>
+      <c r="F142" s="278"/>
+      <c r="G142" s="278"/>
+      <c r="H142" s="278"/>
+      <c r="I142" s="278"/>
+      <c r="J142" s="278"/>
+      <c r="K142" s="278"/>
+      <c r="L142" s="279"/>
+    </row>
+    <row r="143" spans="1:12" ht="15.75">
+      <c r="A143" s="286" t="s">
         <v>1074</v>
       </c>
-      <c r="B143" s="278"/>
-      <c r="C143" s="278"/>
-      <c r="D143" s="278"/>
-      <c r="E143" s="278"/>
-      <c r="F143" s="278"/>
-      <c r="G143" s="278"/>
-      <c r="H143" s="278"/>
-      <c r="I143" s="278"/>
-      <c r="J143" s="278"/>
-      <c r="K143" s="278"/>
-      <c r="L143" s="279"/>
-    </row>
-    <row r="144" spans="1:12" ht="15">
-      <c r="A144" s="277" t="s">
+      <c r="B143" s="287"/>
+      <c r="C143" s="287"/>
+      <c r="D143" s="287"/>
+      <c r="E143" s="287"/>
+      <c r="F143" s="287"/>
+      <c r="G143" s="287"/>
+      <c r="H143" s="287"/>
+      <c r="I143" s="287"/>
+      <c r="J143" s="287"/>
+      <c r="K143" s="287"/>
+      <c r="L143" s="288"/>
+    </row>
+    <row r="144" spans="1:12" ht="15.75">
+      <c r="A144" s="286" t="s">
         <v>1090</v>
       </c>
-      <c r="B144" s="278"/>
-      <c r="C144" s="278"/>
-      <c r="D144" s="278"/>
-      <c r="E144" s="278"/>
-      <c r="F144" s="278"/>
-      <c r="G144" s="278"/>
-      <c r="H144" s="278"/>
-      <c r="I144" s="278"/>
-      <c r="J144" s="278"/>
-      <c r="K144" s="278"/>
-      <c r="L144" s="279"/>
-    </row>
-    <row r="145" spans="1:14" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="146" spans="1:14" ht="17.5">
-      <c r="A146" s="272" t="s">
+      <c r="B144" s="287"/>
+      <c r="C144" s="287"/>
+      <c r="D144" s="287"/>
+      <c r="E144" s="287"/>
+      <c r="F144" s="287"/>
+      <c r="G144" s="287"/>
+      <c r="H144" s="287"/>
+      <c r="I144" s="287"/>
+      <c r="J144" s="287"/>
+      <c r="K144" s="287"/>
+      <c r="L144" s="288"/>
+    </row>
+    <row r="145" spans="1:14" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="146" spans="1:14" ht="18">
+      <c r="A146" s="277" t="s">
         <v>838</v>
       </c>
-      <c r="B146" s="273"/>
-      <c r="C146" s="273"/>
-      <c r="D146" s="273"/>
-      <c r="E146" s="273"/>
-      <c r="F146" s="273"/>
-      <c r="G146" s="273"/>
-      <c r="H146" s="274"/>
+      <c r="B146" s="278"/>
+      <c r="C146" s="278"/>
+      <c r="D146" s="278"/>
+      <c r="E146" s="278"/>
+      <c r="F146" s="278"/>
+      <c r="G146" s="278"/>
+      <c r="H146" s="279"/>
     </row>
     <row r="147" spans="1:14" s="90" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A147" s="311" t="s">
+      <c r="A147" s="280" t="s">
         <v>57</v>
       </c>
-      <c r="B147" s="312"/>
-      <c r="C147" s="312"/>
-      <c r="D147" s="312"/>
-      <c r="E147" s="312"/>
-      <c r="F147" s="312"/>
-      <c r="G147" s="312"/>
-      <c r="H147" s="313"/>
-    </row>
-    <row r="148" spans="1:14" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="149" spans="1:14" ht="17.5">
-      <c r="A149" s="272" t="s">
+      <c r="B147" s="298"/>
+      <c r="C147" s="298"/>
+      <c r="D147" s="298"/>
+      <c r="E147" s="298"/>
+      <c r="F147" s="298"/>
+      <c r="G147" s="298"/>
+      <c r="H147" s="299"/>
+    </row>
+    <row r="148" spans="1:14" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="149" spans="1:14" ht="18">
+      <c r="A149" s="277" t="s">
         <v>839</v>
       </c>
-      <c r="B149" s="273"/>
-      <c r="C149" s="273"/>
-      <c r="D149" s="273"/>
-      <c r="E149" s="273"/>
-      <c r="F149" s="273"/>
-      <c r="G149" s="273"/>
-      <c r="H149" s="273"/>
-      <c r="I149" s="273"/>
-      <c r="J149" s="273"/>
-      <c r="K149" s="273"/>
-      <c r="L149" s="273"/>
-      <c r="M149" s="273"/>
-      <c r="N149" s="274"/>
+      <c r="B149" s="278"/>
+      <c r="C149" s="278"/>
+      <c r="D149" s="278"/>
+      <c r="E149" s="278"/>
+      <c r="F149" s="278"/>
+      <c r="G149" s="278"/>
+      <c r="H149" s="278"/>
+      <c r="I149" s="278"/>
+      <c r="J149" s="278"/>
+      <c r="K149" s="278"/>
+      <c r="L149" s="278"/>
+      <c r="M149" s="278"/>
+      <c r="N149" s="279"/>
     </row>
     <row r="150" spans="1:14" ht="84" customHeight="1">
-      <c r="A150" s="311" t="s">
+      <c r="A150" s="280" t="s">
         <v>815</v>
       </c>
-      <c r="B150" s="289"/>
-      <c r="C150" s="289"/>
-      <c r="D150" s="289"/>
-      <c r="E150" s="289"/>
-      <c r="F150" s="289"/>
-      <c r="G150" s="289"/>
-      <c r="H150" s="289"/>
-      <c r="I150" s="289"/>
-      <c r="J150" s="289"/>
-      <c r="K150" s="289"/>
-      <c r="L150" s="289"/>
-      <c r="M150" s="289"/>
-      <c r="N150" s="290"/>
+      <c r="B150" s="294"/>
+      <c r="C150" s="294"/>
+      <c r="D150" s="294"/>
+      <c r="E150" s="294"/>
+      <c r="F150" s="294"/>
+      <c r="G150" s="294"/>
+      <c r="H150" s="294"/>
+      <c r="I150" s="294"/>
+      <c r="J150" s="294"/>
+      <c r="K150" s="294"/>
+      <c r="L150" s="294"/>
+      <c r="M150" s="294"/>
+      <c r="N150" s="295"/>
     </row>
     <row r="151" spans="1:14" ht="408.75" customHeight="1">
-      <c r="A151" s="309" t="s">
+      <c r="A151" s="296" t="s">
         <v>1033</v>
       </c>
-      <c r="B151" s="310"/>
-      <c r="C151" s="310"/>
-      <c r="D151" s="310"/>
-      <c r="E151" s="310"/>
-      <c r="F151" s="310"/>
-      <c r="G151" s="310"/>
-      <c r="H151" s="310"/>
-      <c r="I151" s="310"/>
-      <c r="J151" s="310"/>
-      <c r="K151" s="310"/>
-      <c r="L151" s="310"/>
-      <c r="M151" s="310"/>
-      <c r="N151" s="310"/>
-    </row>
-    <row r="152" spans="1:14" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="153" spans="1:14" ht="17.5">
-      <c r="A153" s="272" t="s">
+      <c r="B151" s="297"/>
+      <c r="C151" s="297"/>
+      <c r="D151" s="297"/>
+      <c r="E151" s="297"/>
+      <c r="F151" s="297"/>
+      <c r="G151" s="297"/>
+      <c r="H151" s="297"/>
+      <c r="I151" s="297"/>
+      <c r="J151" s="297"/>
+      <c r="K151" s="297"/>
+      <c r="L151" s="297"/>
+      <c r="M151" s="297"/>
+      <c r="N151" s="297"/>
+    </row>
+    <row r="152" spans="1:14" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="153" spans="1:14" ht="18">
+      <c r="A153" s="277" t="s">
         <v>816</v>
       </c>
-      <c r="B153" s="273"/>
-      <c r="C153" s="273"/>
-      <c r="D153" s="273"/>
-      <c r="E153" s="273"/>
-      <c r="F153" s="274"/>
+      <c r="B153" s="278"/>
+      <c r="C153" s="278"/>
+      <c r="D153" s="278"/>
+      <c r="E153" s="278"/>
+      <c r="F153" s="279"/>
     </row>
     <row r="154" spans="1:14" s="90" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A154" s="311" t="s">
+      <c r="A154" s="280" t="s">
         <v>1029</v>
       </c>
-      <c r="B154" s="324"/>
-      <c r="C154" s="324"/>
-      <c r="D154" s="324"/>
-      <c r="E154" s="324"/>
-      <c r="F154" s="325"/>
-    </row>
-    <row r="155" spans="1:14" s="284" customFormat="1"/>
-    <row r="156" spans="1:14" ht="17.5">
-      <c r="A156" s="272" t="s">
+      <c r="B154" s="281"/>
+      <c r="C154" s="281"/>
+      <c r="D154" s="281"/>
+      <c r="E154" s="281"/>
+      <c r="F154" s="282"/>
+    </row>
+    <row r="155" spans="1:14" s="274" customFormat="1"/>
+    <row r="156" spans="1:14" ht="18">
+      <c r="A156" s="277" t="s">
         <v>817</v>
       </c>
-      <c r="B156" s="273"/>
-      <c r="C156" s="273"/>
-      <c r="D156" s="273"/>
-      <c r="E156" s="273"/>
-      <c r="F156" s="274"/>
+      <c r="B156" s="278"/>
+      <c r="C156" s="278"/>
+      <c r="D156" s="278"/>
+      <c r="E156" s="278"/>
+      <c r="F156" s="279"/>
     </row>
     <row r="157" spans="1:14" s="90" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A157" s="311" t="s">
+      <c r="A157" s="280" t="s">
         <v>1076</v>
       </c>
-      <c r="B157" s="324"/>
-      <c r="C157" s="324"/>
-      <c r="D157" s="324"/>
-      <c r="E157" s="324"/>
-      <c r="F157" s="325"/>
-    </row>
-    <row r="158" spans="1:14" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="159" spans="1:14" ht="17.5">
-      <c r="A159" s="272" t="s">
+      <c r="B157" s="281"/>
+      <c r="C157" s="281"/>
+      <c r="D157" s="281"/>
+      <c r="E157" s="281"/>
+      <c r="F157" s="282"/>
+    </row>
+    <row r="158" spans="1:14" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="159" spans="1:14" ht="18">
+      <c r="A159" s="277" t="s">
         <v>818</v>
       </c>
-      <c r="B159" s="273"/>
-      <c r="C159" s="273"/>
-      <c r="D159" s="273"/>
-      <c r="E159" s="273"/>
-      <c r="F159" s="273"/>
-      <c r="G159" s="273"/>
-      <c r="H159" s="273"/>
-      <c r="I159" s="273"/>
-      <c r="J159" s="273"/>
-      <c r="K159" s="273"/>
-      <c r="L159" s="273"/>
-      <c r="M159" s="274"/>
-    </row>
-    <row r="160" spans="1:14" ht="15">
+      <c r="B159" s="278"/>
+      <c r="C159" s="278"/>
+      <c r="D159" s="278"/>
+      <c r="E159" s="278"/>
+      <c r="F159" s="278"/>
+      <c r="G159" s="278"/>
+      <c r="H159" s="278"/>
+      <c r="I159" s="278"/>
+      <c r="J159" s="278"/>
+      <c r="K159" s="278"/>
+      <c r="L159" s="278"/>
+      <c r="M159" s="279"/>
+    </row>
+    <row r="160" spans="1:14" ht="15.75">
       <c r="A160" s="87" t="s">
         <v>1046</v>
       </c>
@@ -68768,140 +68772,140 @@
       <c r="L160" s="88"/>
       <c r="M160" s="89"/>
     </row>
-    <row r="161" spans="1:13" ht="15">
-      <c r="A161" s="275" t="s">
+    <row r="161" spans="1:13" ht="15.75">
+      <c r="A161" s="283" t="s">
         <v>819</v>
       </c>
-      <c r="B161" s="271"/>
-      <c r="C161" s="271"/>
-      <c r="D161" s="271"/>
-      <c r="E161" s="271"/>
-      <c r="F161" s="271"/>
-      <c r="G161" s="271"/>
-      <c r="H161" s="271"/>
-      <c r="I161" s="271"/>
-      <c r="J161" s="271"/>
-      <c r="K161" s="271"/>
-      <c r="L161" s="271"/>
-      <c r="M161" s="276"/>
-    </row>
-    <row r="162" spans="1:13" ht="15">
-      <c r="A162" s="277" t="s">
+      <c r="B161" s="284"/>
+      <c r="C161" s="284"/>
+      <c r="D161" s="284"/>
+      <c r="E161" s="284"/>
+      <c r="F161" s="284"/>
+      <c r="G161" s="284"/>
+      <c r="H161" s="284"/>
+      <c r="I161" s="284"/>
+      <c r="J161" s="284"/>
+      <c r="K161" s="284"/>
+      <c r="L161" s="284"/>
+      <c r="M161" s="285"/>
+    </row>
+    <row r="162" spans="1:13" ht="15.75">
+      <c r="A162" s="286" t="s">
         <v>1056</v>
       </c>
-      <c r="B162" s="278"/>
-      <c r="C162" s="278"/>
-      <c r="D162" s="278"/>
-      <c r="E162" s="278"/>
-      <c r="F162" s="278"/>
-      <c r="G162" s="278"/>
-      <c r="H162" s="278"/>
-      <c r="I162" s="278"/>
-      <c r="J162" s="278"/>
-      <c r="K162" s="278"/>
-      <c r="L162" s="278"/>
-      <c r="M162" s="279"/>
-    </row>
-    <row r="163" spans="1:13" s="280" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="164" spans="1:13" ht="17.5">
-      <c r="A164" s="272" t="s">
+      <c r="B162" s="287"/>
+      <c r="C162" s="287"/>
+      <c r="D162" s="287"/>
+      <c r="E162" s="287"/>
+      <c r="F162" s="287"/>
+      <c r="G162" s="287"/>
+      <c r="H162" s="287"/>
+      <c r="I162" s="287"/>
+      <c r="J162" s="287"/>
+      <c r="K162" s="287"/>
+      <c r="L162" s="287"/>
+      <c r="M162" s="288"/>
+    </row>
+    <row r="163" spans="1:13" s="292" customFormat="1" ht="12.75" customHeight="1"/>
+    <row r="164" spans="1:13" ht="18">
+      <c r="A164" s="277" t="s">
         <v>820</v>
       </c>
-      <c r="B164" s="273"/>
-      <c r="C164" s="273"/>
-      <c r="D164" s="273"/>
-      <c r="E164" s="273"/>
-      <c r="F164" s="273"/>
-      <c r="G164" s="273"/>
-      <c r="H164" s="273"/>
-      <c r="I164" s="273"/>
-      <c r="J164" s="273"/>
-      <c r="K164" s="273"/>
-      <c r="L164" s="273"/>
-      <c r="M164" s="274"/>
-    </row>
-    <row r="165" spans="1:13" ht="15">
-      <c r="A165" s="301" t="s">
+      <c r="B164" s="278"/>
+      <c r="C164" s="278"/>
+      <c r="D164" s="278"/>
+      <c r="E164" s="278"/>
+      <c r="F164" s="278"/>
+      <c r="G164" s="278"/>
+      <c r="H164" s="278"/>
+      <c r="I164" s="278"/>
+      <c r="J164" s="278"/>
+      <c r="K164" s="278"/>
+      <c r="L164" s="278"/>
+      <c r="M164" s="279"/>
+    </row>
+    <row r="165" spans="1:13" ht="15.75">
+      <c r="A165" s="289" t="s">
         <v>1057</v>
       </c>
-      <c r="B165" s="302"/>
-      <c r="C165" s="302"/>
-      <c r="D165" s="302"/>
-      <c r="E165" s="302"/>
-      <c r="F165" s="302"/>
-      <c r="G165" s="302"/>
-      <c r="H165" s="302"/>
-      <c r="I165" s="302"/>
-      <c r="J165" s="302"/>
-      <c r="K165" s="302"/>
-      <c r="L165" s="302"/>
-      <c r="M165" s="303"/>
-    </row>
-    <row r="166" spans="1:13" ht="15">
-      <c r="A166" s="275" t="s">
+      <c r="B165" s="290"/>
+      <c r="C165" s="290"/>
+      <c r="D165" s="290"/>
+      <c r="E165" s="290"/>
+      <c r="F165" s="290"/>
+      <c r="G165" s="290"/>
+      <c r="H165" s="290"/>
+      <c r="I165" s="290"/>
+      <c r="J165" s="290"/>
+      <c r="K165" s="290"/>
+      <c r="L165" s="290"/>
+      <c r="M165" s="291"/>
+    </row>
+    <row r="166" spans="1:13" ht="15.75">
+      <c r="A166" s="283" t="s">
         <v>1058</v>
       </c>
-      <c r="B166" s="271"/>
-      <c r="C166" s="271"/>
-      <c r="D166" s="271"/>
-      <c r="E166" s="271"/>
-      <c r="F166" s="271"/>
-      <c r="G166" s="271"/>
-      <c r="H166" s="271"/>
-      <c r="I166" s="271"/>
-      <c r="J166" s="271"/>
-      <c r="K166" s="271"/>
-      <c r="L166" s="271"/>
-      <c r="M166" s="276"/>
-    </row>
-    <row r="167" spans="1:13" ht="15">
-      <c r="A167" s="277" t="s">
+      <c r="B166" s="284"/>
+      <c r="C166" s="284"/>
+      <c r="D166" s="284"/>
+      <c r="E166" s="284"/>
+      <c r="F166" s="284"/>
+      <c r="G166" s="284"/>
+      <c r="H166" s="284"/>
+      <c r="I166" s="284"/>
+      <c r="J166" s="284"/>
+      <c r="K166" s="284"/>
+      <c r="L166" s="284"/>
+      <c r="M166" s="285"/>
+    </row>
+    <row r="167" spans="1:13" ht="15.75">
+      <c r="A167" s="286" t="s">
         <v>1059</v>
       </c>
-      <c r="B167" s="278"/>
-      <c r="C167" s="278"/>
-      <c r="D167" s="278"/>
-      <c r="E167" s="278"/>
-      <c r="F167" s="278"/>
-      <c r="G167" s="278"/>
-      <c r="H167" s="278"/>
-      <c r="I167" s="278"/>
-      <c r="J167" s="278"/>
-      <c r="K167" s="278"/>
-      <c r="L167" s="278"/>
-      <c r="M167" s="279"/>
-    </row>
-    <row r="168" spans="1:13" s="284" customFormat="1"/>
-    <row r="169" spans="1:13" ht="19">
-      <c r="A169" s="321" t="s">
+      <c r="B167" s="287"/>
+      <c r="C167" s="287"/>
+      <c r="D167" s="287"/>
+      <c r="E167" s="287"/>
+      <c r="F167" s="287"/>
+      <c r="G167" s="287"/>
+      <c r="H167" s="287"/>
+      <c r="I167" s="287"/>
+      <c r="J167" s="287"/>
+      <c r="K167" s="287"/>
+      <c r="L167" s="287"/>
+      <c r="M167" s="288"/>
+    </row>
+    <row r="168" spans="1:13" s="274" customFormat="1"/>
+    <row r="169" spans="1:13" ht="18.75">
+      <c r="A169" s="271" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="322"/>
-      <c r="C169" s="322"/>
-      <c r="D169" s="322"/>
-      <c r="E169" s="322"/>
-      <c r="F169" s="322"/>
-      <c r="G169" s="322"/>
-      <c r="H169" s="322"/>
-      <c r="I169" s="322"/>
-      <c r="J169" s="322"/>
-      <c r="K169" s="322"/>
-      <c r="L169" s="322"/>
-      <c r="M169" s="323"/>
-    </row>
-    <row r="170" spans="1:13" s="284" customFormat="1"/>
-    <row r="171" spans="1:13" ht="13">
+      <c r="B169" s="272"/>
+      <c r="C169" s="272"/>
+      <c r="D169" s="272"/>
+      <c r="E169" s="272"/>
+      <c r="F169" s="272"/>
+      <c r="G169" s="272"/>
+      <c r="H169" s="272"/>
+      <c r="I169" s="272"/>
+      <c r="J169" s="272"/>
+      <c r="K169" s="272"/>
+      <c r="L169" s="272"/>
+      <c r="M169" s="273"/>
+    </row>
+    <row r="170" spans="1:13" s="274" customFormat="1"/>
+    <row r="171" spans="1:13">
       <c r="A171" s="93" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="20">
-      <c r="A172" s="320" t="s">
+    <row r="172" spans="1:13" ht="20.25">
+      <c r="A172" s="275" t="s">
         <v>1045</v>
       </c>
-      <c r="B172" s="320"/>
-      <c r="C172" s="320"/>
-      <c r="D172" s="320"/>
+      <c r="B172" s="275"/>
+      <c r="C172" s="275"/>
+      <c r="D172" s="275"/>
     </row>
     <row r="173" spans="1:13" ht="12.75" customHeight="1">
       <c r="A173" s="105"/>
@@ -68909,20 +68913,20 @@
       <c r="C173" s="105"/>
       <c r="D173" s="105"/>
     </row>
-    <row r="174" spans="1:13" ht="13">
+    <row r="174" spans="1:13">
       <c r="A174" s="93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="20">
-      <c r="A175" s="320" t="s">
+    <row r="175" spans="1:13" ht="20.25">
+      <c r="A175" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="B175" s="320"/>
-      <c r="C175" s="320"/>
-      <c r="D175" s="320"/>
-    </row>
-    <row r="176" spans="1:13" ht="20">
+      <c r="B175" s="275"/>
+      <c r="C175" s="275"/>
+      <c r="D175" s="275"/>
+    </row>
+    <row r="176" spans="1:13" ht="20.25">
       <c r="A176" s="105"/>
       <c r="B176" s="105"/>
       <c r="C176" s="105"/>
@@ -68933,13 +68937,13 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="23.15" customHeight="1">
-      <c r="A178" s="320" t="s">
+    <row r="178" spans="1:13" ht="23.1" customHeight="1">
+      <c r="A178" s="275" t="s">
         <v>1054</v>
       </c>
-      <c r="B178" s="320"/>
-      <c r="C178" s="320"/>
-      <c r="D178" s="320"/>
+      <c r="B178" s="275"/>
+      <c r="C178" s="275"/>
+      <c r="D178" s="275"/>
     </row>
     <row r="179" spans="1:13" ht="6.75" customHeight="1">
       <c r="A179" s="105"/>
@@ -68947,77 +68951,228 @@
       <c r="C179" s="105"/>
       <c r="D179" s="105"/>
     </row>
-    <row r="180" spans="1:13" ht="8.15" customHeight="1">
+    <row r="180" spans="1:13" ht="8.1" customHeight="1">
       <c r="A180" s="105"/>
       <c r="B180" s="105"/>
       <c r="C180" s="105"/>
       <c r="D180" s="105"/>
     </row>
-    <row r="181" spans="1:13" s="284" customFormat="1"/>
-    <row r="182" spans="1:13" ht="19">
-      <c r="A182" s="321" t="s">
+    <row r="181" spans="1:13" s="274" customFormat="1"/>
+    <row r="182" spans="1:13" ht="18.75">
+      <c r="A182" s="271" t="s">
         <v>8</v>
       </c>
-      <c r="B182" s="322"/>
-      <c r="C182" s="322"/>
-      <c r="D182" s="322"/>
-      <c r="E182" s="322"/>
-      <c r="F182" s="322"/>
-      <c r="G182" s="322"/>
-      <c r="H182" s="322"/>
-      <c r="I182" s="322"/>
-      <c r="J182" s="322"/>
-      <c r="K182" s="322"/>
-      <c r="L182" s="322"/>
-      <c r="M182" s="323"/>
-    </row>
-    <row r="183" spans="1:13" s="284" customFormat="1"/>
+      <c r="B182" s="272"/>
+      <c r="C182" s="272"/>
+      <c r="D182" s="272"/>
+      <c r="E182" s="272"/>
+      <c r="F182" s="272"/>
+      <c r="G182" s="272"/>
+      <c r="H182" s="272"/>
+      <c r="I182" s="272"/>
+      <c r="J182" s="272"/>
+      <c r="K182" s="272"/>
+      <c r="L182" s="272"/>
+      <c r="M182" s="273"/>
+    </row>
+    <row r="183" spans="1:13" s="274" customFormat="1"/>
     <row r="184" spans="1:13">
       <c r="A184" s="126" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="20">
-      <c r="A185" s="320" t="s">
+    <row r="185" spans="1:13" ht="20.25">
+      <c r="A185" s="275" t="s">
         <v>1055</v>
       </c>
-      <c r="B185" s="320"/>
-      <c r="C185" s="320"/>
-      <c r="D185" s="320"/>
-    </row>
-    <row r="187" spans="1:13" ht="19">
-      <c r="A187" s="321" t="s">
+      <c r="B185" s="275"/>
+      <c r="C185" s="275"/>
+      <c r="D185" s="275"/>
+    </row>
+    <row r="187" spans="1:13" ht="18.75">
+      <c r="A187" s="271" t="s">
         <v>822</v>
       </c>
-      <c r="B187" s="322"/>
-      <c r="C187" s="322"/>
-      <c r="D187" s="322"/>
-      <c r="E187" s="322"/>
-      <c r="F187" s="322"/>
-      <c r="G187" s="322"/>
-      <c r="H187" s="322"/>
-      <c r="I187" s="322"/>
-      <c r="J187" s="322"/>
-      <c r="K187" s="322"/>
-      <c r="L187" s="322"/>
-      <c r="M187" s="323"/>
-    </row>
-    <row r="188" spans="1:13" s="284" customFormat="1"/>
-    <row r="189" spans="1:13" ht="13">
+      <c r="B187" s="272"/>
+      <c r="C187" s="272"/>
+      <c r="D187" s="272"/>
+      <c r="E187" s="272"/>
+      <c r="F187" s="272"/>
+      <c r="G187" s="272"/>
+      <c r="H187" s="272"/>
+      <c r="I187" s="272"/>
+      <c r="J187" s="272"/>
+      <c r="K187" s="272"/>
+      <c r="L187" s="272"/>
+      <c r="M187" s="273"/>
+    </row>
+    <row r="188" spans="1:13" s="274" customFormat="1"/>
+    <row r="189" spans="1:13">
       <c r="A189" s="93" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="20">
-      <c r="A190" s="320" t="s">
+    <row r="190" spans="1:13" ht="20.25">
+      <c r="A190" s="275" t="s">
         <v>824</v>
       </c>
-      <c r="B190" s="320"/>
-      <c r="C190" s="320"/>
-      <c r="D190" s="320"/>
+      <c r="B190" s="275"/>
+      <c r="C190" s="275"/>
+      <c r="D190" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="175">
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A46:XFD46"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A36:XFD36"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A61:XFD61"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A55:XFD55"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A58:XFD58"/>
+    <mergeCell ref="A49:XFD49"/>
+    <mergeCell ref="A52:XFD52"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A90:XFD90"/>
+    <mergeCell ref="A93:XFD93"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A81:XFD81"/>
+    <mergeCell ref="A84:XFD84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A78:XFD78"/>
+    <mergeCell ref="A139:H139"/>
+    <mergeCell ref="A140:H140"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A143:L143"/>
+    <mergeCell ref="A144:L144"/>
+    <mergeCell ref="A141:XFD141"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:XFD129"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:XFD127"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:XFD125"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="A117:XFD117"/>
+    <mergeCell ref="A120:XFD120"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A109:XFD109"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A96:XFD96"/>
+    <mergeCell ref="A102:XFD102"/>
+    <mergeCell ref="A107:L107"/>
+    <mergeCell ref="A99:XFD99"/>
+    <mergeCell ref="A106:XFD106"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A108:L108"/>
+    <mergeCell ref="A151:N151"/>
+    <mergeCell ref="A150:N150"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:XFD131"/>
+    <mergeCell ref="A148:XFD148"/>
+    <mergeCell ref="A147:H147"/>
+    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A145:XFD145"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A142:L142"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A114:XFD114"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A181:XFD181"/>
+    <mergeCell ref="A183:XFD183"/>
+    <mergeCell ref="A178:D178"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A66:XFD66"/>
+    <mergeCell ref="A75:XFD75"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A72:XFD72"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A163:XFD163"/>
+    <mergeCell ref="A152:XFD152"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="A155:XFD155"/>
+    <mergeCell ref="A123:XFD123"/>
+    <mergeCell ref="A111:G111"/>
+    <mergeCell ref="A112:XFD112"/>
+    <mergeCell ref="A98:D98"/>
     <mergeCell ref="A187:M187"/>
     <mergeCell ref="A188:XFD188"/>
     <mergeCell ref="A190:D190"/>
@@ -69042,157 +69197,6 @@
     <mergeCell ref="A170:XFD170"/>
     <mergeCell ref="A182:M182"/>
     <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A181:XFD181"/>
-    <mergeCell ref="A183:XFD183"/>
-    <mergeCell ref="A178:D178"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A66:XFD66"/>
-    <mergeCell ref="A75:XFD75"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A72:XFD72"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A163:XFD163"/>
-    <mergeCell ref="A152:XFD152"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="A155:XFD155"/>
-    <mergeCell ref="A123:XFD123"/>
-    <mergeCell ref="A111:G111"/>
-    <mergeCell ref="A112:XFD112"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A96:XFD96"/>
-    <mergeCell ref="A102:XFD102"/>
-    <mergeCell ref="A107:L107"/>
-    <mergeCell ref="A99:XFD99"/>
-    <mergeCell ref="A106:XFD106"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A108:L108"/>
-    <mergeCell ref="A151:N151"/>
-    <mergeCell ref="A150:N150"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:XFD131"/>
-    <mergeCell ref="A148:XFD148"/>
-    <mergeCell ref="A147:H147"/>
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A145:XFD145"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A142:L142"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A114:XFD114"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A78:XFD78"/>
-    <mergeCell ref="A139:H139"/>
-    <mergeCell ref="A140:H140"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="A143:L143"/>
-    <mergeCell ref="A144:L144"/>
-    <mergeCell ref="A141:XFD141"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:XFD129"/>
-    <mergeCell ref="A122:G122"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:XFD127"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:XFD125"/>
-    <mergeCell ref="A116:I116"/>
-    <mergeCell ref="A117:XFD117"/>
-    <mergeCell ref="A120:XFD120"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A109:XFD109"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A90:XFD90"/>
-    <mergeCell ref="A93:XFD93"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A3:XFD3"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A81:XFD81"/>
-    <mergeCell ref="A84:XFD84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:XFD61"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A55:XFD55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:XFD58"/>
-    <mergeCell ref="A49:XFD49"/>
-    <mergeCell ref="A52:XFD52"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A11:XFD11"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A46:XFD46"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A36:XFD36"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A30:H30"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
@@ -69216,7 +69220,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
   </cols>

--- a/forms/thomas_form.xlsx
+++ b/forms/thomas_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba3bd2985b379b5a/Documents/Autofill/forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCFF098-9675-4405-A4E8-1F91E195F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{EFCFF098-9675-4405-A4E8-1F91E195F532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41DAC9EE-3CE0-4B53-96C5-799787F5B634}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2850" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Adds" sheetId="4" r:id="rId1"/>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="1102">
   <si>
     <t>Reducing Agents</t>
   </si>
@@ -4816,61 +4816,7 @@
     <t>film</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>(coloum I)</t>
-  </si>
-  <si>
-    <t>coloum p</t>
-  </si>
-  <si>
-    <t>Leave blank for now</t>
-  </si>
-  <si>
-    <t>always item if N applys</t>
-  </si>
-  <si>
-    <t>If there Is a cas, then it is a chemcal</t>
-  </si>
-  <si>
-    <t>leave blank for now</t>
-  </si>
-  <si>
-    <t>always Y</t>
-  </si>
-  <si>
-    <t>always no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same as fisher </t>
-  </si>
-  <si>
-    <t>same rule for fisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">same rule for fisher, please read the information in magento and concert to number </t>
-  </si>
-  <si>
-    <t>if is 2-8 C, then it should be refrigerator and if it is-20 then it is freezer</t>
-  </si>
-  <si>
-    <t>always NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leave blank for now </t>
-  </si>
-  <si>
-    <t>paste image URL in here (from magento )</t>
-  </si>
-  <si>
-    <t>(Coloum K)</t>
-  </si>
-  <si>
-    <t>if dry ice, fill in the column N then 10 dollar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DH column </t>
+    <t>2ND PUoM SIZE QTY</t>
   </si>
 </sst>
 </file>
@@ -7002,10 +6948,10 @@
   <dimension ref="A1:BU948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="BP7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG5" sqref="AG5:AG6"/>
+      <selection pane="bottomRight" activeCell="BQ6" sqref="BQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -7454,7 +7400,7 @@
         <v>1062</v>
       </c>
       <c r="J5" s="228" t="s">
-        <v>1047</v>
+        <v>1101</v>
       </c>
       <c r="K5" s="228" t="s">
         <v>1048</v>
@@ -9495,22 +9441,14 @@
       <c r="BS21" s="197"/>
       <c r="BT21" s="187"/>
     </row>
-    <row r="22" spans="1:72" s="191" customFormat="1" ht="41.45" customHeight="1">
+    <row r="22" spans="1:72" s="191" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" s="179"/>
-      <c r="B22" s="180" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C22" s="218" t="s">
-        <v>1102</v>
-      </c>
+      <c r="B22" s="180"/>
+      <c r="C22" s="218"/>
       <c r="D22" s="182"/>
       <c r="E22" s="182"/>
-      <c r="F22" s="183" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G22" s="219" t="s">
-        <v>1103</v>
-      </c>
+      <c r="F22" s="183"/>
+      <c r="G22" s="219"/>
       <c r="H22" s="185"/>
       <c r="I22" s="43"/>
       <c r="J22" s="44"/>
@@ -9518,60 +9456,28 @@
       <c r="L22" s="186"/>
       <c r="M22" s="201"/>
       <c r="N22" s="182"/>
-      <c r="O22" s="182" t="s">
-        <v>1118</v>
-      </c>
-      <c r="P22" s="220" t="s">
-        <v>1105</v>
-      </c>
+      <c r="O22" s="182"/>
+      <c r="P22" s="220"/>
       <c r="Q22" s="201"/>
-      <c r="R22" s="46" t="s">
-        <v>1106</v>
-      </c>
-      <c r="S22" s="43" t="s">
-        <v>1107</v>
-      </c>
+      <c r="R22" s="46"/>
+      <c r="S22" s="43"/>
       <c r="T22" s="184"/>
       <c r="U22" s="201"/>
-      <c r="V22" s="40" t="s">
-        <v>1108</v>
-      </c>
-      <c r="W22" s="179" t="s">
-        <v>1109</v>
-      </c>
+      <c r="V22" s="40"/>
+      <c r="W22" s="179"/>
       <c r="X22" s="182"/>
       <c r="Y22" s="203"/>
-      <c r="Z22" s="184" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AA22" s="184" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AB22" s="184" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AC22" s="184" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AD22" s="184" t="s">
-        <v>1111</v>
-      </c>
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="184"/>
+      <c r="AB22" s="184"/>
+      <c r="AC22" s="184"/>
+      <c r="AD22" s="184"/>
       <c r="AE22" s="190"/>
-      <c r="AF22" s="40" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AG22" s="184" t="s">
-        <v>1112</v>
-      </c>
-      <c r="AH22" s="221" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AI22" s="40" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AJ22" s="40" t="s">
-        <v>1104</v>
-      </c>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="184"/>
+      <c r="AH22" s="221"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
       <c r="AK22" s="179"/>
       <c r="AL22" s="179"/>
       <c r="AM22" s="179"/>
@@ -9590,20 +9496,11 @@
       <c r="AZ22" s="201"/>
       <c r="BD22" s="179"/>
       <c r="BL22" s="201"/>
-      <c r="BM22" s="222" t="s">
-        <v>1117</v>
-      </c>
-      <c r="BN22" s="191" t="s">
-        <v>1114</v>
-      </c>
-      <c r="BO22" s="216" t="s">
-        <v>1115</v>
-      </c>
+      <c r="BM22" s="222"/>
+      <c r="BO22" s="216"/>
       <c r="BP22" s="215"/>
       <c r="BQ22" s="195"/>
-      <c r="BR22" s="217" t="s">
-        <v>1116</v>
-      </c>
+      <c r="BR22" s="217"/>
       <c r="BS22" s="197"/>
       <c r="BT22" s="201"/>
     </row>

--- a/forms/thomas_form.xlsx
+++ b/forms/thomas_form.xlsx
@@ -6948,10 +6948,10 @@
   <dimension ref="A1:BU948"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="BP7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="AJ7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BQ6" sqref="BQ6"/>
+      <selection pane="bottomRight" activeCell="AS5" sqref="AS5:AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
